--- a/storage/app/private/Cars.xlsx
+++ b/storage/app/private/Cars.xlsx
@@ -31,25 +31,25 @@
     <t>make_year</t>
   </si>
   <si>
-    <t>Issue Date</t>
+    <t>issue_date</t>
   </si>
   <si>
-    <t>Expiry Date</t>
+    <t>expiry_date</t>
   </si>
   <si>
-    <t>Registration Valid For Days</t>
+    <t>registration_valid_for_days</t>
   </si>
   <si>
     <t>gps</t>
   </si>
   <si>
-    <t>Passing Date</t>
+    <t>passing_date</t>
   </si>
   <si>
-    <t>Passing Valid For Days</t>
+    <t>passing_valid_for_days</t>
   </si>
   <si>
-    <t>Passing</t>
+    <t>passing_status</t>
   </si>
   <si>
     <t>expiry_insurance_date</t>
@@ -64,7 +64,7 @@
     <t>insurance_co</t>
   </si>
   <si>
-    <t>Registration</t>
+    <t>registration_status</t>
   </si>
   <si>
     <t>CITROEN C3</t>
@@ -629,7 +629,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -653,12 +653,6 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -725,7 +719,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -766,23 +760,32 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
     <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1094,35 +1097,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="17" width="6.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="18" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="18" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="18" width="24.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="14.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="18" width="13.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="18" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="19" width="18.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="18" width="11.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="18" width="12.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="19" width="5.576428571428571" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="18" width="6.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="19" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="20" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="19" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="18" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="14.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="13.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="19" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="21" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="22" width="11.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="19" width="12.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="21" width="21.433571428571426" customWidth="1" bestFit="1"/>
     <col min="14" max="14" style="18" width="29.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="18" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="18" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="18" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="18" width="18.005" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="18" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="19" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="19" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="19" width="18.005" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="19" width="8.719285714285713" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="30.75">
@@ -1132,7 +1135,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1165,7 +1168,7 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1197,7 +1200,7 @@
       <c r="B2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -1263,7 +1266,7 @@
       <c r="B3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -1329,7 +1332,7 @@
       <c r="B4" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -1395,7 +1398,7 @@
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="8" t="s">
@@ -1461,7 +1464,7 @@
       <c r="B6" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1527,7 +1530,7 @@
       <c r="B7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1593,7 +1596,7 @@
       <c r="B8" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>36</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -1659,7 +1662,7 @@
       <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="8" t="s">
@@ -1725,7 +1728,7 @@
       <c r="B10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1791,7 +1794,7 @@
       <c r="B11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -1857,7 +1860,7 @@
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D12" s="8" t="s">
@@ -1923,7 +1926,7 @@
       <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
@@ -1989,7 +1992,7 @@
       <c r="B14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="8" t="s">
@@ -2055,7 +2058,7 @@
       <c r="B15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="8" t="s">
@@ -2121,7 +2124,7 @@
       <c r="B16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D16" s="8" t="s">
@@ -2187,7 +2190,7 @@
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
@@ -2253,7 +2256,7 @@
       <c r="B18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>65</v>
       </c>
       <c r="D18" s="8" t="s">
@@ -2319,7 +2322,7 @@
       <c r="B19" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>68</v>
       </c>
       <c r="D19" s="8" t="s">
@@ -2385,7 +2388,7 @@
       <c r="B20" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2444,14 +2447,14 @@
       <c r="AB20" s="6"/>
       <c r="AC20" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="7">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2510,14 +2513,14 @@
       <c r="AB21" s="6"/>
       <c r="AC21" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="20.25">
       <c r="A22" s="7">
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D22" s="8" t="s">
@@ -2576,14 +2579,14 @@
       <c r="AB22" s="6"/>
       <c r="AC22" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="20.25">
       <c r="A23" s="7">
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>77</v>
       </c>
       <c r="D23" s="8" t="s">
@@ -2642,14 +2645,14 @@
       <c r="AB23" s="6"/>
       <c r="AC23" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="20.25">
       <c r="A24" s="7">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>80</v>
       </c>
       <c r="D24" s="8" t="s">
@@ -2708,14 +2711,14 @@
       <c r="AB24" s="6"/>
       <c r="AC24" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="20.25">
       <c r="A25" s="7">
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="8" t="s">
@@ -2774,7 +2777,7 @@
       <c r="AB25" s="6"/>
       <c r="AC25" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="28.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="20.25">
       <c r="A26" s="7">
         <v>25</v>
       </c>
@@ -2840,14 +2843,14 @@
       <c r="AB26" s="11"/>
       <c r="AC26" s="11"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="20.25">
       <c r="A27" s="7">
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D27" s="8" t="s">
@@ -2906,14 +2909,14 @@
       <c r="AB27" s="6"/>
       <c r="AC27" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="20.25">
       <c r="A28" s="7">
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D28" s="8" t="s">
@@ -2972,14 +2975,14 @@
       <c r="AB28" s="6"/>
       <c r="AC28" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="20.25">
       <c r="A29" s="7">
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -3039,14 +3042,14 @@
       <c r="AB29" s="6"/>
       <c r="AC29" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="20.25">
       <c r="A30" s="7">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D30" s="8" t="s">
@@ -3106,14 +3109,14 @@
       <c r="AB30" s="6"/>
       <c r="AC30" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="20.25">
       <c r="A31" s="7">
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>100</v>
       </c>
       <c r="D31" s="8" t="s">
@@ -3173,14 +3176,14 @@
       <c r="AB31" s="6"/>
       <c r="AC31" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="20.25">
       <c r="A32" s="7">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>102</v>
       </c>
       <c r="D32" s="8" t="s">
@@ -3240,14 +3243,14 @@
       <c r="AB32" s="6"/>
       <c r="AC32" s="6"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="24.75">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="20.25">
       <c r="A33" s="7">
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>104</v>
       </c>
       <c r="D33" s="8" t="s">
@@ -3314,7 +3317,7 @@
       <c r="B34" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>106</v>
       </c>
       <c r="D34" s="8" t="s">
@@ -3380,7 +3383,7 @@
       <c r="B35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>109</v>
       </c>
       <c r="D35" s="8" t="s">
@@ -3447,7 +3450,7 @@
       <c r="B36" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="8" t="s">
@@ -3514,7 +3517,7 @@
       <c r="B37" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>115</v>
       </c>
       <c r="D37" s="8" t="s">
@@ -3580,7 +3583,7 @@
       <c r="B38" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>117</v>
       </c>
       <c r="D38" s="8" t="s">
@@ -3646,7 +3649,7 @@
       <c r="B39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>119</v>
       </c>
       <c r="D39" s="8" t="s">
@@ -3712,7 +3715,7 @@
       <c r="B40" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>123</v>
       </c>
       <c r="D40" s="8" t="s">
@@ -3778,7 +3781,7 @@
       <c r="B41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>125</v>
       </c>
       <c r="D41" s="8" t="s">
@@ -3844,7 +3847,7 @@
       <c r="B42" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>128</v>
       </c>
       <c r="D42" s="8" t="s">
@@ -3910,7 +3913,7 @@
       <c r="B43" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>130</v>
       </c>
       <c r="D43" s="8" t="s">
@@ -3976,7 +3979,7 @@
       <c r="B44" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>132</v>
       </c>
       <c r="D44" s="8" t="s">
@@ -4042,7 +4045,7 @@
       <c r="B45" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>134</v>
       </c>
       <c r="D45" s="8" t="s">
@@ -4108,7 +4111,7 @@
       <c r="B46" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>136</v>
       </c>
       <c r="D46" s="8" t="s">
@@ -4174,7 +4177,7 @@
       <c r="B47" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>138</v>
       </c>
       <c r="D47" s="8" t="s">
@@ -4240,7 +4243,7 @@
       <c r="B48" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>140</v>
       </c>
       <c r="D48" s="8" t="s">
@@ -4306,7 +4309,7 @@
       <c r="B49" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D49" s="8" t="s">
@@ -4372,7 +4375,7 @@
       <c r="B50" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>145</v>
       </c>
       <c r="D50" s="8" t="s">
@@ -4438,7 +4441,7 @@
       <c r="B51" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>148</v>
       </c>
       <c r="D51" s="8" t="s">
@@ -4504,7 +4507,7 @@
       <c r="B52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D52" s="8" t="s">
@@ -4570,7 +4573,7 @@
       <c r="B53" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D53" s="8" t="s">
@@ -4636,7 +4639,7 @@
       <c r="B54" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D54" s="8" t="s">
@@ -4703,7 +4706,7 @@
       <c r="B55" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>156</v>
       </c>
       <c r="D55" s="8" t="s">
@@ -4770,7 +4773,7 @@
       <c r="B56" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>159</v>
       </c>
       <c r="D56" s="8" t="s">
@@ -4836,7 +4839,7 @@
       <c r="B57" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>161</v>
       </c>
       <c r="D57" s="8" t="s">
@@ -4902,7 +4905,7 @@
       <c r="B58" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>164</v>
       </c>
       <c r="D58" s="8" t="s">
@@ -4968,7 +4971,7 @@
       <c r="B59" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>167</v>
       </c>
       <c r="D59" s="8" t="s">
@@ -5034,7 +5037,7 @@
       <c r="B60" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>170</v>
       </c>
       <c r="D60" s="8" t="s">
@@ -5099,7 +5102,7 @@
       <c r="B61" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>172</v>
       </c>
       <c r="D61" s="8" t="s">
@@ -5164,7 +5167,7 @@
       <c r="B62" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>175</v>
       </c>
       <c r="D62" s="8" t="s">
@@ -5229,7 +5232,7 @@
       <c r="B63" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>177</v>
       </c>
       <c r="D63" s="8" t="s">
@@ -5292,7 +5295,7 @@
       <c r="B64" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>179</v>
       </c>
       <c r="D64" s="8" t="s">
@@ -5355,7 +5358,7 @@
       <c r="B65" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>181</v>
       </c>
       <c r="D65" s="8" t="s">
@@ -5418,7 +5421,7 @@
       <c r="B66" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>183</v>
       </c>
       <c r="D66" s="8" t="s">
@@ -5484,7 +5487,7 @@
       <c r="B67" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>185</v>
       </c>
       <c r="D67" s="8" t="s">
@@ -5550,7 +5553,7 @@
       <c r="B68" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>187</v>
       </c>
       <c r="D68" s="8" t="s">
@@ -5616,7 +5619,7 @@
       <c r="B69" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>189</v>
       </c>
       <c r="D69" s="8" t="s">
@@ -5682,7 +5685,7 @@
       <c r="B70" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>192</v>
       </c>
       <c r="D70" s="8" t="s">
@@ -5748,7 +5751,7 @@
       <c r="B71" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D71" s="8" t="s">
@@ -5814,7 +5817,7 @@
       <c r="B72" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>196</v>
       </c>
       <c r="D72" s="8" t="s">
@@ -5880,7 +5883,7 @@
       <c r="B73" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>199</v>
       </c>
       <c r="D73" s="8" t="s">
@@ -5942,7 +5945,7 @@
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="12.75">
       <c r="A74" s="13"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
+      <c r="C74" s="13"/>
       <c r="D74" s="6"/>
       <c r="E74" s="13"/>
       <c r="F74" s="10"/>
@@ -5973,7 +5976,7 @@
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="12.75">
       <c r="A75" s="13"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
+      <c r="C75" s="13"/>
       <c r="D75" s="6"/>
       <c r="E75" s="13"/>
       <c r="F75" s="10"/>
@@ -6004,7 +6007,7 @@
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="12.75">
       <c r="A76" s="13"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
+      <c r="C76" s="13"/>
       <c r="D76" s="6"/>
       <c r="E76" s="13"/>
       <c r="F76" s="10"/>
@@ -6035,7 +6038,7 @@
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="12.75">
       <c r="A77" s="13"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
+      <c r="C77" s="13"/>
       <c r="D77" s="6"/>
       <c r="E77" s="13"/>
       <c r="F77" s="10"/>
@@ -6066,7 +6069,7 @@
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="12.75">
       <c r="A78" s="13"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
+      <c r="C78" s="13"/>
       <c r="D78" s="6"/>
       <c r="E78" s="13"/>
       <c r="F78" s="10"/>
@@ -6097,7 +6100,7 @@
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="12.75">
       <c r="A79" s="13"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="6"/>
       <c r="E79" s="13"/>
       <c r="F79" s="10"/>
@@ -6128,7 +6131,7 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="12.75">
       <c r="A80" s="13"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
+      <c r="C80" s="13"/>
       <c r="D80" s="6"/>
       <c r="E80" s="13"/>
       <c r="F80" s="10"/>
@@ -6159,7 +6162,7 @@
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="12.75">
       <c r="A81" s="13"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
+      <c r="C81" s="13"/>
       <c r="D81" s="6"/>
       <c r="E81" s="13"/>
       <c r="F81" s="10"/>
@@ -6190,7 +6193,7 @@
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="12.75">
       <c r="A82" s="13"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
+      <c r="C82" s="13"/>
       <c r="D82" s="6"/>
       <c r="E82" s="13"/>
       <c r="F82" s="10"/>
@@ -6221,7 +6224,7 @@
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="12.75">
       <c r="A83" s="13"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="6"/>
       <c r="E83" s="13"/>
       <c r="F83" s="10"/>
@@ -6252,7 +6255,7 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="12.75">
       <c r="A84" s="13"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
+      <c r="C84" s="13"/>
       <c r="D84" s="6"/>
       <c r="E84" s="13"/>
       <c r="F84" s="10"/>
@@ -6283,7 +6286,7 @@
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="12.75">
       <c r="A85" s="13"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
+      <c r="C85" s="13"/>
       <c r="D85" s="6"/>
       <c r="E85" s="13"/>
       <c r="F85" s="10"/>
@@ -6314,7 +6317,7 @@
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="12.75">
       <c r="A86" s="13"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
+      <c r="C86" s="13"/>
       <c r="D86" s="6"/>
       <c r="E86" s="13"/>
       <c r="F86" s="10"/>
@@ -6345,7 +6348,7 @@
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="12.75">
       <c r="A87" s="13"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
+      <c r="C87" s="13"/>
       <c r="D87" s="6"/>
       <c r="E87" s="13"/>
       <c r="F87" s="10"/>
@@ -6376,7 +6379,7 @@
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="12.75">
       <c r="A88" s="13"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
+      <c r="C88" s="13"/>
       <c r="D88" s="6"/>
       <c r="E88" s="13"/>
       <c r="F88" s="10"/>
@@ -6407,7 +6410,7 @@
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="12.75">
       <c r="A89" s="13"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
+      <c r="C89" s="13"/>
       <c r="D89" s="6"/>
       <c r="E89" s="13"/>
       <c r="F89" s="10"/>
@@ -6438,7 +6441,7 @@
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="12.75">
       <c r="A90" s="13"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
+      <c r="C90" s="13"/>
       <c r="D90" s="6"/>
       <c r="E90" s="13"/>
       <c r="F90" s="10"/>
@@ -6469,7 +6472,7 @@
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="12.75">
       <c r="A91" s="13"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="6"/>
       <c r="E91" s="13"/>
       <c r="F91" s="10"/>
@@ -6500,7 +6503,7 @@
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="12.75">
       <c r="A92" s="13"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
+      <c r="C92" s="13"/>
       <c r="D92" s="6"/>
       <c r="E92" s="13"/>
       <c r="F92" s="10"/>
@@ -6531,7 +6534,7 @@
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="12.75">
       <c r="A93" s="13"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="6"/>
+      <c r="C93" s="13"/>
       <c r="D93" s="6"/>
       <c r="E93" s="13"/>
       <c r="F93" s="10"/>
@@ -6562,7 +6565,7 @@
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="12.75">
       <c r="A94" s="13"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="6"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="6"/>
       <c r="E94" s="13"/>
       <c r="F94" s="10"/>
@@ -6593,7 +6596,7 @@
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="12.75">
       <c r="A95" s="13"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="6"/>
+      <c r="C95" s="13"/>
       <c r="D95" s="6"/>
       <c r="E95" s="13"/>
       <c r="F95" s="10"/>
@@ -6624,7 +6627,7 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="12.75">
       <c r="A96" s="13"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
+      <c r="C96" s="13"/>
       <c r="D96" s="6"/>
       <c r="E96" s="13"/>
       <c r="F96" s="10"/>
@@ -6655,7 +6658,7 @@
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="12.75">
       <c r="A97" s="13"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="6"/>
+      <c r="C97" s="13"/>
       <c r="D97" s="6"/>
       <c r="E97" s="13"/>
       <c r="F97" s="10"/>
@@ -6686,7 +6689,7 @@
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="12.75">
       <c r="A98" s="13"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
+      <c r="C98" s="13"/>
       <c r="D98" s="6"/>
       <c r="E98" s="13"/>
       <c r="F98" s="10"/>
@@ -6717,7 +6720,7 @@
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="12.75">
       <c r="A99" s="13"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="6"/>
+      <c r="C99" s="13"/>
       <c r="D99" s="6"/>
       <c r="E99" s="13"/>
       <c r="F99" s="10"/>
@@ -6748,7 +6751,7 @@
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="12.75">
       <c r="A100" s="13"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="6"/>
+      <c r="C100" s="13"/>
       <c r="D100" s="6"/>
       <c r="E100" s="13"/>
       <c r="F100" s="10"/>
@@ -6779,7 +6782,7 @@
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="12.75">
       <c r="A101" s="13"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="6"/>
+      <c r="C101" s="13"/>
       <c r="D101" s="6"/>
       <c r="E101" s="13"/>
       <c r="F101" s="10"/>
@@ -6810,7 +6813,7 @@
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="12.75">
       <c r="A102" s="13"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
+      <c r="C102" s="13"/>
       <c r="D102" s="6"/>
       <c r="E102" s="13"/>
       <c r="F102" s="10"/>
@@ -6841,7 +6844,7 @@
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="12.75">
       <c r="A103" s="13"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="6"/>
       <c r="E103" s="13"/>
       <c r="F103" s="10"/>
@@ -6872,7 +6875,7 @@
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="12.75">
       <c r="A104" s="13"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
+      <c r="C104" s="13"/>
       <c r="D104" s="6"/>
       <c r="E104" s="13"/>
       <c r="F104" s="10"/>
@@ -6903,7 +6906,7 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="12.75">
       <c r="A105" s="13"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="6"/>
+      <c r="C105" s="13"/>
       <c r="D105" s="6"/>
       <c r="E105" s="13"/>
       <c r="F105" s="10"/>
@@ -6934,7 +6937,7 @@
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="12.75">
       <c r="A106" s="13"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="6"/>
+      <c r="C106" s="13"/>
       <c r="D106" s="6"/>
       <c r="E106" s="13"/>
       <c r="F106" s="10"/>
@@ -6965,7 +6968,7 @@
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="12.75">
       <c r="A107" s="13"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="13"/>
       <c r="D107" s="6"/>
       <c r="E107" s="13"/>
       <c r="F107" s="10"/>
@@ -6996,7 +6999,7 @@
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="12.75">
       <c r="A108" s="13"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+      <c r="C108" s="13"/>
       <c r="D108" s="6"/>
       <c r="E108" s="13"/>
       <c r="F108" s="10"/>
@@ -7027,7 +7030,7 @@
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="12.75">
       <c r="A109" s="13"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="13"/>
       <c r="D109" s="6"/>
       <c r="E109" s="13"/>
       <c r="F109" s="10"/>
@@ -7058,7 +7061,7 @@
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="12.75">
       <c r="A110" s="13"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="13"/>
       <c r="D110" s="6"/>
       <c r="E110" s="13"/>
       <c r="F110" s="10"/>
@@ -7089,7 +7092,7 @@
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="12.75">
       <c r="A111" s="13"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="6"/>
+      <c r="C111" s="13"/>
       <c r="D111" s="6"/>
       <c r="E111" s="13"/>
       <c r="F111" s="10"/>
@@ -7120,7 +7123,7 @@
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="12.75">
       <c r="A112" s="13"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="13"/>
       <c r="D112" s="6"/>
       <c r="E112" s="13"/>
       <c r="F112" s="10"/>
@@ -7151,7 +7154,7 @@
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="12.75">
       <c r="A113" s="13"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="6"/>
+      <c r="C113" s="13"/>
       <c r="D113" s="6"/>
       <c r="E113" s="13"/>
       <c r="F113" s="10"/>
@@ -7182,7 +7185,7 @@
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="12.75">
       <c r="A114" s="13"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="13"/>
       <c r="D114" s="6"/>
       <c r="E114" s="13"/>
       <c r="F114" s="10"/>
@@ -7213,7 +7216,7 @@
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="12.75">
       <c r="A115" s="13"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="6"/>
+      <c r="C115" s="13"/>
       <c r="D115" s="6"/>
       <c r="E115" s="13"/>
       <c r="F115" s="10"/>
@@ -7244,7 +7247,7 @@
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="12.75">
       <c r="A116" s="13"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="6"/>
+      <c r="C116" s="13"/>
       <c r="D116" s="6"/>
       <c r="E116" s="13"/>
       <c r="F116" s="10"/>
@@ -7275,7 +7278,7 @@
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="12.75">
       <c r="A117" s="13"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="6"/>
+      <c r="C117" s="13"/>
       <c r="D117" s="6"/>
       <c r="E117" s="13"/>
       <c r="F117" s="10"/>
@@ -7306,7 +7309,7 @@
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="12.75">
       <c r="A118" s="13"/>
       <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="13"/>
       <c r="D118" s="6"/>
       <c r="E118" s="13"/>
       <c r="F118" s="10"/>
@@ -7337,7 +7340,7 @@
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="12.75">
       <c r="A119" s="13"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="13"/>
       <c r="D119" s="6"/>
       <c r="E119" s="13"/>
       <c r="F119" s="10"/>
@@ -7368,7 +7371,7 @@
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="12.75">
       <c r="A120" s="13"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="13"/>
       <c r="D120" s="6"/>
       <c r="E120" s="13"/>
       <c r="F120" s="10"/>
@@ -7399,7 +7402,7 @@
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="12.75">
       <c r="A121" s="13"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="6"/>
       <c r="E121" s="13"/>
       <c r="F121" s="10"/>
@@ -7430,7 +7433,7 @@
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="12.75">
       <c r="A122" s="13"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="6"/>
+      <c r="C122" s="13"/>
       <c r="D122" s="6"/>
       <c r="E122" s="13"/>
       <c r="F122" s="10"/>
@@ -7461,7 +7464,7 @@
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="12.75">
       <c r="A123" s="13"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="13"/>
       <c r="D123" s="6"/>
       <c r="E123" s="13"/>
       <c r="F123" s="10"/>
@@ -7492,7 +7495,7 @@
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="12.75">
       <c r="A124" s="13"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="6"/>
+      <c r="C124" s="13"/>
       <c r="D124" s="6"/>
       <c r="E124" s="13"/>
       <c r="F124" s="10"/>
@@ -7523,7 +7526,7 @@
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="12.75">
       <c r="A125" s="13"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="13"/>
       <c r="D125" s="6"/>
       <c r="E125" s="13"/>
       <c r="F125" s="10"/>
@@ -7554,7 +7557,7 @@
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="12.75">
       <c r="A126" s="13"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
+      <c r="C126" s="13"/>
       <c r="D126" s="6"/>
       <c r="E126" s="13"/>
       <c r="F126" s="10"/>
@@ -7585,7 +7588,7 @@
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="12.75">
       <c r="A127" s="13"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
+      <c r="C127" s="13"/>
       <c r="D127" s="6"/>
       <c r="E127" s="13"/>
       <c r="F127" s="10"/>
@@ -7616,7 +7619,7 @@
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="12.75">
       <c r="A128" s="13"/>
       <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
+      <c r="C128" s="13"/>
       <c r="D128" s="6"/>
       <c r="E128" s="13"/>
       <c r="F128" s="10"/>
@@ -7647,7 +7650,7 @@
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="12.75">
       <c r="A129" s="13"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
+      <c r="C129" s="13"/>
       <c r="D129" s="6"/>
       <c r="E129" s="13"/>
       <c r="F129" s="10"/>
@@ -7678,7 +7681,7 @@
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="12.75">
       <c r="A130" s="13"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
+      <c r="C130" s="13"/>
       <c r="D130" s="6"/>
       <c r="E130" s="13"/>
       <c r="F130" s="10"/>
@@ -7709,7 +7712,7 @@
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="12.75">
       <c r="A131" s="13"/>
       <c r="B131" s="6"/>
-      <c r="C131" s="6"/>
+      <c r="C131" s="13"/>
       <c r="D131" s="6"/>
       <c r="E131" s="13"/>
       <c r="F131" s="10"/>
@@ -7740,7 +7743,7 @@
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="12.75">
       <c r="A132" s="13"/>
       <c r="B132" s="6"/>
-      <c r="C132" s="6"/>
+      <c r="C132" s="13"/>
       <c r="D132" s="6"/>
       <c r="E132" s="13"/>
       <c r="F132" s="10"/>
@@ -7771,7 +7774,7 @@
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="12.75">
       <c r="A133" s="13"/>
       <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
+      <c r="C133" s="13"/>
       <c r="D133" s="6"/>
       <c r="E133" s="13"/>
       <c r="F133" s="10"/>
@@ -7802,7 +7805,7 @@
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="12.75">
       <c r="A134" s="13"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
+      <c r="C134" s="13"/>
       <c r="D134" s="6"/>
       <c r="E134" s="13"/>
       <c r="F134" s="10"/>
@@ -7833,7 +7836,7 @@
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="12.75">
       <c r="A135" s="13"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
+      <c r="C135" s="13"/>
       <c r="D135" s="6"/>
       <c r="E135" s="13"/>
       <c r="F135" s="10"/>
@@ -7864,7 +7867,7 @@
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="12.75">
       <c r="A136" s="13"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
+      <c r="C136" s="13"/>
       <c r="D136" s="6"/>
       <c r="E136" s="13"/>
       <c r="F136" s="10"/>
@@ -7895,7 +7898,7 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="12.75">
       <c r="A137" s="13"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
+      <c r="C137" s="13"/>
       <c r="D137" s="6"/>
       <c r="E137" s="13"/>
       <c r="F137" s="10"/>
@@ -7926,7 +7929,7 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="12.75">
       <c r="A138" s="13"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
+      <c r="C138" s="13"/>
       <c r="D138" s="6"/>
       <c r="E138" s="13"/>
       <c r="F138" s="10"/>
@@ -7957,7 +7960,7 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="12.75">
       <c r="A139" s="13"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="6"/>
+      <c r="C139" s="13"/>
       <c r="D139" s="6"/>
       <c r="E139" s="13"/>
       <c r="F139" s="10"/>
@@ -7988,7 +7991,7 @@
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="12.75">
       <c r="A140" s="13"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="6"/>
+      <c r="C140" s="13"/>
       <c r="D140" s="6"/>
       <c r="E140" s="13"/>
       <c r="F140" s="10"/>
@@ -8019,7 +8022,7 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="12.75">
       <c r="A141" s="13"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
+      <c r="C141" s="13"/>
       <c r="D141" s="6"/>
       <c r="E141" s="13"/>
       <c r="F141" s="10"/>
@@ -8050,7 +8053,7 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="12.75">
       <c r="A142" s="13"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
+      <c r="C142" s="13"/>
       <c r="D142" s="6"/>
       <c r="E142" s="13"/>
       <c r="F142" s="10"/>
@@ -8081,7 +8084,7 @@
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="12.75">
       <c r="A143" s="13"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
+      <c r="C143" s="13"/>
       <c r="D143" s="6"/>
       <c r="E143" s="13"/>
       <c r="F143" s="10"/>
@@ -8112,7 +8115,7 @@
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="12.75">
       <c r="A144" s="13"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="6"/>
+      <c r="C144" s="13"/>
       <c r="D144" s="6"/>
       <c r="E144" s="13"/>
       <c r="F144" s="10"/>
@@ -8143,7 +8146,7 @@
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="12.75">
       <c r="A145" s="13"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="6"/>
+      <c r="C145" s="13"/>
       <c r="D145" s="6"/>
       <c r="E145" s="13"/>
       <c r="F145" s="10"/>
@@ -8174,7 +8177,7 @@
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="12.75">
       <c r="A146" s="13"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="6"/>
+      <c r="C146" s="13"/>
       <c r="D146" s="6"/>
       <c r="E146" s="13"/>
       <c r="F146" s="10"/>
@@ -8205,7 +8208,7 @@
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="12.75">
       <c r="A147" s="13"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="6"/>
+      <c r="C147" s="13"/>
       <c r="D147" s="6"/>
       <c r="E147" s="13"/>
       <c r="F147" s="10"/>
@@ -8236,7 +8239,7 @@
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="12.75">
       <c r="A148" s="13"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="6"/>
+      <c r="C148" s="13"/>
       <c r="D148" s="6"/>
       <c r="E148" s="13"/>
       <c r="F148" s="10"/>
@@ -8267,7 +8270,7 @@
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="12.75">
       <c r="A149" s="13"/>
       <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="C149" s="13"/>
       <c r="D149" s="6"/>
       <c r="E149" s="13"/>
       <c r="F149" s="10"/>
@@ -8298,7 +8301,7 @@
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="12.75">
       <c r="A150" s="13"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
+      <c r="C150" s="13"/>
       <c r="D150" s="6"/>
       <c r="E150" s="13"/>
       <c r="F150" s="10"/>
@@ -8329,7 +8332,7 @@
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="12.75">
       <c r="A151" s="13"/>
       <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="C151" s="13"/>
       <c r="D151" s="6"/>
       <c r="E151" s="13"/>
       <c r="F151" s="10"/>
@@ -8360,7 +8363,7 @@
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="12.75">
       <c r="A152" s="13"/>
       <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
+      <c r="C152" s="13"/>
       <c r="D152" s="6"/>
       <c r="E152" s="13"/>
       <c r="F152" s="10"/>
@@ -8391,7 +8394,7 @@
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="12.75">
       <c r="A153" s="13"/>
       <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
+      <c r="C153" s="13"/>
       <c r="D153" s="6"/>
       <c r="E153" s="13"/>
       <c r="F153" s="10"/>
@@ -8422,7 +8425,7 @@
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="12.75">
       <c r="A154" s="13"/>
       <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
+      <c r="C154" s="13"/>
       <c r="D154" s="6"/>
       <c r="E154" s="13"/>
       <c r="F154" s="10"/>
@@ -8453,7 +8456,7 @@
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="12.75">
       <c r="A155" s="13"/>
       <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
+      <c r="C155" s="13"/>
       <c r="D155" s="6"/>
       <c r="E155" s="13"/>
       <c r="F155" s="10"/>
@@ -8484,7 +8487,7 @@
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="12.75">
       <c r="A156" s="13"/>
       <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
+      <c r="C156" s="13"/>
       <c r="D156" s="6"/>
       <c r="E156" s="13"/>
       <c r="F156" s="10"/>
@@ -8515,7 +8518,7 @@
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="12.75">
       <c r="A157" s="13"/>
       <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
+      <c r="C157" s="13"/>
       <c r="D157" s="6"/>
       <c r="E157" s="13"/>
       <c r="F157" s="10"/>
@@ -8546,7 +8549,7 @@
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="12.75">
       <c r="A158" s="13"/>
       <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
+      <c r="C158" s="13"/>
       <c r="D158" s="6"/>
       <c r="E158" s="13"/>
       <c r="F158" s="10"/>
@@ -8577,7 +8580,7 @@
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="12.75">
       <c r="A159" s="13"/>
       <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
+      <c r="C159" s="13"/>
       <c r="D159" s="6"/>
       <c r="E159" s="13"/>
       <c r="F159" s="10"/>
@@ -8608,7 +8611,7 @@
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="12.75">
       <c r="A160" s="13"/>
       <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
+      <c r="C160" s="13"/>
       <c r="D160" s="6"/>
       <c r="E160" s="13"/>
       <c r="F160" s="10"/>
@@ -8639,7 +8642,7 @@
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="12.75">
       <c r="A161" s="13"/>
       <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
+      <c r="C161" s="13"/>
       <c r="D161" s="6"/>
       <c r="E161" s="13"/>
       <c r="F161" s="10"/>
@@ -8670,7 +8673,7 @@
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="12.75">
       <c r="A162" s="13"/>
       <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
+      <c r="C162" s="13"/>
       <c r="D162" s="6"/>
       <c r="E162" s="13"/>
       <c r="F162" s="10"/>
@@ -8701,7 +8704,7 @@
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="12.75">
       <c r="A163" s="13"/>
       <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
+      <c r="C163" s="13"/>
       <c r="D163" s="6"/>
       <c r="E163" s="13"/>
       <c r="F163" s="10"/>
@@ -8732,7 +8735,7 @@
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="12.75">
       <c r="A164" s="13"/>
       <c r="B164" s="6"/>
-      <c r="C164" s="6"/>
+      <c r="C164" s="13"/>
       <c r="D164" s="6"/>
       <c r="E164" s="13"/>
       <c r="F164" s="10"/>
@@ -8763,7 +8766,7 @@
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="12.75">
       <c r="A165" s="13"/>
       <c r="B165" s="6"/>
-      <c r="C165" s="6"/>
+      <c r="C165" s="13"/>
       <c r="D165" s="6"/>
       <c r="E165" s="13"/>
       <c r="F165" s="10"/>
@@ -8794,7 +8797,7 @@
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="12.75">
       <c r="A166" s="13"/>
       <c r="B166" s="6"/>
-      <c r="C166" s="6"/>
+      <c r="C166" s="13"/>
       <c r="D166" s="6"/>
       <c r="E166" s="13"/>
       <c r="F166" s="10"/>
@@ -8825,7 +8828,7 @@
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="12.75">
       <c r="A167" s="13"/>
       <c r="B167" s="6"/>
-      <c r="C167" s="6"/>
+      <c r="C167" s="13"/>
       <c r="D167" s="6"/>
       <c r="E167" s="13"/>
       <c r="F167" s="10"/>
@@ -8856,7 +8859,7 @@
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="12.75">
       <c r="A168" s="13"/>
       <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
+      <c r="C168" s="13"/>
       <c r="D168" s="6"/>
       <c r="E168" s="13"/>
       <c r="F168" s="10"/>
@@ -8887,7 +8890,7 @@
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="12.75">
       <c r="A169" s="13"/>
       <c r="B169" s="6"/>
-      <c r="C169" s="6"/>
+      <c r="C169" s="13"/>
       <c r="D169" s="6"/>
       <c r="E169" s="13"/>
       <c r="F169" s="10"/>
@@ -8918,7 +8921,7 @@
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="12.75">
       <c r="A170" s="13"/>
       <c r="B170" s="6"/>
-      <c r="C170" s="6"/>
+      <c r="C170" s="13"/>
       <c r="D170" s="6"/>
       <c r="E170" s="13"/>
       <c r="F170" s="10"/>
@@ -8949,7 +8952,7 @@
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="12.75">
       <c r="A171" s="13"/>
       <c r="B171" s="6"/>
-      <c r="C171" s="6"/>
+      <c r="C171" s="13"/>
       <c r="D171" s="6"/>
       <c r="E171" s="13"/>
       <c r="F171" s="10"/>
@@ -8980,7 +8983,7 @@
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="12.75">
       <c r="A172" s="13"/>
       <c r="B172" s="6"/>
-      <c r="C172" s="6"/>
+      <c r="C172" s="13"/>
       <c r="D172" s="6"/>
       <c r="E172" s="13"/>
       <c r="F172" s="10"/>
@@ -9011,7 +9014,7 @@
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="12.75">
       <c r="A173" s="13"/>
       <c r="B173" s="6"/>
-      <c r="C173" s="6"/>
+      <c r="C173" s="13"/>
       <c r="D173" s="6"/>
       <c r="E173" s="13"/>
       <c r="F173" s="10"/>
@@ -9042,7 +9045,7 @@
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="12.75">
       <c r="A174" s="13"/>
       <c r="B174" s="6"/>
-      <c r="C174" s="6"/>
+      <c r="C174" s="13"/>
       <c r="D174" s="6"/>
       <c r="E174" s="13"/>
       <c r="F174" s="10"/>
@@ -9073,7 +9076,7 @@
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="12.75">
       <c r="A175" s="13"/>
       <c r="B175" s="6"/>
-      <c r="C175" s="6"/>
+      <c r="C175" s="13"/>
       <c r="D175" s="6"/>
       <c r="E175" s="13"/>
       <c r="F175" s="10"/>
@@ -9104,7 +9107,7 @@
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="12.75">
       <c r="A176" s="13"/>
       <c r="B176" s="6"/>
-      <c r="C176" s="6"/>
+      <c r="C176" s="13"/>
       <c r="D176" s="6"/>
       <c r="E176" s="13"/>
       <c r="F176" s="10"/>
@@ -9135,7 +9138,7 @@
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="12.75">
       <c r="A177" s="13"/>
       <c r="B177" s="6"/>
-      <c r="C177" s="6"/>
+      <c r="C177" s="13"/>
       <c r="D177" s="6"/>
       <c r="E177" s="13"/>
       <c r="F177" s="10"/>
@@ -9166,7 +9169,7 @@
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="12.75">
       <c r="A178" s="13"/>
       <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
+      <c r="C178" s="13"/>
       <c r="D178" s="6"/>
       <c r="E178" s="13"/>
       <c r="F178" s="10"/>
@@ -9197,7 +9200,7 @@
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="12.75">
       <c r="A179" s="13"/>
       <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
+      <c r="C179" s="13"/>
       <c r="D179" s="6"/>
       <c r="E179" s="13"/>
       <c r="F179" s="10"/>
@@ -9228,7 +9231,7 @@
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="12.75">
       <c r="A180" s="13"/>
       <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
+      <c r="C180" s="13"/>
       <c r="D180" s="6"/>
       <c r="E180" s="13"/>
       <c r="F180" s="10"/>
@@ -9259,7 +9262,7 @@
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="12.75">
       <c r="A181" s="13"/>
       <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
+      <c r="C181" s="13"/>
       <c r="D181" s="6"/>
       <c r="E181" s="13"/>
       <c r="F181" s="10"/>
@@ -9290,7 +9293,7 @@
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="12.75">
       <c r="A182" s="13"/>
       <c r="B182" s="6"/>
-      <c r="C182" s="6"/>
+      <c r="C182" s="13"/>
       <c r="D182" s="6"/>
       <c r="E182" s="13"/>
       <c r="F182" s="10"/>
@@ -9321,7 +9324,7 @@
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="12.75">
       <c r="A183" s="13"/>
       <c r="B183" s="6"/>
-      <c r="C183" s="6"/>
+      <c r="C183" s="13"/>
       <c r="D183" s="6"/>
       <c r="E183" s="13"/>
       <c r="F183" s="10"/>
@@ -9352,7 +9355,7 @@
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="12.75">
       <c r="A184" s="13"/>
       <c r="B184" s="6"/>
-      <c r="C184" s="6"/>
+      <c r="C184" s="13"/>
       <c r="D184" s="6"/>
       <c r="E184" s="13"/>
       <c r="F184" s="10"/>
@@ -9383,7 +9386,7 @@
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="12.75">
       <c r="A185" s="13"/>
       <c r="B185" s="6"/>
-      <c r="C185" s="6"/>
+      <c r="C185" s="13"/>
       <c r="D185" s="6"/>
       <c r="E185" s="13"/>
       <c r="F185" s="10"/>
@@ -9414,7 +9417,7 @@
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="12.75">
       <c r="A186" s="13"/>
       <c r="B186" s="6"/>
-      <c r="C186" s="6"/>
+      <c r="C186" s="13"/>
       <c r="D186" s="6"/>
       <c r="E186" s="13"/>
       <c r="F186" s="10"/>
@@ -9445,7 +9448,7 @@
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="12.75">
       <c r="A187" s="13"/>
       <c r="B187" s="6"/>
-      <c r="C187" s="6"/>
+      <c r="C187" s="13"/>
       <c r="D187" s="6"/>
       <c r="E187" s="13"/>
       <c r="F187" s="10"/>
@@ -9476,7 +9479,7 @@
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="12.75">
       <c r="A188" s="13"/>
       <c r="B188" s="6"/>
-      <c r="C188" s="6"/>
+      <c r="C188" s="13"/>
       <c r="D188" s="6"/>
       <c r="E188" s="13"/>
       <c r="F188" s="10"/>
@@ -9507,7 +9510,7 @@
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="12.75">
       <c r="A189" s="13"/>
       <c r="B189" s="6"/>
-      <c r="C189" s="6"/>
+      <c r="C189" s="13"/>
       <c r="D189" s="6"/>
       <c r="E189" s="13"/>
       <c r="F189" s="10"/>
@@ -9538,7 +9541,7 @@
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="12.75">
       <c r="A190" s="13"/>
       <c r="B190" s="6"/>
-      <c r="C190" s="6"/>
+      <c r="C190" s="13"/>
       <c r="D190" s="6"/>
       <c r="E190" s="13"/>
       <c r="F190" s="10"/>
@@ -9569,7 +9572,7 @@
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="12.75">
       <c r="A191" s="13"/>
       <c r="B191" s="6"/>
-      <c r="C191" s="6"/>
+      <c r="C191" s="13"/>
       <c r="D191" s="6"/>
       <c r="E191" s="13"/>
       <c r="F191" s="10"/>
@@ -9600,7 +9603,7 @@
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="12.75">
       <c r="A192" s="13"/>
       <c r="B192" s="6"/>
-      <c r="C192" s="6"/>
+      <c r="C192" s="13"/>
       <c r="D192" s="6"/>
       <c r="E192" s="13"/>
       <c r="F192" s="10"/>
@@ -9631,7 +9634,7 @@
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="12.75">
       <c r="A193" s="13"/>
       <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
+      <c r="C193" s="13"/>
       <c r="D193" s="6"/>
       <c r="E193" s="13"/>
       <c r="F193" s="10"/>
@@ -9662,7 +9665,7 @@
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="12.75">
       <c r="A194" s="13"/>
       <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
+      <c r="C194" s="13"/>
       <c r="D194" s="6"/>
       <c r="E194" s="13"/>
       <c r="F194" s="10"/>
@@ -9693,7 +9696,7 @@
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="12.75">
       <c r="A195" s="13"/>
       <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
+      <c r="C195" s="13"/>
       <c r="D195" s="6"/>
       <c r="E195" s="13"/>
       <c r="F195" s="10"/>
@@ -9724,7 +9727,7 @@
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="12.75">
       <c r="A196" s="13"/>
       <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
+      <c r="C196" s="13"/>
       <c r="D196" s="6"/>
       <c r="E196" s="13"/>
       <c r="F196" s="10"/>
@@ -9755,7 +9758,7 @@
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="12.75">
       <c r="A197" s="13"/>
       <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
+      <c r="C197" s="13"/>
       <c r="D197" s="6"/>
       <c r="E197" s="13"/>
       <c r="F197" s="10"/>
@@ -9786,7 +9789,7 @@
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="12.75">
       <c r="A198" s="13"/>
       <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
+      <c r="C198" s="13"/>
       <c r="D198" s="6"/>
       <c r="E198" s="13"/>
       <c r="F198" s="10"/>
@@ -9817,7 +9820,7 @@
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="12.75">
       <c r="A199" s="13"/>
       <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
+      <c r="C199" s="13"/>
       <c r="D199" s="6"/>
       <c r="E199" s="13"/>
       <c r="F199" s="10"/>
@@ -9848,7 +9851,7 @@
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="12.75">
       <c r="A200" s="13"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="6"/>
+      <c r="C200" s="13"/>
       <c r="D200" s="6"/>
       <c r="E200" s="13"/>
       <c r="F200" s="10"/>
@@ -9879,7 +9882,7 @@
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="12.75">
       <c r="A201" s="13"/>
       <c r="B201" s="6"/>
-      <c r="C201" s="6"/>
+      <c r="C201" s="13"/>
       <c r="D201" s="6"/>
       <c r="E201" s="13"/>
       <c r="F201" s="10"/>
@@ -9910,7 +9913,7 @@
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="12.75">
       <c r="A202" s="13"/>
       <c r="B202" s="6"/>
-      <c r="C202" s="6"/>
+      <c r="C202" s="13"/>
       <c r="D202" s="6"/>
       <c r="E202" s="13"/>
       <c r="F202" s="10"/>
@@ -9941,7 +9944,7 @@
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="12.75">
       <c r="A203" s="13"/>
       <c r="B203" s="6"/>
-      <c r="C203" s="6"/>
+      <c r="C203" s="13"/>
       <c r="D203" s="6"/>
       <c r="E203" s="13"/>
       <c r="F203" s="10"/>
@@ -9972,7 +9975,7 @@
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="12.75">
       <c r="A204" s="13"/>
       <c r="B204" s="6"/>
-      <c r="C204" s="6"/>
+      <c r="C204" s="13"/>
       <c r="D204" s="6"/>
       <c r="E204" s="13"/>
       <c r="F204" s="10"/>
@@ -10003,7 +10006,7 @@
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="12.75">
       <c r="A205" s="13"/>
       <c r="B205" s="6"/>
-      <c r="C205" s="6"/>
+      <c r="C205" s="13"/>
       <c r="D205" s="6"/>
       <c r="E205" s="13"/>
       <c r="F205" s="10"/>
@@ -10034,7 +10037,7 @@
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="12.75">
       <c r="A206" s="13"/>
       <c r="B206" s="6"/>
-      <c r="C206" s="6"/>
+      <c r="C206" s="13"/>
       <c r="D206" s="6"/>
       <c r="E206" s="13"/>
       <c r="F206" s="10"/>
@@ -10065,7 +10068,7 @@
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="12.75">
       <c r="A207" s="13"/>
       <c r="B207" s="6"/>
-      <c r="C207" s="6"/>
+      <c r="C207" s="13"/>
       <c r="D207" s="6"/>
       <c r="E207" s="13"/>
       <c r="F207" s="10"/>
@@ -10096,7 +10099,7 @@
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="12.75">
       <c r="A208" s="13"/>
       <c r="B208" s="6"/>
-      <c r="C208" s="6"/>
+      <c r="C208" s="13"/>
       <c r="D208" s="6"/>
       <c r="E208" s="13"/>
       <c r="F208" s="10"/>
@@ -10127,7 +10130,7 @@
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="12.75">
       <c r="A209" s="13"/>
       <c r="B209" s="6"/>
-      <c r="C209" s="6"/>
+      <c r="C209" s="13"/>
       <c r="D209" s="6"/>
       <c r="E209" s="13"/>
       <c r="F209" s="10"/>
@@ -10158,7 +10161,7 @@
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="12.75">
       <c r="A210" s="13"/>
       <c r="B210" s="6"/>
-      <c r="C210" s="6"/>
+      <c r="C210" s="13"/>
       <c r="D210" s="6"/>
       <c r="E210" s="13"/>
       <c r="F210" s="10"/>
@@ -10189,7 +10192,7 @@
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="12.75">
       <c r="A211" s="13"/>
       <c r="B211" s="6"/>
-      <c r="C211" s="6"/>
+      <c r="C211" s="13"/>
       <c r="D211" s="6"/>
       <c r="E211" s="13"/>
       <c r="F211" s="10"/>
@@ -10220,7 +10223,7 @@
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="12.75">
       <c r="A212" s="13"/>
       <c r="B212" s="6"/>
-      <c r="C212" s="6"/>
+      <c r="C212" s="13"/>
       <c r="D212" s="6"/>
       <c r="E212" s="13"/>
       <c r="F212" s="10"/>
@@ -10251,7 +10254,7 @@
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="12.75">
       <c r="A213" s="13"/>
       <c r="B213" s="6"/>
-      <c r="C213" s="6"/>
+      <c r="C213" s="13"/>
       <c r="D213" s="6"/>
       <c r="E213" s="13"/>
       <c r="F213" s="10"/>
@@ -10282,7 +10285,7 @@
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="12.75">
       <c r="A214" s="13"/>
       <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
+      <c r="C214" s="13"/>
       <c r="D214" s="6"/>
       <c r="E214" s="13"/>
       <c r="F214" s="10"/>
@@ -10313,7 +10316,7 @@
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="12.75">
       <c r="A215" s="13"/>
       <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
+      <c r="C215" s="13"/>
       <c r="D215" s="6"/>
       <c r="E215" s="13"/>
       <c r="F215" s="10"/>
@@ -10344,7 +10347,7 @@
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="12.75">
       <c r="A216" s="13"/>
       <c r="B216" s="6"/>
-      <c r="C216" s="6"/>
+      <c r="C216" s="13"/>
       <c r="D216" s="6"/>
       <c r="E216" s="13"/>
       <c r="F216" s="10"/>
@@ -10375,7 +10378,7 @@
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="12.75">
       <c r="A217" s="13"/>
       <c r="B217" s="6"/>
-      <c r="C217" s="6"/>
+      <c r="C217" s="13"/>
       <c r="D217" s="6"/>
       <c r="E217" s="13"/>
       <c r="F217" s="10"/>
@@ -10406,7 +10409,7 @@
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="12.75">
       <c r="A218" s="13"/>
       <c r="B218" s="6"/>
-      <c r="C218" s="6"/>
+      <c r="C218" s="13"/>
       <c r="D218" s="6"/>
       <c r="E218" s="13"/>
       <c r="F218" s="10"/>
@@ -10437,7 +10440,7 @@
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="12.75">
       <c r="A219" s="13"/>
       <c r="B219" s="6"/>
-      <c r="C219" s="6"/>
+      <c r="C219" s="13"/>
       <c r="D219" s="6"/>
       <c r="E219" s="13"/>
       <c r="F219" s="10"/>
@@ -10468,7 +10471,7 @@
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="12.75">
       <c r="A220" s="13"/>
       <c r="B220" s="6"/>
-      <c r="C220" s="6"/>
+      <c r="C220" s="13"/>
       <c r="D220" s="6"/>
       <c r="E220" s="13"/>
       <c r="F220" s="10"/>
@@ -10499,7 +10502,7 @@
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="12.75">
       <c r="A221" s="13"/>
       <c r="B221" s="6"/>
-      <c r="C221" s="6"/>
+      <c r="C221" s="13"/>
       <c r="D221" s="6"/>
       <c r="E221" s="13"/>
       <c r="F221" s="10"/>
@@ -10530,7 +10533,7 @@
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="12.75">
       <c r="A222" s="13"/>
       <c r="B222" s="6"/>
-      <c r="C222" s="6"/>
+      <c r="C222" s="13"/>
       <c r="D222" s="6"/>
       <c r="E222" s="13"/>
       <c r="F222" s="10"/>
@@ -10561,7 +10564,7 @@
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="12.75">
       <c r="A223" s="13"/>
       <c r="B223" s="6"/>
-      <c r="C223" s="6"/>
+      <c r="C223" s="13"/>
       <c r="D223" s="6"/>
       <c r="E223" s="13"/>
       <c r="F223" s="10"/>
@@ -10592,7 +10595,7 @@
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="12.75">
       <c r="A224" s="13"/>
       <c r="B224" s="6"/>
-      <c r="C224" s="6"/>
+      <c r="C224" s="13"/>
       <c r="D224" s="6"/>
       <c r="E224" s="13"/>
       <c r="F224" s="10"/>
@@ -10623,7 +10626,7 @@
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="12.75">
       <c r="A225" s="13"/>
       <c r="B225" s="6"/>
-      <c r="C225" s="6"/>
+      <c r="C225" s="13"/>
       <c r="D225" s="6"/>
       <c r="E225" s="13"/>
       <c r="F225" s="10"/>
@@ -10654,7 +10657,7 @@
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="12.75">
       <c r="A226" s="13"/>
       <c r="B226" s="6"/>
-      <c r="C226" s="6"/>
+      <c r="C226" s="13"/>
       <c r="D226" s="6"/>
       <c r="E226" s="13"/>
       <c r="F226" s="10"/>
@@ -10685,7 +10688,7 @@
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="12.75">
       <c r="A227" s="13"/>
       <c r="B227" s="6"/>
-      <c r="C227" s="6"/>
+      <c r="C227" s="13"/>
       <c r="D227" s="6"/>
       <c r="E227" s="13"/>
       <c r="F227" s="10"/>
@@ -10716,7 +10719,7 @@
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="12.75">
       <c r="A228" s="13"/>
       <c r="B228" s="6"/>
-      <c r="C228" s="6"/>
+      <c r="C228" s="13"/>
       <c r="D228" s="6"/>
       <c r="E228" s="13"/>
       <c r="F228" s="10"/>
@@ -10747,7 +10750,7 @@
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="12.75">
       <c r="A229" s="13"/>
       <c r="B229" s="6"/>
-      <c r="C229" s="6"/>
+      <c r="C229" s="13"/>
       <c r="D229" s="6"/>
       <c r="E229" s="13"/>
       <c r="F229" s="10"/>
@@ -10778,7 +10781,7 @@
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="12.75">
       <c r="A230" s="13"/>
       <c r="B230" s="6"/>
-      <c r="C230" s="6"/>
+      <c r="C230" s="13"/>
       <c r="D230" s="6"/>
       <c r="E230" s="13"/>
       <c r="F230" s="10"/>
@@ -10809,7 +10812,7 @@
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="12.75">
       <c r="A231" s="13"/>
       <c r="B231" s="6"/>
-      <c r="C231" s="6"/>
+      <c r="C231" s="13"/>
       <c r="D231" s="6"/>
       <c r="E231" s="13"/>
       <c r="F231" s="10"/>
@@ -10840,7 +10843,7 @@
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="12.75">
       <c r="A232" s="13"/>
       <c r="B232" s="6"/>
-      <c r="C232" s="6"/>
+      <c r="C232" s="13"/>
       <c r="D232" s="6"/>
       <c r="E232" s="13"/>
       <c r="F232" s="10"/>
@@ -10871,7 +10874,7 @@
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="12.75">
       <c r="A233" s="13"/>
       <c r="B233" s="6"/>
-      <c r="C233" s="6"/>
+      <c r="C233" s="13"/>
       <c r="D233" s="6"/>
       <c r="E233" s="13"/>
       <c r="F233" s="10"/>
@@ -10902,7 +10905,7 @@
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="12.75">
       <c r="A234" s="13"/>
       <c r="B234" s="6"/>
-      <c r="C234" s="6"/>
+      <c r="C234" s="13"/>
       <c r="D234" s="6"/>
       <c r="E234" s="13"/>
       <c r="F234" s="10"/>
@@ -10933,7 +10936,7 @@
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="12.75">
       <c r="A235" s="13"/>
       <c r="B235" s="6"/>
-      <c r="C235" s="6"/>
+      <c r="C235" s="13"/>
       <c r="D235" s="6"/>
       <c r="E235" s="13"/>
       <c r="F235" s="10"/>
@@ -10964,7 +10967,7 @@
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="12.75">
       <c r="A236" s="13"/>
       <c r="B236" s="6"/>
-      <c r="C236" s="6"/>
+      <c r="C236" s="13"/>
       <c r="D236" s="6"/>
       <c r="E236" s="13"/>
       <c r="F236" s="10"/>
@@ -10995,7 +10998,7 @@
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="12.75">
       <c r="A237" s="13"/>
       <c r="B237" s="6"/>
-      <c r="C237" s="6"/>
+      <c r="C237" s="13"/>
       <c r="D237" s="6"/>
       <c r="E237" s="13"/>
       <c r="F237" s="10"/>
@@ -11026,7 +11029,7 @@
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="12.75">
       <c r="A238" s="13"/>
       <c r="B238" s="6"/>
-      <c r="C238" s="6"/>
+      <c r="C238" s="13"/>
       <c r="D238" s="6"/>
       <c r="E238" s="13"/>
       <c r="F238" s="10"/>
@@ -11057,7 +11060,7 @@
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="12.75">
       <c r="A239" s="13"/>
       <c r="B239" s="6"/>
-      <c r="C239" s="6"/>
+      <c r="C239" s="13"/>
       <c r="D239" s="6"/>
       <c r="E239" s="13"/>
       <c r="F239" s="10"/>
@@ -11088,7 +11091,7 @@
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="12.75">
       <c r="A240" s="13"/>
       <c r="B240" s="6"/>
-      <c r="C240" s="6"/>
+      <c r="C240" s="13"/>
       <c r="D240" s="6"/>
       <c r="E240" s="13"/>
       <c r="F240" s="10"/>
@@ -11119,7 +11122,7 @@
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="12.75">
       <c r="A241" s="13"/>
       <c r="B241" s="6"/>
-      <c r="C241" s="6"/>
+      <c r="C241" s="13"/>
       <c r="D241" s="6"/>
       <c r="E241" s="13"/>
       <c r="F241" s="10"/>
@@ -11150,7 +11153,7 @@
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="12.75">
       <c r="A242" s="13"/>
       <c r="B242" s="6"/>
-      <c r="C242" s="6"/>
+      <c r="C242" s="13"/>
       <c r="D242" s="6"/>
       <c r="E242" s="13"/>
       <c r="F242" s="10"/>
@@ -11181,7 +11184,7 @@
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="12.75">
       <c r="A243" s="13"/>
       <c r="B243" s="6"/>
-      <c r="C243" s="6"/>
+      <c r="C243" s="13"/>
       <c r="D243" s="6"/>
       <c r="E243" s="13"/>
       <c r="F243" s="10"/>
@@ -11212,7 +11215,7 @@
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="12.75">
       <c r="A244" s="13"/>
       <c r="B244" s="6"/>
-      <c r="C244" s="6"/>
+      <c r="C244" s="13"/>
       <c r="D244" s="6"/>
       <c r="E244" s="13"/>
       <c r="F244" s="10"/>
@@ -11243,7 +11246,7 @@
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="12.75">
       <c r="A245" s="13"/>
       <c r="B245" s="6"/>
-      <c r="C245" s="6"/>
+      <c r="C245" s="13"/>
       <c r="D245" s="6"/>
       <c r="E245" s="13"/>
       <c r="F245" s="10"/>
@@ -11274,7 +11277,7 @@
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="12.75">
       <c r="A246" s="13"/>
       <c r="B246" s="6"/>
-      <c r="C246" s="6"/>
+      <c r="C246" s="13"/>
       <c r="D246" s="6"/>
       <c r="E246" s="13"/>
       <c r="F246" s="10"/>
@@ -11305,7 +11308,7 @@
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="12.75">
       <c r="A247" s="13"/>
       <c r="B247" s="6"/>
-      <c r="C247" s="6"/>
+      <c r="C247" s="13"/>
       <c r="D247" s="6"/>
       <c r="E247" s="13"/>
       <c r="F247" s="10"/>
@@ -11336,7 +11339,7 @@
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="12.75">
       <c r="A248" s="13"/>
       <c r="B248" s="6"/>
-      <c r="C248" s="6"/>
+      <c r="C248" s="13"/>
       <c r="D248" s="6"/>
       <c r="E248" s="13"/>
       <c r="F248" s="10"/>
@@ -11367,7 +11370,7 @@
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="12.75">
       <c r="A249" s="13"/>
       <c r="B249" s="6"/>
-      <c r="C249" s="6"/>
+      <c r="C249" s="13"/>
       <c r="D249" s="6"/>
       <c r="E249" s="13"/>
       <c r="F249" s="10"/>
@@ -11398,7 +11401,7 @@
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="12.75">
       <c r="A250" s="13"/>
       <c r="B250" s="6"/>
-      <c r="C250" s="6"/>
+      <c r="C250" s="13"/>
       <c r="D250" s="6"/>
       <c r="E250" s="13"/>
       <c r="F250" s="10"/>
@@ -11429,7 +11432,7 @@
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="12.75">
       <c r="A251" s="13"/>
       <c r="B251" s="6"/>
-      <c r="C251" s="6"/>
+      <c r="C251" s="13"/>
       <c r="D251" s="6"/>
       <c r="E251" s="13"/>
       <c r="F251" s="10"/>
@@ -11460,7 +11463,7 @@
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="12.75">
       <c r="A252" s="13"/>
       <c r="B252" s="6"/>
-      <c r="C252" s="6"/>
+      <c r="C252" s="13"/>
       <c r="D252" s="6"/>
       <c r="E252" s="13"/>
       <c r="F252" s="10"/>
@@ -11491,7 +11494,7 @@
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="12.75">
       <c r="A253" s="13"/>
       <c r="B253" s="6"/>
-      <c r="C253" s="6"/>
+      <c r="C253" s="13"/>
       <c r="D253" s="6"/>
       <c r="E253" s="13"/>
       <c r="F253" s="10"/>
@@ -11522,7 +11525,7 @@
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="12.75">
       <c r="A254" s="13"/>
       <c r="B254" s="6"/>
-      <c r="C254" s="6"/>
+      <c r="C254" s="13"/>
       <c r="D254" s="6"/>
       <c r="E254" s="13"/>
       <c r="F254" s="10"/>
@@ -11553,7 +11556,7 @@
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="12.75">
       <c r="A255" s="13"/>
       <c r="B255" s="6"/>
-      <c r="C255" s="6"/>
+      <c r="C255" s="13"/>
       <c r="D255" s="6"/>
       <c r="E255" s="13"/>
       <c r="F255" s="10"/>
@@ -11584,7 +11587,7 @@
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="12.75">
       <c r="A256" s="13"/>
       <c r="B256" s="6"/>
-      <c r="C256" s="6"/>
+      <c r="C256" s="13"/>
       <c r="D256" s="6"/>
       <c r="E256" s="13"/>
       <c r="F256" s="10"/>
@@ -11615,7 +11618,7 @@
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="12.75">
       <c r="A257" s="13"/>
       <c r="B257" s="6"/>
-      <c r="C257" s="6"/>
+      <c r="C257" s="13"/>
       <c r="D257" s="6"/>
       <c r="E257" s="13"/>
       <c r="F257" s="10"/>
@@ -11646,7 +11649,7 @@
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="12.75">
       <c r="A258" s="13"/>
       <c r="B258" s="6"/>
-      <c r="C258" s="6"/>
+      <c r="C258" s="13"/>
       <c r="D258" s="6"/>
       <c r="E258" s="13"/>
       <c r="F258" s="10"/>
@@ -11677,7 +11680,7 @@
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="12.75">
       <c r="A259" s="13"/>
       <c r="B259" s="6"/>
-      <c r="C259" s="6"/>
+      <c r="C259" s="13"/>
       <c r="D259" s="6"/>
       <c r="E259" s="13"/>
       <c r="F259" s="10"/>
@@ -11708,7 +11711,7 @@
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="12.75">
       <c r="A260" s="13"/>
       <c r="B260" s="6"/>
-      <c r="C260" s="6"/>
+      <c r="C260" s="13"/>
       <c r="D260" s="6"/>
       <c r="E260" s="13"/>
       <c r="F260" s="10"/>
@@ -11739,7 +11742,7 @@
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="12.75">
       <c r="A261" s="13"/>
       <c r="B261" s="6"/>
-      <c r="C261" s="6"/>
+      <c r="C261" s="13"/>
       <c r="D261" s="6"/>
       <c r="E261" s="13"/>
       <c r="F261" s="10"/>
@@ -11770,7 +11773,7 @@
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="12.75">
       <c r="A262" s="13"/>
       <c r="B262" s="6"/>
-      <c r="C262" s="6"/>
+      <c r="C262" s="13"/>
       <c r="D262" s="6"/>
       <c r="E262" s="13"/>
       <c r="F262" s="10"/>
@@ -11801,7 +11804,7 @@
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="12.75">
       <c r="A263" s="13"/>
       <c r="B263" s="6"/>
-      <c r="C263" s="6"/>
+      <c r="C263" s="13"/>
       <c r="D263" s="6"/>
       <c r="E263" s="13"/>
       <c r="F263" s="10"/>
@@ -11832,7 +11835,7 @@
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="12.75">
       <c r="A264" s="13"/>
       <c r="B264" s="6"/>
-      <c r="C264" s="6"/>
+      <c r="C264" s="13"/>
       <c r="D264" s="6"/>
       <c r="E264" s="13"/>
       <c r="F264" s="10"/>
@@ -11863,7 +11866,7 @@
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="12.75">
       <c r="A265" s="13"/>
       <c r="B265" s="6"/>
-      <c r="C265" s="6"/>
+      <c r="C265" s="13"/>
       <c r="D265" s="6"/>
       <c r="E265" s="13"/>
       <c r="F265" s="10"/>
@@ -11894,7 +11897,7 @@
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="12.75">
       <c r="A266" s="13"/>
       <c r="B266" s="6"/>
-      <c r="C266" s="6"/>
+      <c r="C266" s="13"/>
       <c r="D266" s="6"/>
       <c r="E266" s="13"/>
       <c r="F266" s="10"/>
@@ -11925,7 +11928,7 @@
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="12.75">
       <c r="A267" s="13"/>
       <c r="B267" s="6"/>
-      <c r="C267" s="6"/>
+      <c r="C267" s="13"/>
       <c r="D267" s="6"/>
       <c r="E267" s="13"/>
       <c r="F267" s="10"/>
@@ -11956,7 +11959,7 @@
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="12.75">
       <c r="A268" s="13"/>
       <c r="B268" s="6"/>
-      <c r="C268" s="6"/>
+      <c r="C268" s="13"/>
       <c r="D268" s="6"/>
       <c r="E268" s="13"/>
       <c r="F268" s="10"/>
@@ -11987,7 +11990,7 @@
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="12.75">
       <c r="A269" s="13"/>
       <c r="B269" s="6"/>
-      <c r="C269" s="6"/>
+      <c r="C269" s="13"/>
       <c r="D269" s="6"/>
       <c r="E269" s="13"/>
       <c r="F269" s="10"/>
@@ -12018,7 +12021,7 @@
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="12.75">
       <c r="A270" s="13"/>
       <c r="B270" s="6"/>
-      <c r="C270" s="6"/>
+      <c r="C270" s="13"/>
       <c r="D270" s="6"/>
       <c r="E270" s="13"/>
       <c r="F270" s="10"/>
@@ -12049,7 +12052,7 @@
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="12.75">
       <c r="A271" s="13"/>
       <c r="B271" s="6"/>
-      <c r="C271" s="6"/>
+      <c r="C271" s="13"/>
       <c r="D271" s="6"/>
       <c r="E271" s="13"/>
       <c r="F271" s="10"/>
@@ -12080,7 +12083,7 @@
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="12.75">
       <c r="A272" s="13"/>
       <c r="B272" s="6"/>
-      <c r="C272" s="6"/>
+      <c r="C272" s="13"/>
       <c r="D272" s="6"/>
       <c r="E272" s="13"/>
       <c r="F272" s="10"/>
@@ -12111,7 +12114,7 @@
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="12.75">
       <c r="A273" s="13"/>
       <c r="B273" s="6"/>
-      <c r="C273" s="6"/>
+      <c r="C273" s="13"/>
       <c r="D273" s="6"/>
       <c r="E273" s="13"/>
       <c r="F273" s="10"/>
@@ -12142,7 +12145,7 @@
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="12.75">
       <c r="A274" s="13"/>
       <c r="B274" s="6"/>
-      <c r="C274" s="6"/>
+      <c r="C274" s="13"/>
       <c r="D274" s="6"/>
       <c r="E274" s="13"/>
       <c r="F274" s="10"/>
@@ -12173,7 +12176,7 @@
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="12.75">
       <c r="A275" s="13"/>
       <c r="B275" s="6"/>
-      <c r="C275" s="6"/>
+      <c r="C275" s="13"/>
       <c r="D275" s="6"/>
       <c r="E275" s="13"/>
       <c r="F275" s="10"/>
@@ -12204,7 +12207,7 @@
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="12.75">
       <c r="A276" s="13"/>
       <c r="B276" s="6"/>
-      <c r="C276" s="6"/>
+      <c r="C276" s="13"/>
       <c r="D276" s="6"/>
       <c r="E276" s="13"/>
       <c r="F276" s="10"/>
@@ -12235,7 +12238,7 @@
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="12.75">
       <c r="A277" s="13"/>
       <c r="B277" s="6"/>
-      <c r="C277" s="6"/>
+      <c r="C277" s="13"/>
       <c r="D277" s="6"/>
       <c r="E277" s="13"/>
       <c r="F277" s="10"/>
@@ -12266,7 +12269,7 @@
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="12.75">
       <c r="A278" s="13"/>
       <c r="B278" s="6"/>
-      <c r="C278" s="6"/>
+      <c r="C278" s="13"/>
       <c r="D278" s="6"/>
       <c r="E278" s="13"/>
       <c r="F278" s="10"/>
@@ -12297,7 +12300,7 @@
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="12.75">
       <c r="A279" s="13"/>
       <c r="B279" s="6"/>
-      <c r="C279" s="6"/>
+      <c r="C279" s="13"/>
       <c r="D279" s="6"/>
       <c r="E279" s="13"/>
       <c r="F279" s="10"/>
@@ -12328,7 +12331,7 @@
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="12.75">
       <c r="A280" s="13"/>
       <c r="B280" s="6"/>
-      <c r="C280" s="6"/>
+      <c r="C280" s="13"/>
       <c r="D280" s="6"/>
       <c r="E280" s="13"/>
       <c r="F280" s="10"/>
@@ -12359,7 +12362,7 @@
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="12.75">
       <c r="A281" s="13"/>
       <c r="B281" s="6"/>
-      <c r="C281" s="6"/>
+      <c r="C281" s="13"/>
       <c r="D281" s="6"/>
       <c r="E281" s="13"/>
       <c r="F281" s="10"/>
@@ -12390,7 +12393,7 @@
     <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="12.75">
       <c r="A282" s="13"/>
       <c r="B282" s="6"/>
-      <c r="C282" s="6"/>
+      <c r="C282" s="13"/>
       <c r="D282" s="6"/>
       <c r="E282" s="13"/>
       <c r="F282" s="10"/>
@@ -12421,7 +12424,7 @@
     <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="12.75">
       <c r="A283" s="13"/>
       <c r="B283" s="6"/>
-      <c r="C283" s="6"/>
+      <c r="C283" s="13"/>
       <c r="D283" s="6"/>
       <c r="E283" s="13"/>
       <c r="F283" s="10"/>
@@ -12452,7 +12455,7 @@
     <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="12.75">
       <c r="A284" s="13"/>
       <c r="B284" s="6"/>
-      <c r="C284" s="6"/>
+      <c r="C284" s="13"/>
       <c r="D284" s="6"/>
       <c r="E284" s="13"/>
       <c r="F284" s="10"/>
@@ -12483,7 +12486,7 @@
     <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="12.75">
       <c r="A285" s="13"/>
       <c r="B285" s="6"/>
-      <c r="C285" s="6"/>
+      <c r="C285" s="13"/>
       <c r="D285" s="6"/>
       <c r="E285" s="13"/>
       <c r="F285" s="10"/>
@@ -12514,7 +12517,7 @@
     <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="12.75">
       <c r="A286" s="13"/>
       <c r="B286" s="6"/>
-      <c r="C286" s="6"/>
+      <c r="C286" s="13"/>
       <c r="D286" s="6"/>
       <c r="E286" s="13"/>
       <c r="F286" s="10"/>
@@ -12545,7 +12548,7 @@
     <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="12.75">
       <c r="A287" s="13"/>
       <c r="B287" s="6"/>
-      <c r="C287" s="6"/>
+      <c r="C287" s="13"/>
       <c r="D287" s="6"/>
       <c r="E287" s="13"/>
       <c r="F287" s="10"/>
@@ -12576,7 +12579,7 @@
     <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="12.75">
       <c r="A288" s="13"/>
       <c r="B288" s="6"/>
-      <c r="C288" s="6"/>
+      <c r="C288" s="13"/>
       <c r="D288" s="6"/>
       <c r="E288" s="13"/>
       <c r="F288" s="10"/>
@@ -12607,7 +12610,7 @@
     <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="12.75">
       <c r="A289" s="13"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="6"/>
+      <c r="C289" s="13"/>
       <c r="D289" s="6"/>
       <c r="E289" s="13"/>
       <c r="F289" s="10"/>
@@ -12638,7 +12641,7 @@
     <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="12.75">
       <c r="A290" s="13"/>
       <c r="B290" s="6"/>
-      <c r="C290" s="6"/>
+      <c r="C290" s="13"/>
       <c r="D290" s="6"/>
       <c r="E290" s="13"/>
       <c r="F290" s="10"/>
@@ -12669,7 +12672,7 @@
     <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="12.75">
       <c r="A291" s="13"/>
       <c r="B291" s="6"/>
-      <c r="C291" s="6"/>
+      <c r="C291" s="13"/>
       <c r="D291" s="6"/>
       <c r="E291" s="13"/>
       <c r="F291" s="10"/>
@@ -12700,7 +12703,7 @@
     <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="12.75">
       <c r="A292" s="13"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="6"/>
+      <c r="C292" s="13"/>
       <c r="D292" s="6"/>
       <c r="E292" s="13"/>
       <c r="F292" s="10"/>
@@ -12731,7 +12734,7 @@
     <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="12.75">
       <c r="A293" s="13"/>
       <c r="B293" s="6"/>
-      <c r="C293" s="6"/>
+      <c r="C293" s="13"/>
       <c r="D293" s="6"/>
       <c r="E293" s="13"/>
       <c r="F293" s="10"/>
@@ -12762,7 +12765,7 @@
     <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="12.75">
       <c r="A294" s="13"/>
       <c r="B294" s="6"/>
-      <c r="C294" s="6"/>
+      <c r="C294" s="13"/>
       <c r="D294" s="6"/>
       <c r="E294" s="13"/>
       <c r="F294" s="10"/>
@@ -12793,7 +12796,7 @@
     <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="12.75">
       <c r="A295" s="13"/>
       <c r="B295" s="6"/>
-      <c r="C295" s="6"/>
+      <c r="C295" s="13"/>
       <c r="D295" s="6"/>
       <c r="E295" s="13"/>
       <c r="F295" s="10"/>
@@ -12824,7 +12827,7 @@
     <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="12.75">
       <c r="A296" s="13"/>
       <c r="B296" s="6"/>
-      <c r="C296" s="6"/>
+      <c r="C296" s="13"/>
       <c r="D296" s="6"/>
       <c r="E296" s="13"/>
       <c r="F296" s="10"/>
@@ -12855,7 +12858,7 @@
     <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="12.75">
       <c r="A297" s="13"/>
       <c r="B297" s="6"/>
-      <c r="C297" s="6"/>
+      <c r="C297" s="13"/>
       <c r="D297" s="6"/>
       <c r="E297" s="13"/>
       <c r="F297" s="10"/>
@@ -12886,7 +12889,7 @@
     <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="12.75">
       <c r="A298" s="13"/>
       <c r="B298" s="6"/>
-      <c r="C298" s="6"/>
+      <c r="C298" s="13"/>
       <c r="D298" s="6"/>
       <c r="E298" s="13"/>
       <c r="F298" s="10"/>
@@ -12917,7 +12920,7 @@
     <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="12.75">
       <c r="A299" s="13"/>
       <c r="B299" s="6"/>
-      <c r="C299" s="6"/>
+      <c r="C299" s="13"/>
       <c r="D299" s="6"/>
       <c r="E299" s="13"/>
       <c r="F299" s="10"/>
@@ -12948,7 +12951,7 @@
     <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="12.75">
       <c r="A300" s="13"/>
       <c r="B300" s="6"/>
-      <c r="C300" s="6"/>
+      <c r="C300" s="13"/>
       <c r="D300" s="6"/>
       <c r="E300" s="13"/>
       <c r="F300" s="10"/>
@@ -12979,7 +12982,7 @@
     <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="12.75">
       <c r="A301" s="13"/>
       <c r="B301" s="6"/>
-      <c r="C301" s="6"/>
+      <c r="C301" s="13"/>
       <c r="D301" s="6"/>
       <c r="E301" s="13"/>
       <c r="F301" s="10"/>
@@ -13010,7 +13013,7 @@
     <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="12.75">
       <c r="A302" s="13"/>
       <c r="B302" s="6"/>
-      <c r="C302" s="6"/>
+      <c r="C302" s="13"/>
       <c r="D302" s="6"/>
       <c r="E302" s="13"/>
       <c r="F302" s="10"/>
@@ -13041,7 +13044,7 @@
     <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="12.75">
       <c r="A303" s="13"/>
       <c r="B303" s="6"/>
-      <c r="C303" s="6"/>
+      <c r="C303" s="13"/>
       <c r="D303" s="6"/>
       <c r="E303" s="13"/>
       <c r="F303" s="10"/>
@@ -13072,7 +13075,7 @@
     <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="12.75">
       <c r="A304" s="13"/>
       <c r="B304" s="6"/>
-      <c r="C304" s="6"/>
+      <c r="C304" s="13"/>
       <c r="D304" s="6"/>
       <c r="E304" s="13"/>
       <c r="F304" s="10"/>
@@ -13103,7 +13106,7 @@
     <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="12.75">
       <c r="A305" s="13"/>
       <c r="B305" s="6"/>
-      <c r="C305" s="6"/>
+      <c r="C305" s="13"/>
       <c r="D305" s="6"/>
       <c r="E305" s="13"/>
       <c r="F305" s="10"/>
@@ -13134,7 +13137,7 @@
     <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="12.75">
       <c r="A306" s="13"/>
       <c r="B306" s="6"/>
-      <c r="C306" s="6"/>
+      <c r="C306" s="13"/>
       <c r="D306" s="6"/>
       <c r="E306" s="13"/>
       <c r="F306" s="10"/>
@@ -13165,7 +13168,7 @@
     <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="12.75">
       <c r="A307" s="13"/>
       <c r="B307" s="6"/>
-      <c r="C307" s="6"/>
+      <c r="C307" s="13"/>
       <c r="D307" s="6"/>
       <c r="E307" s="13"/>
       <c r="F307" s="10"/>
@@ -13196,7 +13199,7 @@
     <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="12.75">
       <c r="A308" s="13"/>
       <c r="B308" s="6"/>
-      <c r="C308" s="6"/>
+      <c r="C308" s="13"/>
       <c r="D308" s="6"/>
       <c r="E308" s="13"/>
       <c r="F308" s="10"/>
@@ -13227,7 +13230,7 @@
     <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="12.75">
       <c r="A309" s="13"/>
       <c r="B309" s="6"/>
-      <c r="C309" s="6"/>
+      <c r="C309" s="13"/>
       <c r="D309" s="6"/>
       <c r="E309" s="13"/>
       <c r="F309" s="10"/>
@@ -13258,7 +13261,7 @@
     <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="12.75">
       <c r="A310" s="13"/>
       <c r="B310" s="6"/>
-      <c r="C310" s="6"/>
+      <c r="C310" s="13"/>
       <c r="D310" s="6"/>
       <c r="E310" s="13"/>
       <c r="F310" s="10"/>
@@ -13289,7 +13292,7 @@
     <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="12.75">
       <c r="A311" s="13"/>
       <c r="B311" s="6"/>
-      <c r="C311" s="6"/>
+      <c r="C311" s="13"/>
       <c r="D311" s="6"/>
       <c r="E311" s="13"/>
       <c r="F311" s="10"/>
@@ -13320,7 +13323,7 @@
     <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="12.75">
       <c r="A312" s="13"/>
       <c r="B312" s="6"/>
-      <c r="C312" s="6"/>
+      <c r="C312" s="13"/>
       <c r="D312" s="6"/>
       <c r="E312" s="13"/>
       <c r="F312" s="10"/>
@@ -13351,7 +13354,7 @@
     <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="12.75">
       <c r="A313" s="13"/>
       <c r="B313" s="6"/>
-      <c r="C313" s="6"/>
+      <c r="C313" s="13"/>
       <c r="D313" s="6"/>
       <c r="E313" s="13"/>
       <c r="F313" s="10"/>
@@ -13382,7 +13385,7 @@
     <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="12.75">
       <c r="A314" s="13"/>
       <c r="B314" s="6"/>
-      <c r="C314" s="6"/>
+      <c r="C314" s="13"/>
       <c r="D314" s="6"/>
       <c r="E314" s="13"/>
       <c r="F314" s="10"/>
@@ -13413,7 +13416,7 @@
     <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="12.75">
       <c r="A315" s="13"/>
       <c r="B315" s="6"/>
-      <c r="C315" s="6"/>
+      <c r="C315" s="13"/>
       <c r="D315" s="6"/>
       <c r="E315" s="13"/>
       <c r="F315" s="10"/>
@@ -13444,7 +13447,7 @@
     <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="12.75">
       <c r="A316" s="13"/>
       <c r="B316" s="6"/>
-      <c r="C316" s="6"/>
+      <c r="C316" s="13"/>
       <c r="D316" s="6"/>
       <c r="E316" s="13"/>
       <c r="F316" s="10"/>
@@ -13475,7 +13478,7 @@
     <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="12.75">
       <c r="A317" s="13"/>
       <c r="B317" s="6"/>
-      <c r="C317" s="6"/>
+      <c r="C317" s="13"/>
       <c r="D317" s="6"/>
       <c r="E317" s="13"/>
       <c r="F317" s="10"/>
@@ -13506,7 +13509,7 @@
     <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="12.75">
       <c r="A318" s="13"/>
       <c r="B318" s="6"/>
-      <c r="C318" s="6"/>
+      <c r="C318" s="13"/>
       <c r="D318" s="6"/>
       <c r="E318" s="13"/>
       <c r="F318" s="10"/>
@@ -13537,7 +13540,7 @@
     <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="12.75">
       <c r="A319" s="13"/>
       <c r="B319" s="6"/>
-      <c r="C319" s="6"/>
+      <c r="C319" s="13"/>
       <c r="D319" s="6"/>
       <c r="E319" s="13"/>
       <c r="F319" s="10"/>
@@ -13568,7 +13571,7 @@
     <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="12.75">
       <c r="A320" s="13"/>
       <c r="B320" s="6"/>
-      <c r="C320" s="6"/>
+      <c r="C320" s="13"/>
       <c r="D320" s="6"/>
       <c r="E320" s="13"/>
       <c r="F320" s="10"/>
@@ -13599,7 +13602,7 @@
     <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="12.75">
       <c r="A321" s="13"/>
       <c r="B321" s="6"/>
-      <c r="C321" s="6"/>
+      <c r="C321" s="13"/>
       <c r="D321" s="6"/>
       <c r="E321" s="13"/>
       <c r="F321" s="10"/>
@@ -13630,7 +13633,7 @@
     <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="12.75">
       <c r="A322" s="13"/>
       <c r="B322" s="6"/>
-      <c r="C322" s="6"/>
+      <c r="C322" s="13"/>
       <c r="D322" s="6"/>
       <c r="E322" s="13"/>
       <c r="F322" s="10"/>
@@ -13661,7 +13664,7 @@
     <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="12.75">
       <c r="A323" s="13"/>
       <c r="B323" s="6"/>
-      <c r="C323" s="6"/>
+      <c r="C323" s="13"/>
       <c r="D323" s="6"/>
       <c r="E323" s="13"/>
       <c r="F323" s="10"/>
@@ -13692,7 +13695,7 @@
     <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="12.75">
       <c r="A324" s="13"/>
       <c r="B324" s="6"/>
-      <c r="C324" s="6"/>
+      <c r="C324" s="13"/>
       <c r="D324" s="6"/>
       <c r="E324" s="13"/>
       <c r="F324" s="10"/>
@@ -13723,7 +13726,7 @@
     <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="12.75">
       <c r="A325" s="13"/>
       <c r="B325" s="6"/>
-      <c r="C325" s="6"/>
+      <c r="C325" s="13"/>
       <c r="D325" s="6"/>
       <c r="E325" s="13"/>
       <c r="F325" s="10"/>
@@ -13754,7 +13757,7 @@
     <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="12.75">
       <c r="A326" s="13"/>
       <c r="B326" s="6"/>
-      <c r="C326" s="6"/>
+      <c r="C326" s="13"/>
       <c r="D326" s="6"/>
       <c r="E326" s="13"/>
       <c r="F326" s="10"/>
@@ -13785,7 +13788,7 @@
     <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="12.75">
       <c r="A327" s="13"/>
       <c r="B327" s="6"/>
-      <c r="C327" s="6"/>
+      <c r="C327" s="13"/>
       <c r="D327" s="6"/>
       <c r="E327" s="13"/>
       <c r="F327" s="10"/>
@@ -13816,7 +13819,7 @@
     <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="12.75">
       <c r="A328" s="13"/>
       <c r="B328" s="6"/>
-      <c r="C328" s="6"/>
+      <c r="C328" s="13"/>
       <c r="D328" s="6"/>
       <c r="E328" s="13"/>
       <c r="F328" s="10"/>
@@ -13847,7 +13850,7 @@
     <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="12.75">
       <c r="A329" s="13"/>
       <c r="B329" s="6"/>
-      <c r="C329" s="6"/>
+      <c r="C329" s="13"/>
       <c r="D329" s="6"/>
       <c r="E329" s="13"/>
       <c r="F329" s="10"/>
@@ -13878,7 +13881,7 @@
     <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="12.75">
       <c r="A330" s="13"/>
       <c r="B330" s="6"/>
-      <c r="C330" s="6"/>
+      <c r="C330" s="13"/>
       <c r="D330" s="6"/>
       <c r="E330" s="13"/>
       <c r="F330" s="10"/>
@@ -13909,7 +13912,7 @@
     <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="12.75">
       <c r="A331" s="13"/>
       <c r="B331" s="6"/>
-      <c r="C331" s="6"/>
+      <c r="C331" s="13"/>
       <c r="D331" s="6"/>
       <c r="E331" s="13"/>
       <c r="F331" s="10"/>
@@ -13940,7 +13943,7 @@
     <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="12.75">
       <c r="A332" s="13"/>
       <c r="B332" s="6"/>
-      <c r="C332" s="6"/>
+      <c r="C332" s="13"/>
       <c r="D332" s="6"/>
       <c r="E332" s="13"/>
       <c r="F332" s="10"/>
@@ -13971,7 +13974,7 @@
     <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="12.75">
       <c r="A333" s="13"/>
       <c r="B333" s="6"/>
-      <c r="C333" s="6"/>
+      <c r="C333" s="13"/>
       <c r="D333" s="6"/>
       <c r="E333" s="13"/>
       <c r="F333" s="10"/>
@@ -14002,7 +14005,7 @@
     <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="12.75">
       <c r="A334" s="13"/>
       <c r="B334" s="6"/>
-      <c r="C334" s="6"/>
+      <c r="C334" s="13"/>
       <c r="D334" s="6"/>
       <c r="E334" s="13"/>
       <c r="F334" s="10"/>
@@ -14033,7 +14036,7 @@
     <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="12.75">
       <c r="A335" s="13"/>
       <c r="B335" s="6"/>
-      <c r="C335" s="6"/>
+      <c r="C335" s="13"/>
       <c r="D335" s="6"/>
       <c r="E335" s="13"/>
       <c r="F335" s="10"/>
@@ -14064,7 +14067,7 @@
     <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="12.75">
       <c r="A336" s="13"/>
       <c r="B336" s="6"/>
-      <c r="C336" s="6"/>
+      <c r="C336" s="13"/>
       <c r="D336" s="6"/>
       <c r="E336" s="13"/>
       <c r="F336" s="10"/>
@@ -14095,7 +14098,7 @@
     <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="12.75">
       <c r="A337" s="13"/>
       <c r="B337" s="6"/>
-      <c r="C337" s="6"/>
+      <c r="C337" s="13"/>
       <c r="D337" s="6"/>
       <c r="E337" s="13"/>
       <c r="F337" s="10"/>
@@ -14126,7 +14129,7 @@
     <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="12.75">
       <c r="A338" s="13"/>
       <c r="B338" s="6"/>
-      <c r="C338" s="6"/>
+      <c r="C338" s="13"/>
       <c r="D338" s="6"/>
       <c r="E338" s="13"/>
       <c r="F338" s="10"/>
@@ -14157,7 +14160,7 @@
     <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="12.75">
       <c r="A339" s="13"/>
       <c r="B339" s="6"/>
-      <c r="C339" s="6"/>
+      <c r="C339" s="13"/>
       <c r="D339" s="6"/>
       <c r="E339" s="13"/>
       <c r="F339" s="10"/>
@@ -14188,7 +14191,7 @@
     <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="12.75">
       <c r="A340" s="13"/>
       <c r="B340" s="6"/>
-      <c r="C340" s="6"/>
+      <c r="C340" s="13"/>
       <c r="D340" s="6"/>
       <c r="E340" s="13"/>
       <c r="F340" s="10"/>
@@ -14219,7 +14222,7 @@
     <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="12.75">
       <c r="A341" s="13"/>
       <c r="B341" s="6"/>
-      <c r="C341" s="6"/>
+      <c r="C341" s="13"/>
       <c r="D341" s="6"/>
       <c r="E341" s="13"/>
       <c r="F341" s="10"/>
@@ -14250,7 +14253,7 @@
     <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="12.75">
       <c r="A342" s="13"/>
       <c r="B342" s="6"/>
-      <c r="C342" s="6"/>
+      <c r="C342" s="13"/>
       <c r="D342" s="6"/>
       <c r="E342" s="13"/>
       <c r="F342" s="10"/>
@@ -14281,7 +14284,7 @@
     <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="12.75">
       <c r="A343" s="13"/>
       <c r="B343" s="6"/>
-      <c r="C343" s="6"/>
+      <c r="C343" s="13"/>
       <c r="D343" s="6"/>
       <c r="E343" s="13"/>
       <c r="F343" s="10"/>
@@ -14312,7 +14315,7 @@
     <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="12.75">
       <c r="A344" s="13"/>
       <c r="B344" s="6"/>
-      <c r="C344" s="6"/>
+      <c r="C344" s="13"/>
       <c r="D344" s="6"/>
       <c r="E344" s="13"/>
       <c r="F344" s="10"/>
@@ -14343,7 +14346,7 @@
     <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="12.75">
       <c r="A345" s="13"/>
       <c r="B345" s="6"/>
-      <c r="C345" s="6"/>
+      <c r="C345" s="13"/>
       <c r="D345" s="6"/>
       <c r="E345" s="13"/>
       <c r="F345" s="10"/>
@@ -14374,7 +14377,7 @@
     <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="12.75">
       <c r="A346" s="13"/>
       <c r="B346" s="6"/>
-      <c r="C346" s="6"/>
+      <c r="C346" s="13"/>
       <c r="D346" s="6"/>
       <c r="E346" s="13"/>
       <c r="F346" s="10"/>
@@ -14405,7 +14408,7 @@
     <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="12.75">
       <c r="A347" s="13"/>
       <c r="B347" s="6"/>
-      <c r="C347" s="6"/>
+      <c r="C347" s="13"/>
       <c r="D347" s="6"/>
       <c r="E347" s="13"/>
       <c r="F347" s="10"/>
@@ -14436,7 +14439,7 @@
     <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="12.75">
       <c r="A348" s="13"/>
       <c r="B348" s="6"/>
-      <c r="C348" s="6"/>
+      <c r="C348" s="13"/>
       <c r="D348" s="6"/>
       <c r="E348" s="13"/>
       <c r="F348" s="10"/>
@@ -14467,7 +14470,7 @@
     <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="12.75">
       <c r="A349" s="13"/>
       <c r="B349" s="6"/>
-      <c r="C349" s="6"/>
+      <c r="C349" s="13"/>
       <c r="D349" s="6"/>
       <c r="E349" s="13"/>
       <c r="F349" s="10"/>
@@ -14498,7 +14501,7 @@
     <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="12.75">
       <c r="A350" s="13"/>
       <c r="B350" s="6"/>
-      <c r="C350" s="6"/>
+      <c r="C350" s="13"/>
       <c r="D350" s="6"/>
       <c r="E350" s="13"/>
       <c r="F350" s="10"/>
@@ -14529,7 +14532,7 @@
     <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="12.75">
       <c r="A351" s="13"/>
       <c r="B351" s="6"/>
-      <c r="C351" s="6"/>
+      <c r="C351" s="13"/>
       <c r="D351" s="6"/>
       <c r="E351" s="13"/>
       <c r="F351" s="10"/>
@@ -14560,7 +14563,7 @@
     <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="12.75">
       <c r="A352" s="13"/>
       <c r="B352" s="6"/>
-      <c r="C352" s="6"/>
+      <c r="C352" s="13"/>
       <c r="D352" s="6"/>
       <c r="E352" s="13"/>
       <c r="F352" s="10"/>
@@ -14591,7 +14594,7 @@
     <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="12.75">
       <c r="A353" s="13"/>
       <c r="B353" s="6"/>
-      <c r="C353" s="6"/>
+      <c r="C353" s="13"/>
       <c r="D353" s="6"/>
       <c r="E353" s="13"/>
       <c r="F353" s="10"/>
@@ -14622,7 +14625,7 @@
     <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="12.75">
       <c r="A354" s="13"/>
       <c r="B354" s="6"/>
-      <c r="C354" s="6"/>
+      <c r="C354" s="13"/>
       <c r="D354" s="6"/>
       <c r="E354" s="13"/>
       <c r="F354" s="10"/>
@@ -14653,7 +14656,7 @@
     <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="12.75">
       <c r="A355" s="13"/>
       <c r="B355" s="6"/>
-      <c r="C355" s="6"/>
+      <c r="C355" s="13"/>
       <c r="D355" s="6"/>
       <c r="E355" s="13"/>
       <c r="F355" s="10"/>
@@ -14684,7 +14687,7 @@
     <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="12.75">
       <c r="A356" s="13"/>
       <c r="B356" s="6"/>
-      <c r="C356" s="6"/>
+      <c r="C356" s="13"/>
       <c r="D356" s="6"/>
       <c r="E356" s="13"/>
       <c r="F356" s="10"/>
@@ -14715,7 +14718,7 @@
     <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="12.75">
       <c r="A357" s="13"/>
       <c r="B357" s="6"/>
-      <c r="C357" s="6"/>
+      <c r="C357" s="13"/>
       <c r="D357" s="6"/>
       <c r="E357" s="13"/>
       <c r="F357" s="10"/>
@@ -14746,7 +14749,7 @@
     <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="12.75">
       <c r="A358" s="13"/>
       <c r="B358" s="6"/>
-      <c r="C358" s="6"/>
+      <c r="C358" s="13"/>
       <c r="D358" s="6"/>
       <c r="E358" s="13"/>
       <c r="F358" s="10"/>
@@ -14777,7 +14780,7 @@
     <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="12.75">
       <c r="A359" s="13"/>
       <c r="B359" s="6"/>
-      <c r="C359" s="6"/>
+      <c r="C359" s="13"/>
       <c r="D359" s="6"/>
       <c r="E359" s="13"/>
       <c r="F359" s="10"/>
@@ -14808,7 +14811,7 @@
     <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="12.75">
       <c r="A360" s="13"/>
       <c r="B360" s="6"/>
-      <c r="C360" s="6"/>
+      <c r="C360" s="13"/>
       <c r="D360" s="6"/>
       <c r="E360" s="13"/>
       <c r="F360" s="10"/>
@@ -14839,7 +14842,7 @@
     <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="12.75">
       <c r="A361" s="13"/>
       <c r="B361" s="6"/>
-      <c r="C361" s="6"/>
+      <c r="C361" s="13"/>
       <c r="D361" s="6"/>
       <c r="E361" s="13"/>
       <c r="F361" s="10"/>
@@ -14870,7 +14873,7 @@
     <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="12.75">
       <c r="A362" s="13"/>
       <c r="B362" s="6"/>
-      <c r="C362" s="6"/>
+      <c r="C362" s="13"/>
       <c r="D362" s="6"/>
       <c r="E362" s="13"/>
       <c r="F362" s="10"/>
@@ -14901,7 +14904,7 @@
     <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="12.75">
       <c r="A363" s="13"/>
       <c r="B363" s="6"/>
-      <c r="C363" s="6"/>
+      <c r="C363" s="13"/>
       <c r="D363" s="6"/>
       <c r="E363" s="13"/>
       <c r="F363" s="10"/>
@@ -14932,7 +14935,7 @@
     <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="12.75">
       <c r="A364" s="13"/>
       <c r="B364" s="6"/>
-      <c r="C364" s="6"/>
+      <c r="C364" s="13"/>
       <c r="D364" s="6"/>
       <c r="E364" s="13"/>
       <c r="F364" s="10"/>
@@ -14963,7 +14966,7 @@
     <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="12.75">
       <c r="A365" s="13"/>
       <c r="B365" s="6"/>
-      <c r="C365" s="6"/>
+      <c r="C365" s="13"/>
       <c r="D365" s="6"/>
       <c r="E365" s="13"/>
       <c r="F365" s="10"/>
@@ -14994,7 +14997,7 @@
     <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="12.75">
       <c r="A366" s="13"/>
       <c r="B366" s="6"/>
-      <c r="C366" s="6"/>
+      <c r="C366" s="13"/>
       <c r="D366" s="6"/>
       <c r="E366" s="13"/>
       <c r="F366" s="10"/>
@@ -15025,7 +15028,7 @@
     <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="12.75">
       <c r="A367" s="13"/>
       <c r="B367" s="6"/>
-      <c r="C367" s="6"/>
+      <c r="C367" s="13"/>
       <c r="D367" s="6"/>
       <c r="E367" s="13"/>
       <c r="F367" s="10"/>
@@ -15056,7 +15059,7 @@
     <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="12.75">
       <c r="A368" s="13"/>
       <c r="B368" s="6"/>
-      <c r="C368" s="6"/>
+      <c r="C368" s="13"/>
       <c r="D368" s="6"/>
       <c r="E368" s="13"/>
       <c r="F368" s="10"/>
@@ -15087,7 +15090,7 @@
     <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="12.75">
       <c r="A369" s="13"/>
       <c r="B369" s="6"/>
-      <c r="C369" s="6"/>
+      <c r="C369" s="13"/>
       <c r="D369" s="6"/>
       <c r="E369" s="13"/>
       <c r="F369" s="10"/>
@@ -15118,7 +15121,7 @@
     <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="12.75">
       <c r="A370" s="13"/>
       <c r="B370" s="6"/>
-      <c r="C370" s="6"/>
+      <c r="C370" s="13"/>
       <c r="D370" s="6"/>
       <c r="E370" s="13"/>
       <c r="F370" s="10"/>
@@ -15149,7 +15152,7 @@
     <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="12.75">
       <c r="A371" s="13"/>
       <c r="B371" s="6"/>
-      <c r="C371" s="6"/>
+      <c r="C371" s="13"/>
       <c r="D371" s="6"/>
       <c r="E371" s="13"/>
       <c r="F371" s="10"/>
@@ -15180,7 +15183,7 @@
     <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="12.75">
       <c r="A372" s="13"/>
       <c r="B372" s="6"/>
-      <c r="C372" s="6"/>
+      <c r="C372" s="13"/>
       <c r="D372" s="6"/>
       <c r="E372" s="13"/>
       <c r="F372" s="10"/>
@@ -15211,7 +15214,7 @@
     <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="12.75">
       <c r="A373" s="13"/>
       <c r="B373" s="6"/>
-      <c r="C373" s="6"/>
+      <c r="C373" s="13"/>
       <c r="D373" s="6"/>
       <c r="E373" s="13"/>
       <c r="F373" s="10"/>
@@ -15242,7 +15245,7 @@
     <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="12.75">
       <c r="A374" s="13"/>
       <c r="B374" s="6"/>
-      <c r="C374" s="6"/>
+      <c r="C374" s="13"/>
       <c r="D374" s="6"/>
       <c r="E374" s="13"/>
       <c r="F374" s="10"/>
@@ -15273,7 +15276,7 @@
     <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="12.75">
       <c r="A375" s="13"/>
       <c r="B375" s="6"/>
-      <c r="C375" s="6"/>
+      <c r="C375" s="13"/>
       <c r="D375" s="6"/>
       <c r="E375" s="13"/>
       <c r="F375" s="10"/>
@@ -15304,7 +15307,7 @@
     <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="12.75">
       <c r="A376" s="13"/>
       <c r="B376" s="6"/>
-      <c r="C376" s="6"/>
+      <c r="C376" s="13"/>
       <c r="D376" s="6"/>
       <c r="E376" s="13"/>
       <c r="F376" s="10"/>
@@ -15335,7 +15338,7 @@
     <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="12.75">
       <c r="A377" s="13"/>
       <c r="B377" s="6"/>
-      <c r="C377" s="6"/>
+      <c r="C377" s="13"/>
       <c r="D377" s="6"/>
       <c r="E377" s="13"/>
       <c r="F377" s="10"/>
@@ -15366,7 +15369,7 @@
     <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="12.75">
       <c r="A378" s="13"/>
       <c r="B378" s="6"/>
-      <c r="C378" s="6"/>
+      <c r="C378" s="13"/>
       <c r="D378" s="6"/>
       <c r="E378" s="13"/>
       <c r="F378" s="10"/>
@@ -15397,7 +15400,7 @@
     <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="12.75">
       <c r="A379" s="13"/>
       <c r="B379" s="6"/>
-      <c r="C379" s="6"/>
+      <c r="C379" s="13"/>
       <c r="D379" s="6"/>
       <c r="E379" s="13"/>
       <c r="F379" s="10"/>
@@ -15428,7 +15431,7 @@
     <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="12.75">
       <c r="A380" s="13"/>
       <c r="B380" s="6"/>
-      <c r="C380" s="6"/>
+      <c r="C380" s="13"/>
       <c r="D380" s="6"/>
       <c r="E380" s="13"/>
       <c r="F380" s="10"/>
@@ -15459,7 +15462,7 @@
     <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="12.75">
       <c r="A381" s="13"/>
       <c r="B381" s="6"/>
-      <c r="C381" s="6"/>
+      <c r="C381" s="13"/>
       <c r="D381" s="6"/>
       <c r="E381" s="13"/>
       <c r="F381" s="10"/>
@@ -15490,7 +15493,7 @@
     <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="12.75">
       <c r="A382" s="13"/>
       <c r="B382" s="6"/>
-      <c r="C382" s="6"/>
+      <c r="C382" s="13"/>
       <c r="D382" s="6"/>
       <c r="E382" s="13"/>
       <c r="F382" s="10"/>
@@ -15521,7 +15524,7 @@
     <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="12.75">
       <c r="A383" s="13"/>
       <c r="B383" s="6"/>
-      <c r="C383" s="6"/>
+      <c r="C383" s="13"/>
       <c r="D383" s="6"/>
       <c r="E383" s="13"/>
       <c r="F383" s="10"/>
@@ -15552,7 +15555,7 @@
     <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="12.75">
       <c r="A384" s="13"/>
       <c r="B384" s="6"/>
-      <c r="C384" s="6"/>
+      <c r="C384" s="13"/>
       <c r="D384" s="6"/>
       <c r="E384" s="13"/>
       <c r="F384" s="10"/>
@@ -15583,7 +15586,7 @@
     <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="12.75">
       <c r="A385" s="13"/>
       <c r="B385" s="6"/>
-      <c r="C385" s="6"/>
+      <c r="C385" s="13"/>
       <c r="D385" s="6"/>
       <c r="E385" s="13"/>
       <c r="F385" s="10"/>
@@ -15614,7 +15617,7 @@
     <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="12.75">
       <c r="A386" s="13"/>
       <c r="B386" s="6"/>
-      <c r="C386" s="6"/>
+      <c r="C386" s="13"/>
       <c r="D386" s="6"/>
       <c r="E386" s="13"/>
       <c r="F386" s="10"/>
@@ -15645,7 +15648,7 @@
     <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="12.75">
       <c r="A387" s="13"/>
       <c r="B387" s="6"/>
-      <c r="C387" s="6"/>
+      <c r="C387" s="13"/>
       <c r="D387" s="6"/>
       <c r="E387" s="13"/>
       <c r="F387" s="10"/>
@@ -15676,7 +15679,7 @@
     <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="12.75">
       <c r="A388" s="13"/>
       <c r="B388" s="6"/>
-      <c r="C388" s="6"/>
+      <c r="C388" s="13"/>
       <c r="D388" s="6"/>
       <c r="E388" s="13"/>
       <c r="F388" s="10"/>
@@ -15707,7 +15710,7 @@
     <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="12.75">
       <c r="A389" s="13"/>
       <c r="B389" s="6"/>
-      <c r="C389" s="6"/>
+      <c r="C389" s="13"/>
       <c r="D389" s="6"/>
       <c r="E389" s="13"/>
       <c r="F389" s="10"/>
@@ -15738,7 +15741,7 @@
     <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="12.75">
       <c r="A390" s="13"/>
       <c r="B390" s="6"/>
-      <c r="C390" s="6"/>
+      <c r="C390" s="13"/>
       <c r="D390" s="6"/>
       <c r="E390" s="13"/>
       <c r="F390" s="10"/>
@@ -15769,7 +15772,7 @@
     <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="12.75">
       <c r="A391" s="13"/>
       <c r="B391" s="6"/>
-      <c r="C391" s="6"/>
+      <c r="C391" s="13"/>
       <c r="D391" s="6"/>
       <c r="E391" s="13"/>
       <c r="F391" s="10"/>
@@ -15800,7 +15803,7 @@
     <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="12.75">
       <c r="A392" s="13"/>
       <c r="B392" s="6"/>
-      <c r="C392" s="6"/>
+      <c r="C392" s="13"/>
       <c r="D392" s="6"/>
       <c r="E392" s="13"/>
       <c r="F392" s="10"/>
@@ -15831,7 +15834,7 @@
     <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="12.75">
       <c r="A393" s="13"/>
       <c r="B393" s="6"/>
-      <c r="C393" s="6"/>
+      <c r="C393" s="13"/>
       <c r="D393" s="6"/>
       <c r="E393" s="13"/>
       <c r="F393" s="10"/>
@@ -15862,7 +15865,7 @@
     <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="12.75">
       <c r="A394" s="13"/>
       <c r="B394" s="6"/>
-      <c r="C394" s="6"/>
+      <c r="C394" s="13"/>
       <c r="D394" s="6"/>
       <c r="E394" s="13"/>
       <c r="F394" s="10"/>
@@ -15893,7 +15896,7 @@
     <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="12.75">
       <c r="A395" s="13"/>
       <c r="B395" s="6"/>
-      <c r="C395" s="6"/>
+      <c r="C395" s="13"/>
       <c r="D395" s="6"/>
       <c r="E395" s="13"/>
       <c r="F395" s="10"/>
@@ -15924,7 +15927,7 @@
     <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="12.75">
       <c r="A396" s="13"/>
       <c r="B396" s="6"/>
-      <c r="C396" s="6"/>
+      <c r="C396" s="13"/>
       <c r="D396" s="6"/>
       <c r="E396" s="13"/>
       <c r="F396" s="10"/>
@@ -15955,7 +15958,7 @@
     <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="12.75">
       <c r="A397" s="13"/>
       <c r="B397" s="6"/>
-      <c r="C397" s="6"/>
+      <c r="C397" s="13"/>
       <c r="D397" s="6"/>
       <c r="E397" s="13"/>
       <c r="F397" s="10"/>
@@ -15986,7 +15989,7 @@
     <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="12.75">
       <c r="A398" s="13"/>
       <c r="B398" s="6"/>
-      <c r="C398" s="6"/>
+      <c r="C398" s="13"/>
       <c r="D398" s="6"/>
       <c r="E398" s="13"/>
       <c r="F398" s="10"/>
@@ -16017,7 +16020,7 @@
     <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="12.75">
       <c r="A399" s="13"/>
       <c r="B399" s="6"/>
-      <c r="C399" s="6"/>
+      <c r="C399" s="13"/>
       <c r="D399" s="6"/>
       <c r="E399" s="13"/>
       <c r="F399" s="10"/>
@@ -16048,7 +16051,7 @@
     <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="12.75">
       <c r="A400" s="13"/>
       <c r="B400" s="6"/>
-      <c r="C400" s="6"/>
+      <c r="C400" s="13"/>
       <c r="D400" s="6"/>
       <c r="E400" s="13"/>
       <c r="F400" s="10"/>
@@ -16079,7 +16082,7 @@
     <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="12.75">
       <c r="A401" s="13"/>
       <c r="B401" s="6"/>
-      <c r="C401" s="6"/>
+      <c r="C401" s="13"/>
       <c r="D401" s="6"/>
       <c r="E401" s="13"/>
       <c r="F401" s="10"/>
@@ -16110,7 +16113,7 @@
     <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="12.75">
       <c r="A402" s="13"/>
       <c r="B402" s="6"/>
-      <c r="C402" s="6"/>
+      <c r="C402" s="13"/>
       <c r="D402" s="6"/>
       <c r="E402" s="13"/>
       <c r="F402" s="10"/>
@@ -16141,7 +16144,7 @@
     <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="12.75">
       <c r="A403" s="13"/>
       <c r="B403" s="6"/>
-      <c r="C403" s="6"/>
+      <c r="C403" s="13"/>
       <c r="D403" s="6"/>
       <c r="E403" s="13"/>
       <c r="F403" s="10"/>
@@ -16172,7 +16175,7 @@
     <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="12.75">
       <c r="A404" s="13"/>
       <c r="B404" s="6"/>
-      <c r="C404" s="6"/>
+      <c r="C404" s="13"/>
       <c r="D404" s="6"/>
       <c r="E404" s="13"/>
       <c r="F404" s="10"/>
@@ -16203,7 +16206,7 @@
     <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="12.75">
       <c r="A405" s="13"/>
       <c r="B405" s="6"/>
-      <c r="C405" s="6"/>
+      <c r="C405" s="13"/>
       <c r="D405" s="6"/>
       <c r="E405" s="13"/>
       <c r="F405" s="10"/>
@@ -16234,7 +16237,7 @@
     <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="12.75">
       <c r="A406" s="13"/>
       <c r="B406" s="6"/>
-      <c r="C406" s="6"/>
+      <c r="C406" s="13"/>
       <c r="D406" s="6"/>
       <c r="E406" s="13"/>
       <c r="F406" s="10"/>
@@ -16265,7 +16268,7 @@
     <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="12.75">
       <c r="A407" s="13"/>
       <c r="B407" s="6"/>
-      <c r="C407" s="6"/>
+      <c r="C407" s="13"/>
       <c r="D407" s="6"/>
       <c r="E407" s="13"/>
       <c r="F407" s="10"/>
@@ -16296,7 +16299,7 @@
     <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="12.75">
       <c r="A408" s="13"/>
       <c r="B408" s="6"/>
-      <c r="C408" s="6"/>
+      <c r="C408" s="13"/>
       <c r="D408" s="6"/>
       <c r="E408" s="13"/>
       <c r="F408" s="10"/>
@@ -16327,7 +16330,7 @@
     <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="12.75">
       <c r="A409" s="13"/>
       <c r="B409" s="6"/>
-      <c r="C409" s="6"/>
+      <c r="C409" s="13"/>
       <c r="D409" s="6"/>
       <c r="E409" s="13"/>
       <c r="F409" s="10"/>
@@ -16358,7 +16361,7 @@
     <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="12.75">
       <c r="A410" s="13"/>
       <c r="B410" s="6"/>
-      <c r="C410" s="6"/>
+      <c r="C410" s="13"/>
       <c r="D410" s="6"/>
       <c r="E410" s="13"/>
       <c r="F410" s="10"/>
@@ -16389,7 +16392,7 @@
     <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="12.75">
       <c r="A411" s="13"/>
       <c r="B411" s="6"/>
-      <c r="C411" s="6"/>
+      <c r="C411" s="13"/>
       <c r="D411" s="6"/>
       <c r="E411" s="13"/>
       <c r="F411" s="10"/>
@@ -16420,7 +16423,7 @@
     <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="12.75">
       <c r="A412" s="13"/>
       <c r="B412" s="6"/>
-      <c r="C412" s="6"/>
+      <c r="C412" s="13"/>
       <c r="D412" s="6"/>
       <c r="E412" s="13"/>
       <c r="F412" s="10"/>
@@ -16451,7 +16454,7 @@
     <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="12.75">
       <c r="A413" s="13"/>
       <c r="B413" s="6"/>
-      <c r="C413" s="6"/>
+      <c r="C413" s="13"/>
       <c r="D413" s="6"/>
       <c r="E413" s="13"/>
       <c r="F413" s="10"/>
@@ -16482,7 +16485,7 @@
     <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="12.75">
       <c r="A414" s="13"/>
       <c r="B414" s="6"/>
-      <c r="C414" s="6"/>
+      <c r="C414" s="13"/>
       <c r="D414" s="6"/>
       <c r="E414" s="13"/>
       <c r="F414" s="10"/>
@@ -16513,7 +16516,7 @@
     <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="12.75">
       <c r="A415" s="13"/>
       <c r="B415" s="6"/>
-      <c r="C415" s="6"/>
+      <c r="C415" s="13"/>
       <c r="D415" s="6"/>
       <c r="E415" s="13"/>
       <c r="F415" s="10"/>
@@ -16544,7 +16547,7 @@
     <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="12.75">
       <c r="A416" s="13"/>
       <c r="B416" s="6"/>
-      <c r="C416" s="6"/>
+      <c r="C416" s="13"/>
       <c r="D416" s="6"/>
       <c r="E416" s="13"/>
       <c r="F416" s="10"/>
@@ -16575,7 +16578,7 @@
     <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="12.75">
       <c r="A417" s="13"/>
       <c r="B417" s="6"/>
-      <c r="C417" s="6"/>
+      <c r="C417" s="13"/>
       <c r="D417" s="6"/>
       <c r="E417" s="13"/>
       <c r="F417" s="10"/>
@@ -16606,7 +16609,7 @@
     <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="12.75">
       <c r="A418" s="13"/>
       <c r="B418" s="6"/>
-      <c r="C418" s="6"/>
+      <c r="C418" s="13"/>
       <c r="D418" s="6"/>
       <c r="E418" s="13"/>
       <c r="F418" s="10"/>
@@ -16637,7 +16640,7 @@
     <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="12.75">
       <c r="A419" s="13"/>
       <c r="B419" s="6"/>
-      <c r="C419" s="6"/>
+      <c r="C419" s="13"/>
       <c r="D419" s="6"/>
       <c r="E419" s="13"/>
       <c r="F419" s="10"/>
@@ -16668,7 +16671,7 @@
     <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="12.75">
       <c r="A420" s="13"/>
       <c r="B420" s="6"/>
-      <c r="C420" s="6"/>
+      <c r="C420" s="13"/>
       <c r="D420" s="6"/>
       <c r="E420" s="13"/>
       <c r="F420" s="10"/>
@@ -16699,7 +16702,7 @@
     <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="12.75">
       <c r="A421" s="13"/>
       <c r="B421" s="6"/>
-      <c r="C421" s="6"/>
+      <c r="C421" s="13"/>
       <c r="D421" s="6"/>
       <c r="E421" s="13"/>
       <c r="F421" s="10"/>
@@ -16730,7 +16733,7 @@
     <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="12.75">
       <c r="A422" s="13"/>
       <c r="B422" s="6"/>
-      <c r="C422" s="6"/>
+      <c r="C422" s="13"/>
       <c r="D422" s="6"/>
       <c r="E422" s="13"/>
       <c r="F422" s="10"/>
@@ -16761,7 +16764,7 @@
     <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="12.75">
       <c r="A423" s="13"/>
       <c r="B423" s="6"/>
-      <c r="C423" s="6"/>
+      <c r="C423" s="13"/>
       <c r="D423" s="6"/>
       <c r="E423" s="13"/>
       <c r="F423" s="10"/>
@@ -16792,7 +16795,7 @@
     <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="12.75">
       <c r="A424" s="13"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="6"/>
+      <c r="C424" s="13"/>
       <c r="D424" s="6"/>
       <c r="E424" s="13"/>
       <c r="F424" s="10"/>
@@ -16823,7 +16826,7 @@
     <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="12.75">
       <c r="A425" s="13"/>
       <c r="B425" s="6"/>
-      <c r="C425" s="6"/>
+      <c r="C425" s="13"/>
       <c r="D425" s="6"/>
       <c r="E425" s="13"/>
       <c r="F425" s="10"/>
@@ -16854,7 +16857,7 @@
     <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="12.75">
       <c r="A426" s="13"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="6"/>
+      <c r="C426" s="13"/>
       <c r="D426" s="6"/>
       <c r="E426" s="13"/>
       <c r="F426" s="10"/>
@@ -16885,7 +16888,7 @@
     <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="12.75">
       <c r="A427" s="13"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="6"/>
+      <c r="C427" s="13"/>
       <c r="D427" s="6"/>
       <c r="E427" s="13"/>
       <c r="F427" s="10"/>
@@ -16916,7 +16919,7 @@
     <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="12.75">
       <c r="A428" s="13"/>
       <c r="B428" s="6"/>
-      <c r="C428" s="6"/>
+      <c r="C428" s="13"/>
       <c r="D428" s="6"/>
       <c r="E428" s="13"/>
       <c r="F428" s="10"/>
@@ -16947,7 +16950,7 @@
     <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="12.75">
       <c r="A429" s="13"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="6"/>
+      <c r="C429" s="13"/>
       <c r="D429" s="6"/>
       <c r="E429" s="13"/>
       <c r="F429" s="10"/>
@@ -16978,7 +16981,7 @@
     <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="12.75">
       <c r="A430" s="13"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="6"/>
+      <c r="C430" s="13"/>
       <c r="D430" s="6"/>
       <c r="E430" s="13"/>
       <c r="F430" s="10"/>
@@ -17009,7 +17012,7 @@
     <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="12.75">
       <c r="A431" s="13"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="6"/>
+      <c r="C431" s="13"/>
       <c r="D431" s="6"/>
       <c r="E431" s="13"/>
       <c r="F431" s="10"/>
@@ -17040,7 +17043,7 @@
     <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="12.75">
       <c r="A432" s="13"/>
       <c r="B432" s="6"/>
-      <c r="C432" s="6"/>
+      <c r="C432" s="13"/>
       <c r="D432" s="6"/>
       <c r="E432" s="13"/>
       <c r="F432" s="10"/>
@@ -17071,7 +17074,7 @@
     <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="12.75">
       <c r="A433" s="13"/>
       <c r="B433" s="6"/>
-      <c r="C433" s="6"/>
+      <c r="C433" s="13"/>
       <c r="D433" s="6"/>
       <c r="E433" s="13"/>
       <c r="F433" s="10"/>
@@ -17102,7 +17105,7 @@
     <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="12.75">
       <c r="A434" s="13"/>
       <c r="B434" s="6"/>
-      <c r="C434" s="6"/>
+      <c r="C434" s="13"/>
       <c r="D434" s="6"/>
       <c r="E434" s="13"/>
       <c r="F434" s="10"/>
@@ -17133,7 +17136,7 @@
     <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="12.75">
       <c r="A435" s="13"/>
       <c r="B435" s="6"/>
-      <c r="C435" s="6"/>
+      <c r="C435" s="13"/>
       <c r="D435" s="6"/>
       <c r="E435" s="13"/>
       <c r="F435" s="10"/>
@@ -17164,7 +17167,7 @@
     <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="12.75">
       <c r="A436" s="13"/>
       <c r="B436" s="6"/>
-      <c r="C436" s="6"/>
+      <c r="C436" s="13"/>
       <c r="D436" s="6"/>
       <c r="E436" s="13"/>
       <c r="F436" s="10"/>
@@ -17195,7 +17198,7 @@
     <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="12.75">
       <c r="A437" s="13"/>
       <c r="B437" s="6"/>
-      <c r="C437" s="6"/>
+      <c r="C437" s="13"/>
       <c r="D437" s="6"/>
       <c r="E437" s="13"/>
       <c r="F437" s="10"/>
@@ -17226,7 +17229,7 @@
     <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="12.75">
       <c r="A438" s="13"/>
       <c r="B438" s="6"/>
-      <c r="C438" s="6"/>
+      <c r="C438" s="13"/>
       <c r="D438" s="6"/>
       <c r="E438" s="13"/>
       <c r="F438" s="10"/>
@@ -17257,7 +17260,7 @@
     <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="12.75">
       <c r="A439" s="13"/>
       <c r="B439" s="6"/>
-      <c r="C439" s="6"/>
+      <c r="C439" s="13"/>
       <c r="D439" s="6"/>
       <c r="E439" s="13"/>
       <c r="F439" s="10"/>
@@ -17288,7 +17291,7 @@
     <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="12.75">
       <c r="A440" s="13"/>
       <c r="B440" s="6"/>
-      <c r="C440" s="6"/>
+      <c r="C440" s="13"/>
       <c r="D440" s="6"/>
       <c r="E440" s="13"/>
       <c r="F440" s="10"/>
@@ -17319,7 +17322,7 @@
     <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="12.75">
       <c r="A441" s="13"/>
       <c r="B441" s="6"/>
-      <c r="C441" s="6"/>
+      <c r="C441" s="13"/>
       <c r="D441" s="6"/>
       <c r="E441" s="13"/>
       <c r="F441" s="10"/>
@@ -17350,7 +17353,7 @@
     <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="12.75">
       <c r="A442" s="13"/>
       <c r="B442" s="6"/>
-      <c r="C442" s="6"/>
+      <c r="C442" s="13"/>
       <c r="D442" s="6"/>
       <c r="E442" s="13"/>
       <c r="F442" s="10"/>
@@ -17381,7 +17384,7 @@
     <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="12.75">
       <c r="A443" s="13"/>
       <c r="B443" s="6"/>
-      <c r="C443" s="6"/>
+      <c r="C443" s="13"/>
       <c r="D443" s="6"/>
       <c r="E443" s="13"/>
       <c r="F443" s="10"/>
@@ -17412,7 +17415,7 @@
     <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="12.75">
       <c r="A444" s="13"/>
       <c r="B444" s="6"/>
-      <c r="C444" s="6"/>
+      <c r="C444" s="13"/>
       <c r="D444" s="6"/>
       <c r="E444" s="13"/>
       <c r="F444" s="10"/>
@@ -17443,7 +17446,7 @@
     <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="12.75">
       <c r="A445" s="13"/>
       <c r="B445" s="6"/>
-      <c r="C445" s="6"/>
+      <c r="C445" s="13"/>
       <c r="D445" s="6"/>
       <c r="E445" s="13"/>
       <c r="F445" s="10"/>
@@ -17474,7 +17477,7 @@
     <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="12.75">
       <c r="A446" s="13"/>
       <c r="B446" s="6"/>
-      <c r="C446" s="6"/>
+      <c r="C446" s="13"/>
       <c r="D446" s="6"/>
       <c r="E446" s="13"/>
       <c r="F446" s="10"/>
@@ -17505,7 +17508,7 @@
     <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="12.75">
       <c r="A447" s="13"/>
       <c r="B447" s="6"/>
-      <c r="C447" s="6"/>
+      <c r="C447" s="13"/>
       <c r="D447" s="6"/>
       <c r="E447" s="13"/>
       <c r="F447" s="10"/>
@@ -17536,7 +17539,7 @@
     <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="12.75">
       <c r="A448" s="13"/>
       <c r="B448" s="6"/>
-      <c r="C448" s="6"/>
+      <c r="C448" s="13"/>
       <c r="D448" s="6"/>
       <c r="E448" s="13"/>
       <c r="F448" s="10"/>
@@ -17567,7 +17570,7 @@
     <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="12.75">
       <c r="A449" s="13"/>
       <c r="B449" s="6"/>
-      <c r="C449" s="6"/>
+      <c r="C449" s="13"/>
       <c r="D449" s="6"/>
       <c r="E449" s="13"/>
       <c r="F449" s="10"/>
@@ -17598,7 +17601,7 @@
     <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="12.75">
       <c r="A450" s="13"/>
       <c r="B450" s="6"/>
-      <c r="C450" s="6"/>
+      <c r="C450" s="13"/>
       <c r="D450" s="6"/>
       <c r="E450" s="13"/>
       <c r="F450" s="10"/>
@@ -17629,7 +17632,7 @@
     <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="12.75">
       <c r="A451" s="13"/>
       <c r="B451" s="6"/>
-      <c r="C451" s="6"/>
+      <c r="C451" s="13"/>
       <c r="D451" s="6"/>
       <c r="E451" s="13"/>
       <c r="F451" s="10"/>
@@ -17660,7 +17663,7 @@
     <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="12.75">
       <c r="A452" s="13"/>
       <c r="B452" s="6"/>
-      <c r="C452" s="6"/>
+      <c r="C452" s="13"/>
       <c r="D452" s="6"/>
       <c r="E452" s="13"/>
       <c r="F452" s="10"/>
@@ -17691,7 +17694,7 @@
     <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="12.75">
       <c r="A453" s="13"/>
       <c r="B453" s="6"/>
-      <c r="C453" s="6"/>
+      <c r="C453" s="13"/>
       <c r="D453" s="6"/>
       <c r="E453" s="13"/>
       <c r="F453" s="10"/>
@@ -17722,7 +17725,7 @@
     <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="12.75">
       <c r="A454" s="13"/>
       <c r="B454" s="6"/>
-      <c r="C454" s="6"/>
+      <c r="C454" s="13"/>
       <c r="D454" s="6"/>
       <c r="E454" s="13"/>
       <c r="F454" s="10"/>
@@ -17753,7 +17756,7 @@
     <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="12.75">
       <c r="A455" s="13"/>
       <c r="B455" s="6"/>
-      <c r="C455" s="6"/>
+      <c r="C455" s="13"/>
       <c r="D455" s="6"/>
       <c r="E455" s="13"/>
       <c r="F455" s="10"/>
@@ -17784,7 +17787,7 @@
     <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="12.75">
       <c r="A456" s="13"/>
       <c r="B456" s="6"/>
-      <c r="C456" s="6"/>
+      <c r="C456" s="13"/>
       <c r="D456" s="6"/>
       <c r="E456" s="13"/>
       <c r="F456" s="10"/>
@@ -17815,7 +17818,7 @@
     <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="12.75">
       <c r="A457" s="13"/>
       <c r="B457" s="6"/>
-      <c r="C457" s="6"/>
+      <c r="C457" s="13"/>
       <c r="D457" s="6"/>
       <c r="E457" s="13"/>
       <c r="F457" s="10"/>
@@ -17846,7 +17849,7 @@
     <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="12.75">
       <c r="A458" s="13"/>
       <c r="B458" s="6"/>
-      <c r="C458" s="6"/>
+      <c r="C458" s="13"/>
       <c r="D458" s="6"/>
       <c r="E458" s="13"/>
       <c r="F458" s="10"/>
@@ -17877,7 +17880,7 @@
     <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="12.75">
       <c r="A459" s="13"/>
       <c r="B459" s="6"/>
-      <c r="C459" s="6"/>
+      <c r="C459" s="13"/>
       <c r="D459" s="6"/>
       <c r="E459" s="13"/>
       <c r="F459" s="10"/>
@@ -17908,7 +17911,7 @@
     <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="12.75">
       <c r="A460" s="13"/>
       <c r="B460" s="6"/>
-      <c r="C460" s="6"/>
+      <c r="C460" s="13"/>
       <c r="D460" s="6"/>
       <c r="E460" s="13"/>
       <c r="F460" s="10"/>
@@ -17939,7 +17942,7 @@
     <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="12.75">
       <c r="A461" s="13"/>
       <c r="B461" s="6"/>
-      <c r="C461" s="6"/>
+      <c r="C461" s="13"/>
       <c r="D461" s="6"/>
       <c r="E461" s="13"/>
       <c r="F461" s="10"/>
@@ -17970,7 +17973,7 @@
     <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="12.75">
       <c r="A462" s="13"/>
       <c r="B462" s="6"/>
-      <c r="C462" s="6"/>
+      <c r="C462" s="13"/>
       <c r="D462" s="6"/>
       <c r="E462" s="13"/>
       <c r="F462" s="10"/>
@@ -18001,7 +18004,7 @@
     <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="12.75">
       <c r="A463" s="13"/>
       <c r="B463" s="6"/>
-      <c r="C463" s="6"/>
+      <c r="C463" s="13"/>
       <c r="D463" s="6"/>
       <c r="E463" s="13"/>
       <c r="F463" s="10"/>
@@ -18032,7 +18035,7 @@
     <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="12.75">
       <c r="A464" s="13"/>
       <c r="B464" s="6"/>
-      <c r="C464" s="6"/>
+      <c r="C464" s="13"/>
       <c r="D464" s="6"/>
       <c r="E464" s="13"/>
       <c r="F464" s="10"/>
@@ -18063,7 +18066,7 @@
     <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="12.75">
       <c r="A465" s="13"/>
       <c r="B465" s="6"/>
-      <c r="C465" s="6"/>
+      <c r="C465" s="13"/>
       <c r="D465" s="6"/>
       <c r="E465" s="13"/>
       <c r="F465" s="10"/>
@@ -18094,7 +18097,7 @@
     <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="12.75">
       <c r="A466" s="13"/>
       <c r="B466" s="6"/>
-      <c r="C466" s="6"/>
+      <c r="C466" s="13"/>
       <c r="D466" s="6"/>
       <c r="E466" s="13"/>
       <c r="F466" s="10"/>
@@ -18125,7 +18128,7 @@
     <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="12.75">
       <c r="A467" s="13"/>
       <c r="B467" s="6"/>
-      <c r="C467" s="6"/>
+      <c r="C467" s="13"/>
       <c r="D467" s="6"/>
       <c r="E467" s="13"/>
       <c r="F467" s="10"/>
@@ -18156,7 +18159,7 @@
     <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="12.75">
       <c r="A468" s="13"/>
       <c r="B468" s="6"/>
-      <c r="C468" s="6"/>
+      <c r="C468" s="13"/>
       <c r="D468" s="6"/>
       <c r="E468" s="13"/>
       <c r="F468" s="10"/>
@@ -18187,7 +18190,7 @@
     <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="12.75">
       <c r="A469" s="13"/>
       <c r="B469" s="6"/>
-      <c r="C469" s="6"/>
+      <c r="C469" s="13"/>
       <c r="D469" s="6"/>
       <c r="E469" s="13"/>
       <c r="F469" s="10"/>
@@ -18218,7 +18221,7 @@
     <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="12.75">
       <c r="A470" s="13"/>
       <c r="B470" s="6"/>
-      <c r="C470" s="6"/>
+      <c r="C470" s="13"/>
       <c r="D470" s="6"/>
       <c r="E470" s="13"/>
       <c r="F470" s="10"/>
@@ -18249,7 +18252,7 @@
     <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="12.75">
       <c r="A471" s="13"/>
       <c r="B471" s="6"/>
-      <c r="C471" s="6"/>
+      <c r="C471" s="13"/>
       <c r="D471" s="6"/>
       <c r="E471" s="13"/>
       <c r="F471" s="10"/>
@@ -18280,7 +18283,7 @@
     <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="12.75">
       <c r="A472" s="13"/>
       <c r="B472" s="6"/>
-      <c r="C472" s="6"/>
+      <c r="C472" s="13"/>
       <c r="D472" s="6"/>
       <c r="E472" s="13"/>
       <c r="F472" s="10"/>
@@ -18311,7 +18314,7 @@
     <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="12.75">
       <c r="A473" s="13"/>
       <c r="B473" s="6"/>
-      <c r="C473" s="6"/>
+      <c r="C473" s="13"/>
       <c r="D473" s="6"/>
       <c r="E473" s="13"/>
       <c r="F473" s="10"/>
@@ -18342,7 +18345,7 @@
     <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="12.75">
       <c r="A474" s="13"/>
       <c r="B474" s="6"/>
-      <c r="C474" s="6"/>
+      <c r="C474" s="13"/>
       <c r="D474" s="6"/>
       <c r="E474" s="13"/>
       <c r="F474" s="10"/>
@@ -18373,7 +18376,7 @@
     <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="12.75">
       <c r="A475" s="13"/>
       <c r="B475" s="6"/>
-      <c r="C475" s="6"/>
+      <c r="C475" s="13"/>
       <c r="D475" s="6"/>
       <c r="E475" s="13"/>
       <c r="F475" s="10"/>
@@ -18404,7 +18407,7 @@
     <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="12.75">
       <c r="A476" s="13"/>
       <c r="B476" s="6"/>
-      <c r="C476" s="6"/>
+      <c r="C476" s="13"/>
       <c r="D476" s="6"/>
       <c r="E476" s="13"/>
       <c r="F476" s="10"/>
@@ -18435,7 +18438,7 @@
     <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="12.75">
       <c r="A477" s="13"/>
       <c r="B477" s="6"/>
-      <c r="C477" s="6"/>
+      <c r="C477" s="13"/>
       <c r="D477" s="6"/>
       <c r="E477" s="13"/>
       <c r="F477" s="10"/>
@@ -18466,7 +18469,7 @@
     <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="12.75">
       <c r="A478" s="13"/>
       <c r="B478" s="6"/>
-      <c r="C478" s="6"/>
+      <c r="C478" s="13"/>
       <c r="D478" s="6"/>
       <c r="E478" s="13"/>
       <c r="F478" s="10"/>
@@ -18497,7 +18500,7 @@
     <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="12.75">
       <c r="A479" s="13"/>
       <c r="B479" s="6"/>
-      <c r="C479" s="6"/>
+      <c r="C479" s="13"/>
       <c r="D479" s="6"/>
       <c r="E479" s="13"/>
       <c r="F479" s="10"/>
@@ -18528,7 +18531,7 @@
     <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="12.75">
       <c r="A480" s="13"/>
       <c r="B480" s="6"/>
-      <c r="C480" s="6"/>
+      <c r="C480" s="13"/>
       <c r="D480" s="6"/>
       <c r="E480" s="13"/>
       <c r="F480" s="10"/>
@@ -18559,7 +18562,7 @@
     <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="12.75">
       <c r="A481" s="13"/>
       <c r="B481" s="6"/>
-      <c r="C481" s="6"/>
+      <c r="C481" s="13"/>
       <c r="D481" s="6"/>
       <c r="E481" s="13"/>
       <c r="F481" s="10"/>
@@ -18590,7 +18593,7 @@
     <row x14ac:dyDescent="0.25" r="482" customHeight="1" ht="12.75">
       <c r="A482" s="13"/>
       <c r="B482" s="6"/>
-      <c r="C482" s="6"/>
+      <c r="C482" s="13"/>
       <c r="D482" s="6"/>
       <c r="E482" s="13"/>
       <c r="F482" s="10"/>
@@ -18621,7 +18624,7 @@
     <row x14ac:dyDescent="0.25" r="483" customHeight="1" ht="12.75">
       <c r="A483" s="13"/>
       <c r="B483" s="6"/>
-      <c r="C483" s="6"/>
+      <c r="C483" s="13"/>
       <c r="D483" s="6"/>
       <c r="E483" s="13"/>
       <c r="F483" s="10"/>
@@ -18652,7 +18655,7 @@
     <row x14ac:dyDescent="0.25" r="484" customHeight="1" ht="12.75">
       <c r="A484" s="13"/>
       <c r="B484" s="6"/>
-      <c r="C484" s="6"/>
+      <c r="C484" s="13"/>
       <c r="D484" s="6"/>
       <c r="E484" s="13"/>
       <c r="F484" s="10"/>
@@ -18683,7 +18686,7 @@
     <row x14ac:dyDescent="0.25" r="485" customHeight="1" ht="12.75">
       <c r="A485" s="13"/>
       <c r="B485" s="6"/>
-      <c r="C485" s="6"/>
+      <c r="C485" s="13"/>
       <c r="D485" s="6"/>
       <c r="E485" s="13"/>
       <c r="F485" s="10"/>
@@ -18714,7 +18717,7 @@
     <row x14ac:dyDescent="0.25" r="486" customHeight="1" ht="12.75">
       <c r="A486" s="13"/>
       <c r="B486" s="6"/>
-      <c r="C486" s="6"/>
+      <c r="C486" s="13"/>
       <c r="D486" s="6"/>
       <c r="E486" s="13"/>
       <c r="F486" s="10"/>
@@ -18745,7 +18748,7 @@
     <row x14ac:dyDescent="0.25" r="487" customHeight="1" ht="12.75">
       <c r="A487" s="13"/>
       <c r="B487" s="6"/>
-      <c r="C487" s="6"/>
+      <c r="C487" s="13"/>
       <c r="D487" s="6"/>
       <c r="E487" s="13"/>
       <c r="F487" s="10"/>
@@ -18776,7 +18779,7 @@
     <row x14ac:dyDescent="0.25" r="488" customHeight="1" ht="12.75">
       <c r="A488" s="13"/>
       <c r="B488" s="6"/>
-      <c r="C488" s="6"/>
+      <c r="C488" s="13"/>
       <c r="D488" s="6"/>
       <c r="E488" s="13"/>
       <c r="F488" s="10"/>
@@ -18807,7 +18810,7 @@
     <row x14ac:dyDescent="0.25" r="489" customHeight="1" ht="12.75">
       <c r="A489" s="13"/>
       <c r="B489" s="6"/>
-      <c r="C489" s="6"/>
+      <c r="C489" s="13"/>
       <c r="D489" s="6"/>
       <c r="E489" s="13"/>
       <c r="F489" s="10"/>
@@ -18838,7 +18841,7 @@
     <row x14ac:dyDescent="0.25" r="490" customHeight="1" ht="12.75">
       <c r="A490" s="13"/>
       <c r="B490" s="6"/>
-      <c r="C490" s="6"/>
+      <c r="C490" s="13"/>
       <c r="D490" s="6"/>
       <c r="E490" s="13"/>
       <c r="F490" s="10"/>
@@ -18869,7 +18872,7 @@
     <row x14ac:dyDescent="0.25" r="491" customHeight="1" ht="12.75">
       <c r="A491" s="13"/>
       <c r="B491" s="6"/>
-      <c r="C491" s="6"/>
+      <c r="C491" s="13"/>
       <c r="D491" s="6"/>
       <c r="E491" s="13"/>
       <c r="F491" s="10"/>
@@ -18900,7 +18903,7 @@
     <row x14ac:dyDescent="0.25" r="492" customHeight="1" ht="12.75">
       <c r="A492" s="13"/>
       <c r="B492" s="6"/>
-      <c r="C492" s="6"/>
+      <c r="C492" s="13"/>
       <c r="D492" s="6"/>
       <c r="E492" s="13"/>
       <c r="F492" s="10"/>
@@ -18931,7 +18934,7 @@
     <row x14ac:dyDescent="0.25" r="493" customHeight="1" ht="12.75">
       <c r="A493" s="13"/>
       <c r="B493" s="6"/>
-      <c r="C493" s="6"/>
+      <c r="C493" s="13"/>
       <c r="D493" s="6"/>
       <c r="E493" s="13"/>
       <c r="F493" s="10"/>
@@ -18962,7 +18965,7 @@
     <row x14ac:dyDescent="0.25" r="494" customHeight="1" ht="12.75">
       <c r="A494" s="13"/>
       <c r="B494" s="6"/>
-      <c r="C494" s="6"/>
+      <c r="C494" s="13"/>
       <c r="D494" s="6"/>
       <c r="E494" s="13"/>
       <c r="F494" s="10"/>
@@ -18993,7 +18996,7 @@
     <row x14ac:dyDescent="0.25" r="495" customHeight="1" ht="12.75">
       <c r="A495" s="13"/>
       <c r="B495" s="6"/>
-      <c r="C495" s="6"/>
+      <c r="C495" s="13"/>
       <c r="D495" s="6"/>
       <c r="E495" s="13"/>
       <c r="F495" s="10"/>
@@ -19024,7 +19027,7 @@
     <row x14ac:dyDescent="0.25" r="496" customHeight="1" ht="12.75">
       <c r="A496" s="13"/>
       <c r="B496" s="6"/>
-      <c r="C496" s="6"/>
+      <c r="C496" s="13"/>
       <c r="D496" s="6"/>
       <c r="E496" s="13"/>
       <c r="F496" s="10"/>
@@ -19055,7 +19058,7 @@
     <row x14ac:dyDescent="0.25" r="497" customHeight="1" ht="12.75">
       <c r="A497" s="13"/>
       <c r="B497" s="6"/>
-      <c r="C497" s="6"/>
+      <c r="C497" s="13"/>
       <c r="D497" s="6"/>
       <c r="E497" s="13"/>
       <c r="F497" s="10"/>
@@ -19086,7 +19089,7 @@
     <row x14ac:dyDescent="0.25" r="498" customHeight="1" ht="12.75">
       <c r="A498" s="13"/>
       <c r="B498" s="6"/>
-      <c r="C498" s="6"/>
+      <c r="C498" s="13"/>
       <c r="D498" s="6"/>
       <c r="E498" s="13"/>
       <c r="F498" s="10"/>
@@ -19117,7 +19120,7 @@
     <row x14ac:dyDescent="0.25" r="499" customHeight="1" ht="12.75">
       <c r="A499" s="13"/>
       <c r="B499" s="6"/>
-      <c r="C499" s="6"/>
+      <c r="C499" s="13"/>
       <c r="D499" s="6"/>
       <c r="E499" s="13"/>
       <c r="F499" s="10"/>
@@ -19148,7 +19151,7 @@
     <row x14ac:dyDescent="0.25" r="500" customHeight="1" ht="12.75">
       <c r="A500" s="13"/>
       <c r="B500" s="6"/>
-      <c r="C500" s="6"/>
+      <c r="C500" s="13"/>
       <c r="D500" s="6"/>
       <c r="E500" s="13"/>
       <c r="F500" s="10"/>
@@ -19179,7 +19182,7 @@
     <row x14ac:dyDescent="0.25" r="501" customHeight="1" ht="12.75">
       <c r="A501" s="13"/>
       <c r="B501" s="6"/>
-      <c r="C501" s="6"/>
+      <c r="C501" s="13"/>
       <c r="D501" s="6"/>
       <c r="E501" s="13"/>
       <c r="F501" s="10"/>
@@ -19210,7 +19213,7 @@
     <row x14ac:dyDescent="0.25" r="502" customHeight="1" ht="12.75">
       <c r="A502" s="13"/>
       <c r="B502" s="6"/>
-      <c r="C502" s="6"/>
+      <c r="C502" s="13"/>
       <c r="D502" s="6"/>
       <c r="E502" s="13"/>
       <c r="F502" s="10"/>
@@ -19241,7 +19244,7 @@
     <row x14ac:dyDescent="0.25" r="503" customHeight="1" ht="12.75">
       <c r="A503" s="13"/>
       <c r="B503" s="6"/>
-      <c r="C503" s="6"/>
+      <c r="C503" s="13"/>
       <c r="D503" s="6"/>
       <c r="E503" s="13"/>
       <c r="F503" s="10"/>
@@ -19272,7 +19275,7 @@
     <row x14ac:dyDescent="0.25" r="504" customHeight="1" ht="12.75">
       <c r="A504" s="13"/>
       <c r="B504" s="6"/>
-      <c r="C504" s="6"/>
+      <c r="C504" s="13"/>
       <c r="D504" s="6"/>
       <c r="E504" s="13"/>
       <c r="F504" s="10"/>
@@ -19303,7 +19306,7 @@
     <row x14ac:dyDescent="0.25" r="505" customHeight="1" ht="12.75">
       <c r="A505" s="13"/>
       <c r="B505" s="6"/>
-      <c r="C505" s="6"/>
+      <c r="C505" s="13"/>
       <c r="D505" s="6"/>
       <c r="E505" s="13"/>
       <c r="F505" s="10"/>
@@ -19334,7 +19337,7 @@
     <row x14ac:dyDescent="0.25" r="506" customHeight="1" ht="12.75">
       <c r="A506" s="13"/>
       <c r="B506" s="6"/>
-      <c r="C506" s="6"/>
+      <c r="C506" s="13"/>
       <c r="D506" s="6"/>
       <c r="E506" s="13"/>
       <c r="F506" s="10"/>
@@ -19365,7 +19368,7 @@
     <row x14ac:dyDescent="0.25" r="507" customHeight="1" ht="12.75">
       <c r="A507" s="13"/>
       <c r="B507" s="6"/>
-      <c r="C507" s="6"/>
+      <c r="C507" s="13"/>
       <c r="D507" s="6"/>
       <c r="E507" s="13"/>
       <c r="F507" s="10"/>
@@ -19396,7 +19399,7 @@
     <row x14ac:dyDescent="0.25" r="508" customHeight="1" ht="12.75">
       <c r="A508" s="13"/>
       <c r="B508" s="6"/>
-      <c r="C508" s="6"/>
+      <c r="C508" s="13"/>
       <c r="D508" s="6"/>
       <c r="E508" s="13"/>
       <c r="F508" s="10"/>
@@ -19427,7 +19430,7 @@
     <row x14ac:dyDescent="0.25" r="509" customHeight="1" ht="12.75">
       <c r="A509" s="13"/>
       <c r="B509" s="6"/>
-      <c r="C509" s="6"/>
+      <c r="C509" s="13"/>
       <c r="D509" s="6"/>
       <c r="E509" s="13"/>
       <c r="F509" s="10"/>
@@ -19458,7 +19461,7 @@
     <row x14ac:dyDescent="0.25" r="510" customHeight="1" ht="12.75">
       <c r="A510" s="13"/>
       <c r="B510" s="6"/>
-      <c r="C510" s="6"/>
+      <c r="C510" s="13"/>
       <c r="D510" s="6"/>
       <c r="E510" s="13"/>
       <c r="F510" s="10"/>
@@ -19489,7 +19492,7 @@
     <row x14ac:dyDescent="0.25" r="511" customHeight="1" ht="12.75">
       <c r="A511" s="13"/>
       <c r="B511" s="6"/>
-      <c r="C511" s="6"/>
+      <c r="C511" s="13"/>
       <c r="D511" s="6"/>
       <c r="E511" s="13"/>
       <c r="F511" s="10"/>
@@ -19520,7 +19523,7 @@
     <row x14ac:dyDescent="0.25" r="512" customHeight="1" ht="12.75">
       <c r="A512" s="13"/>
       <c r="B512" s="6"/>
-      <c r="C512" s="6"/>
+      <c r="C512" s="13"/>
       <c r="D512" s="6"/>
       <c r="E512" s="13"/>
       <c r="F512" s="10"/>
@@ -19551,7 +19554,7 @@
     <row x14ac:dyDescent="0.25" r="513" customHeight="1" ht="12.75">
       <c r="A513" s="13"/>
       <c r="B513" s="6"/>
-      <c r="C513" s="6"/>
+      <c r="C513" s="13"/>
       <c r="D513" s="6"/>
       <c r="E513" s="13"/>
       <c r="F513" s="10"/>
@@ -19582,7 +19585,7 @@
     <row x14ac:dyDescent="0.25" r="514" customHeight="1" ht="12.75">
       <c r="A514" s="13"/>
       <c r="B514" s="6"/>
-      <c r="C514" s="6"/>
+      <c r="C514" s="13"/>
       <c r="D514" s="6"/>
       <c r="E514" s="13"/>
       <c r="F514" s="10"/>
@@ -19613,7 +19616,7 @@
     <row x14ac:dyDescent="0.25" r="515" customHeight="1" ht="12.75">
       <c r="A515" s="13"/>
       <c r="B515" s="6"/>
-      <c r="C515" s="6"/>
+      <c r="C515" s="13"/>
       <c r="D515" s="6"/>
       <c r="E515" s="13"/>
       <c r="F515" s="10"/>
@@ -19644,7 +19647,7 @@
     <row x14ac:dyDescent="0.25" r="516" customHeight="1" ht="12.75">
       <c r="A516" s="13"/>
       <c r="B516" s="6"/>
-      <c r="C516" s="6"/>
+      <c r="C516" s="13"/>
       <c r="D516" s="6"/>
       <c r="E516" s="13"/>
       <c r="F516" s="10"/>
@@ -19675,7 +19678,7 @@
     <row x14ac:dyDescent="0.25" r="517" customHeight="1" ht="12.75">
       <c r="A517" s="13"/>
       <c r="B517" s="6"/>
-      <c r="C517" s="6"/>
+      <c r="C517" s="13"/>
       <c r="D517" s="6"/>
       <c r="E517" s="13"/>
       <c r="F517" s="10"/>
@@ -19706,7 +19709,7 @@
     <row x14ac:dyDescent="0.25" r="518" customHeight="1" ht="12.75">
       <c r="A518" s="13"/>
       <c r="B518" s="6"/>
-      <c r="C518" s="6"/>
+      <c r="C518" s="13"/>
       <c r="D518" s="6"/>
       <c r="E518" s="13"/>
       <c r="F518" s="10"/>
@@ -19737,7 +19740,7 @@
     <row x14ac:dyDescent="0.25" r="519" customHeight="1" ht="12.75">
       <c r="A519" s="13"/>
       <c r="B519" s="6"/>
-      <c r="C519" s="6"/>
+      <c r="C519" s="13"/>
       <c r="D519" s="6"/>
       <c r="E519" s="13"/>
       <c r="F519" s="10"/>
@@ -19768,7 +19771,7 @@
     <row x14ac:dyDescent="0.25" r="520" customHeight="1" ht="12.75">
       <c r="A520" s="13"/>
       <c r="B520" s="6"/>
-      <c r="C520" s="6"/>
+      <c r="C520" s="13"/>
       <c r="D520" s="6"/>
       <c r="E520" s="13"/>
       <c r="F520" s="10"/>
@@ -19799,7 +19802,7 @@
     <row x14ac:dyDescent="0.25" r="521" customHeight="1" ht="12.75">
       <c r="A521" s="13"/>
       <c r="B521" s="6"/>
-      <c r="C521" s="6"/>
+      <c r="C521" s="13"/>
       <c r="D521" s="6"/>
       <c r="E521" s="13"/>
       <c r="F521" s="10"/>
@@ -19830,7 +19833,7 @@
     <row x14ac:dyDescent="0.25" r="522" customHeight="1" ht="12.75">
       <c r="A522" s="13"/>
       <c r="B522" s="6"/>
-      <c r="C522" s="6"/>
+      <c r="C522" s="13"/>
       <c r="D522" s="6"/>
       <c r="E522" s="13"/>
       <c r="F522" s="10"/>
@@ -19861,7 +19864,7 @@
     <row x14ac:dyDescent="0.25" r="523" customHeight="1" ht="12.75">
       <c r="A523" s="13"/>
       <c r="B523" s="6"/>
-      <c r="C523" s="6"/>
+      <c r="C523" s="13"/>
       <c r="D523" s="6"/>
       <c r="E523" s="13"/>
       <c r="F523" s="10"/>
@@ -19892,7 +19895,7 @@
     <row x14ac:dyDescent="0.25" r="524" customHeight="1" ht="12.75">
       <c r="A524" s="13"/>
       <c r="B524" s="6"/>
-      <c r="C524" s="6"/>
+      <c r="C524" s="13"/>
       <c r="D524" s="6"/>
       <c r="E524" s="13"/>
       <c r="F524" s="10"/>
@@ -19923,7 +19926,7 @@
     <row x14ac:dyDescent="0.25" r="525" customHeight="1" ht="12.75">
       <c r="A525" s="13"/>
       <c r="B525" s="6"/>
-      <c r="C525" s="6"/>
+      <c r="C525" s="13"/>
       <c r="D525" s="6"/>
       <c r="E525" s="13"/>
       <c r="F525" s="10"/>
@@ -19954,7 +19957,7 @@
     <row x14ac:dyDescent="0.25" r="526" customHeight="1" ht="12.75">
       <c r="A526" s="13"/>
       <c r="B526" s="6"/>
-      <c r="C526" s="6"/>
+      <c r="C526" s="13"/>
       <c r="D526" s="6"/>
       <c r="E526" s="13"/>
       <c r="F526" s="10"/>
@@ -19985,7 +19988,7 @@
     <row x14ac:dyDescent="0.25" r="527" customHeight="1" ht="12.75">
       <c r="A527" s="13"/>
       <c r="B527" s="6"/>
-      <c r="C527" s="6"/>
+      <c r="C527" s="13"/>
       <c r="D527" s="6"/>
       <c r="E527" s="13"/>
       <c r="F527" s="10"/>
@@ -20016,7 +20019,7 @@
     <row x14ac:dyDescent="0.25" r="528" customHeight="1" ht="12.75">
       <c r="A528" s="13"/>
       <c r="B528" s="6"/>
-      <c r="C528" s="6"/>
+      <c r="C528" s="13"/>
       <c r="D528" s="6"/>
       <c r="E528" s="13"/>
       <c r="F528" s="10"/>
@@ -20047,7 +20050,7 @@
     <row x14ac:dyDescent="0.25" r="529" customHeight="1" ht="12.75">
       <c r="A529" s="13"/>
       <c r="B529" s="6"/>
-      <c r="C529" s="6"/>
+      <c r="C529" s="13"/>
       <c r="D529" s="6"/>
       <c r="E529" s="13"/>
       <c r="F529" s="10"/>
@@ -20078,7 +20081,7 @@
     <row x14ac:dyDescent="0.25" r="530" customHeight="1" ht="12.75">
       <c r="A530" s="13"/>
       <c r="B530" s="6"/>
-      <c r="C530" s="6"/>
+      <c r="C530" s="13"/>
       <c r="D530" s="6"/>
       <c r="E530" s="13"/>
       <c r="F530" s="10"/>
@@ -20109,7 +20112,7 @@
     <row x14ac:dyDescent="0.25" r="531" customHeight="1" ht="12.75">
       <c r="A531" s="13"/>
       <c r="B531" s="6"/>
-      <c r="C531" s="6"/>
+      <c r="C531" s="13"/>
       <c r="D531" s="6"/>
       <c r="E531" s="13"/>
       <c r="F531" s="10"/>
@@ -20140,7 +20143,7 @@
     <row x14ac:dyDescent="0.25" r="532" customHeight="1" ht="12.75">
       <c r="A532" s="13"/>
       <c r="B532" s="6"/>
-      <c r="C532" s="6"/>
+      <c r="C532" s="13"/>
       <c r="D532" s="6"/>
       <c r="E532" s="13"/>
       <c r="F532" s="10"/>
@@ -20171,7 +20174,7 @@
     <row x14ac:dyDescent="0.25" r="533" customHeight="1" ht="12.75">
       <c r="A533" s="13"/>
       <c r="B533" s="6"/>
-      <c r="C533" s="6"/>
+      <c r="C533" s="13"/>
       <c r="D533" s="6"/>
       <c r="E533" s="13"/>
       <c r="F533" s="10"/>
@@ -20202,7 +20205,7 @@
     <row x14ac:dyDescent="0.25" r="534" customHeight="1" ht="12.75">
       <c r="A534" s="13"/>
       <c r="B534" s="6"/>
-      <c r="C534" s="6"/>
+      <c r="C534" s="13"/>
       <c r="D534" s="6"/>
       <c r="E534" s="13"/>
       <c r="F534" s="10"/>
@@ -20233,7 +20236,7 @@
     <row x14ac:dyDescent="0.25" r="535" customHeight="1" ht="12.75">
       <c r="A535" s="13"/>
       <c r="B535" s="6"/>
-      <c r="C535" s="6"/>
+      <c r="C535" s="13"/>
       <c r="D535" s="6"/>
       <c r="E535" s="13"/>
       <c r="F535" s="10"/>
@@ -20264,7 +20267,7 @@
     <row x14ac:dyDescent="0.25" r="536" customHeight="1" ht="12.75">
       <c r="A536" s="13"/>
       <c r="B536" s="6"/>
-      <c r="C536" s="6"/>
+      <c r="C536" s="13"/>
       <c r="D536" s="6"/>
       <c r="E536" s="13"/>
       <c r="F536" s="10"/>
@@ -20295,7 +20298,7 @@
     <row x14ac:dyDescent="0.25" r="537" customHeight="1" ht="12.75">
       <c r="A537" s="13"/>
       <c r="B537" s="6"/>
-      <c r="C537" s="6"/>
+      <c r="C537" s="13"/>
       <c r="D537" s="6"/>
       <c r="E537" s="13"/>
       <c r="F537" s="10"/>
@@ -20326,7 +20329,7 @@
     <row x14ac:dyDescent="0.25" r="538" customHeight="1" ht="12.75">
       <c r="A538" s="13"/>
       <c r="B538" s="6"/>
-      <c r="C538" s="6"/>
+      <c r="C538" s="13"/>
       <c r="D538" s="6"/>
       <c r="E538" s="13"/>
       <c r="F538" s="10"/>
@@ -20357,7 +20360,7 @@
     <row x14ac:dyDescent="0.25" r="539" customHeight="1" ht="12.75">
       <c r="A539" s="13"/>
       <c r="B539" s="6"/>
-      <c r="C539" s="6"/>
+      <c r="C539" s="13"/>
       <c r="D539" s="6"/>
       <c r="E539" s="13"/>
       <c r="F539" s="10"/>
@@ -20388,7 +20391,7 @@
     <row x14ac:dyDescent="0.25" r="540" customHeight="1" ht="12.75">
       <c r="A540" s="13"/>
       <c r="B540" s="6"/>
-      <c r="C540" s="6"/>
+      <c r="C540" s="13"/>
       <c r="D540" s="6"/>
       <c r="E540" s="13"/>
       <c r="F540" s="10"/>
@@ -20419,7 +20422,7 @@
     <row x14ac:dyDescent="0.25" r="541" customHeight="1" ht="12.75">
       <c r="A541" s="13"/>
       <c r="B541" s="6"/>
-      <c r="C541" s="6"/>
+      <c r="C541" s="13"/>
       <c r="D541" s="6"/>
       <c r="E541" s="13"/>
       <c r="F541" s="10"/>
@@ -20450,7 +20453,7 @@
     <row x14ac:dyDescent="0.25" r="542" customHeight="1" ht="12.75">
       <c r="A542" s="13"/>
       <c r="B542" s="6"/>
-      <c r="C542" s="6"/>
+      <c r="C542" s="13"/>
       <c r="D542" s="6"/>
       <c r="E542" s="13"/>
       <c r="F542" s="10"/>
@@ -20481,7 +20484,7 @@
     <row x14ac:dyDescent="0.25" r="543" customHeight="1" ht="12.75">
       <c r="A543" s="13"/>
       <c r="B543" s="6"/>
-      <c r="C543" s="6"/>
+      <c r="C543" s="13"/>
       <c r="D543" s="6"/>
       <c r="E543" s="13"/>
       <c r="F543" s="10"/>
@@ -20512,7 +20515,7 @@
     <row x14ac:dyDescent="0.25" r="544" customHeight="1" ht="12.75">
       <c r="A544" s="13"/>
       <c r="B544" s="6"/>
-      <c r="C544" s="6"/>
+      <c r="C544" s="13"/>
       <c r="D544" s="6"/>
       <c r="E544" s="13"/>
       <c r="F544" s="10"/>
@@ -20543,7 +20546,7 @@
     <row x14ac:dyDescent="0.25" r="545" customHeight="1" ht="12.75">
       <c r="A545" s="13"/>
       <c r="B545" s="6"/>
-      <c r="C545" s="6"/>
+      <c r="C545" s="13"/>
       <c r="D545" s="6"/>
       <c r="E545" s="13"/>
       <c r="F545" s="10"/>
@@ -20574,7 +20577,7 @@
     <row x14ac:dyDescent="0.25" r="546" customHeight="1" ht="12.75">
       <c r="A546" s="13"/>
       <c r="B546" s="6"/>
-      <c r="C546" s="6"/>
+      <c r="C546" s="13"/>
       <c r="D546" s="6"/>
       <c r="E546" s="13"/>
       <c r="F546" s="10"/>
@@ -20605,7 +20608,7 @@
     <row x14ac:dyDescent="0.25" r="547" customHeight="1" ht="12.75">
       <c r="A547" s="13"/>
       <c r="B547" s="6"/>
-      <c r="C547" s="6"/>
+      <c r="C547" s="13"/>
       <c r="D547" s="6"/>
       <c r="E547" s="13"/>
       <c r="F547" s="10"/>
@@ -20636,7 +20639,7 @@
     <row x14ac:dyDescent="0.25" r="548" customHeight="1" ht="12.75">
       <c r="A548" s="13"/>
       <c r="B548" s="6"/>
-      <c r="C548" s="6"/>
+      <c r="C548" s="13"/>
       <c r="D548" s="6"/>
       <c r="E548" s="13"/>
       <c r="F548" s="10"/>
@@ -20667,7 +20670,7 @@
     <row x14ac:dyDescent="0.25" r="549" customHeight="1" ht="12.75">
       <c r="A549" s="13"/>
       <c r="B549" s="6"/>
-      <c r="C549" s="6"/>
+      <c r="C549" s="13"/>
       <c r="D549" s="6"/>
       <c r="E549" s="13"/>
       <c r="F549" s="10"/>
@@ -20698,7 +20701,7 @@
     <row x14ac:dyDescent="0.25" r="550" customHeight="1" ht="12.75">
       <c r="A550" s="13"/>
       <c r="B550" s="6"/>
-      <c r="C550" s="6"/>
+      <c r="C550" s="13"/>
       <c r="D550" s="6"/>
       <c r="E550" s="13"/>
       <c r="F550" s="10"/>
@@ -20729,7 +20732,7 @@
     <row x14ac:dyDescent="0.25" r="551" customHeight="1" ht="12.75">
       <c r="A551" s="13"/>
       <c r="B551" s="6"/>
-      <c r="C551" s="6"/>
+      <c r="C551" s="13"/>
       <c r="D551" s="6"/>
       <c r="E551" s="13"/>
       <c r="F551" s="10"/>
@@ -20760,7 +20763,7 @@
     <row x14ac:dyDescent="0.25" r="552" customHeight="1" ht="12.75">
       <c r="A552" s="13"/>
       <c r="B552" s="6"/>
-      <c r="C552" s="6"/>
+      <c r="C552" s="13"/>
       <c r="D552" s="6"/>
       <c r="E552" s="13"/>
       <c r="F552" s="10"/>
@@ -20791,7 +20794,7 @@
     <row x14ac:dyDescent="0.25" r="553" customHeight="1" ht="12.75">
       <c r="A553" s="13"/>
       <c r="B553" s="6"/>
-      <c r="C553" s="6"/>
+      <c r="C553" s="13"/>
       <c r="D553" s="6"/>
       <c r="E553" s="13"/>
       <c r="F553" s="10"/>
@@ -20822,7 +20825,7 @@
     <row x14ac:dyDescent="0.25" r="554" customHeight="1" ht="12.75">
       <c r="A554" s="13"/>
       <c r="B554" s="6"/>
-      <c r="C554" s="6"/>
+      <c r="C554" s="13"/>
       <c r="D554" s="6"/>
       <c r="E554" s="13"/>
       <c r="F554" s="10"/>
@@ -20853,7 +20856,7 @@
     <row x14ac:dyDescent="0.25" r="555" customHeight="1" ht="12.75">
       <c r="A555" s="13"/>
       <c r="B555" s="6"/>
-      <c r="C555" s="6"/>
+      <c r="C555" s="13"/>
       <c r="D555" s="6"/>
       <c r="E555" s="13"/>
       <c r="F555" s="10"/>
@@ -20884,7 +20887,7 @@
     <row x14ac:dyDescent="0.25" r="556" customHeight="1" ht="12.75">
       <c r="A556" s="13"/>
       <c r="B556" s="6"/>
-      <c r="C556" s="6"/>
+      <c r="C556" s="13"/>
       <c r="D556" s="6"/>
       <c r="E556" s="13"/>
       <c r="F556" s="10"/>
@@ -20915,7 +20918,7 @@
     <row x14ac:dyDescent="0.25" r="557" customHeight="1" ht="12.75">
       <c r="A557" s="13"/>
       <c r="B557" s="6"/>
-      <c r="C557" s="6"/>
+      <c r="C557" s="13"/>
       <c r="D557" s="6"/>
       <c r="E557" s="13"/>
       <c r="F557" s="10"/>
@@ -20946,7 +20949,7 @@
     <row x14ac:dyDescent="0.25" r="558" customHeight="1" ht="12.75">
       <c r="A558" s="13"/>
       <c r="B558" s="6"/>
-      <c r="C558" s="6"/>
+      <c r="C558" s="13"/>
       <c r="D558" s="6"/>
       <c r="E558" s="13"/>
       <c r="F558" s="10"/>
@@ -20977,7 +20980,7 @@
     <row x14ac:dyDescent="0.25" r="559" customHeight="1" ht="12.75">
       <c r="A559" s="13"/>
       <c r="B559" s="6"/>
-      <c r="C559" s="6"/>
+      <c r="C559" s="13"/>
       <c r="D559" s="6"/>
       <c r="E559" s="13"/>
       <c r="F559" s="10"/>
@@ -21008,7 +21011,7 @@
     <row x14ac:dyDescent="0.25" r="560" customHeight="1" ht="12.75">
       <c r="A560" s="13"/>
       <c r="B560" s="6"/>
-      <c r="C560" s="6"/>
+      <c r="C560" s="13"/>
       <c r="D560" s="6"/>
       <c r="E560" s="13"/>
       <c r="F560" s="10"/>
@@ -21039,7 +21042,7 @@
     <row x14ac:dyDescent="0.25" r="561" customHeight="1" ht="12.75">
       <c r="A561" s="13"/>
       <c r="B561" s="6"/>
-      <c r="C561" s="6"/>
+      <c r="C561" s="13"/>
       <c r="D561" s="6"/>
       <c r="E561" s="13"/>
       <c r="F561" s="10"/>
@@ -21070,7 +21073,7 @@
     <row x14ac:dyDescent="0.25" r="562" customHeight="1" ht="12.75">
       <c r="A562" s="13"/>
       <c r="B562" s="6"/>
-      <c r="C562" s="6"/>
+      <c r="C562" s="13"/>
       <c r="D562" s="6"/>
       <c r="E562" s="13"/>
       <c r="F562" s="10"/>
@@ -21101,7 +21104,7 @@
     <row x14ac:dyDescent="0.25" r="563" customHeight="1" ht="12.75">
       <c r="A563" s="13"/>
       <c r="B563" s="6"/>
-      <c r="C563" s="6"/>
+      <c r="C563" s="13"/>
       <c r="D563" s="6"/>
       <c r="E563" s="13"/>
       <c r="F563" s="10"/>
@@ -21132,7 +21135,7 @@
     <row x14ac:dyDescent="0.25" r="564" customHeight="1" ht="12.75">
       <c r="A564" s="13"/>
       <c r="B564" s="6"/>
-      <c r="C564" s="6"/>
+      <c r="C564" s="13"/>
       <c r="D564" s="6"/>
       <c r="E564" s="13"/>
       <c r="F564" s="10"/>
@@ -21163,7 +21166,7 @@
     <row x14ac:dyDescent="0.25" r="565" customHeight="1" ht="12.75">
       <c r="A565" s="13"/>
       <c r="B565" s="6"/>
-      <c r="C565" s="6"/>
+      <c r="C565" s="13"/>
       <c r="D565" s="6"/>
       <c r="E565" s="13"/>
       <c r="F565" s="10"/>
@@ -21194,7 +21197,7 @@
     <row x14ac:dyDescent="0.25" r="566" customHeight="1" ht="12.75">
       <c r="A566" s="13"/>
       <c r="B566" s="6"/>
-      <c r="C566" s="6"/>
+      <c r="C566" s="13"/>
       <c r="D566" s="6"/>
       <c r="E566" s="13"/>
       <c r="F566" s="10"/>
@@ -21225,7 +21228,7 @@
     <row x14ac:dyDescent="0.25" r="567" customHeight="1" ht="12.75">
       <c r="A567" s="13"/>
       <c r="B567" s="6"/>
-      <c r="C567" s="6"/>
+      <c r="C567" s="13"/>
       <c r="D567" s="6"/>
       <c r="E567" s="13"/>
       <c r="F567" s="10"/>
@@ -21256,7 +21259,7 @@
     <row x14ac:dyDescent="0.25" r="568" customHeight="1" ht="12.75">
       <c r="A568" s="13"/>
       <c r="B568" s="6"/>
-      <c r="C568" s="6"/>
+      <c r="C568" s="13"/>
       <c r="D568" s="6"/>
       <c r="E568" s="13"/>
       <c r="F568" s="10"/>
@@ -21287,7 +21290,7 @@
     <row x14ac:dyDescent="0.25" r="569" customHeight="1" ht="12.75">
       <c r="A569" s="13"/>
       <c r="B569" s="6"/>
-      <c r="C569" s="6"/>
+      <c r="C569" s="13"/>
       <c r="D569" s="6"/>
       <c r="E569" s="13"/>
       <c r="F569" s="10"/>
@@ -21318,7 +21321,7 @@
     <row x14ac:dyDescent="0.25" r="570" customHeight="1" ht="12.75">
       <c r="A570" s="13"/>
       <c r="B570" s="6"/>
-      <c r="C570" s="6"/>
+      <c r="C570" s="13"/>
       <c r="D570" s="6"/>
       <c r="E570" s="13"/>
       <c r="F570" s="10"/>
@@ -21349,7 +21352,7 @@
     <row x14ac:dyDescent="0.25" r="571" customHeight="1" ht="12.75">
       <c r="A571" s="13"/>
       <c r="B571" s="6"/>
-      <c r="C571" s="6"/>
+      <c r="C571" s="13"/>
       <c r="D571" s="6"/>
       <c r="E571" s="13"/>
       <c r="F571" s="10"/>
@@ -21380,7 +21383,7 @@
     <row x14ac:dyDescent="0.25" r="572" customHeight="1" ht="12.75">
       <c r="A572" s="13"/>
       <c r="B572" s="6"/>
-      <c r="C572" s="6"/>
+      <c r="C572" s="13"/>
       <c r="D572" s="6"/>
       <c r="E572" s="13"/>
       <c r="F572" s="10"/>
@@ -21411,7 +21414,7 @@
     <row x14ac:dyDescent="0.25" r="573" customHeight="1" ht="12.75">
       <c r="A573" s="13"/>
       <c r="B573" s="6"/>
-      <c r="C573" s="6"/>
+      <c r="C573" s="13"/>
       <c r="D573" s="6"/>
       <c r="E573" s="13"/>
       <c r="F573" s="10"/>
@@ -21442,7 +21445,7 @@
     <row x14ac:dyDescent="0.25" r="574" customHeight="1" ht="12.75">
       <c r="A574" s="13"/>
       <c r="B574" s="6"/>
-      <c r="C574" s="6"/>
+      <c r="C574" s="13"/>
       <c r="D574" s="6"/>
       <c r="E574" s="13"/>
       <c r="F574" s="10"/>
@@ -21473,7 +21476,7 @@
     <row x14ac:dyDescent="0.25" r="575" customHeight="1" ht="12.75">
       <c r="A575" s="13"/>
       <c r="B575" s="6"/>
-      <c r="C575" s="6"/>
+      <c r="C575" s="13"/>
       <c r="D575" s="6"/>
       <c r="E575" s="13"/>
       <c r="F575" s="10"/>
@@ -21504,7 +21507,7 @@
     <row x14ac:dyDescent="0.25" r="576" customHeight="1" ht="12.75">
       <c r="A576" s="13"/>
       <c r="B576" s="6"/>
-      <c r="C576" s="6"/>
+      <c r="C576" s="13"/>
       <c r="D576" s="6"/>
       <c r="E576" s="13"/>
       <c r="F576" s="10"/>
@@ -21535,7 +21538,7 @@
     <row x14ac:dyDescent="0.25" r="577" customHeight="1" ht="12.75">
       <c r="A577" s="13"/>
       <c r="B577" s="6"/>
-      <c r="C577" s="6"/>
+      <c r="C577" s="13"/>
       <c r="D577" s="6"/>
       <c r="E577" s="13"/>
       <c r="F577" s="10"/>
@@ -21566,7 +21569,7 @@
     <row x14ac:dyDescent="0.25" r="578" customHeight="1" ht="12.75">
       <c r="A578" s="13"/>
       <c r="B578" s="6"/>
-      <c r="C578" s="6"/>
+      <c r="C578" s="13"/>
       <c r="D578" s="6"/>
       <c r="E578" s="13"/>
       <c r="F578" s="10"/>
@@ -21597,7 +21600,7 @@
     <row x14ac:dyDescent="0.25" r="579" customHeight="1" ht="12.75">
       <c r="A579" s="13"/>
       <c r="B579" s="6"/>
-      <c r="C579" s="6"/>
+      <c r="C579" s="13"/>
       <c r="D579" s="6"/>
       <c r="E579" s="13"/>
       <c r="F579" s="10"/>
@@ -21628,7 +21631,7 @@
     <row x14ac:dyDescent="0.25" r="580" customHeight="1" ht="12.75">
       <c r="A580" s="13"/>
       <c r="B580" s="6"/>
-      <c r="C580" s="6"/>
+      <c r="C580" s="13"/>
       <c r="D580" s="6"/>
       <c r="E580" s="13"/>
       <c r="F580" s="10"/>
@@ -21659,7 +21662,7 @@
     <row x14ac:dyDescent="0.25" r="581" customHeight="1" ht="12.75">
       <c r="A581" s="13"/>
       <c r="B581" s="6"/>
-      <c r="C581" s="6"/>
+      <c r="C581" s="13"/>
       <c r="D581" s="6"/>
       <c r="E581" s="13"/>
       <c r="F581" s="10"/>
@@ -21690,7 +21693,7 @@
     <row x14ac:dyDescent="0.25" r="582" customHeight="1" ht="12.75">
       <c r="A582" s="13"/>
       <c r="B582" s="6"/>
-      <c r="C582" s="6"/>
+      <c r="C582" s="13"/>
       <c r="D582" s="6"/>
       <c r="E582" s="13"/>
       <c r="F582" s="10"/>
@@ -21721,7 +21724,7 @@
     <row x14ac:dyDescent="0.25" r="583" customHeight="1" ht="12.75">
       <c r="A583" s="13"/>
       <c r="B583" s="6"/>
-      <c r="C583" s="6"/>
+      <c r="C583" s="13"/>
       <c r="D583" s="6"/>
       <c r="E583" s="13"/>
       <c r="F583" s="10"/>
@@ -21752,7 +21755,7 @@
     <row x14ac:dyDescent="0.25" r="584" customHeight="1" ht="12.75">
       <c r="A584" s="13"/>
       <c r="B584" s="6"/>
-      <c r="C584" s="6"/>
+      <c r="C584" s="13"/>
       <c r="D584" s="6"/>
       <c r="E584" s="13"/>
       <c r="F584" s="10"/>
@@ -21783,7 +21786,7 @@
     <row x14ac:dyDescent="0.25" r="585" customHeight="1" ht="12.75">
       <c r="A585" s="13"/>
       <c r="B585" s="6"/>
-      <c r="C585" s="6"/>
+      <c r="C585" s="13"/>
       <c r="D585" s="6"/>
       <c r="E585" s="13"/>
       <c r="F585" s="10"/>
@@ -21814,7 +21817,7 @@
     <row x14ac:dyDescent="0.25" r="586" customHeight="1" ht="12.75">
       <c r="A586" s="13"/>
       <c r="B586" s="6"/>
-      <c r="C586" s="6"/>
+      <c r="C586" s="13"/>
       <c r="D586" s="6"/>
       <c r="E586" s="13"/>
       <c r="F586" s="10"/>
@@ -21845,7 +21848,7 @@
     <row x14ac:dyDescent="0.25" r="587" customHeight="1" ht="12.75">
       <c r="A587" s="13"/>
       <c r="B587" s="6"/>
-      <c r="C587" s="6"/>
+      <c r="C587" s="13"/>
       <c r="D587" s="6"/>
       <c r="E587" s="13"/>
       <c r="F587" s="10"/>
@@ -21876,7 +21879,7 @@
     <row x14ac:dyDescent="0.25" r="588" customHeight="1" ht="12.75">
       <c r="A588" s="13"/>
       <c r="B588" s="6"/>
-      <c r="C588" s="6"/>
+      <c r="C588" s="13"/>
       <c r="D588" s="6"/>
       <c r="E588" s="13"/>
       <c r="F588" s="10"/>
@@ -21907,7 +21910,7 @@
     <row x14ac:dyDescent="0.25" r="589" customHeight="1" ht="12.75">
       <c r="A589" s="13"/>
       <c r="B589" s="6"/>
-      <c r="C589" s="6"/>
+      <c r="C589" s="13"/>
       <c r="D589" s="6"/>
       <c r="E589" s="13"/>
       <c r="F589" s="10"/>
@@ -21938,7 +21941,7 @@
     <row x14ac:dyDescent="0.25" r="590" customHeight="1" ht="12.75">
       <c r="A590" s="13"/>
       <c r="B590" s="6"/>
-      <c r="C590" s="6"/>
+      <c r="C590" s="13"/>
       <c r="D590" s="6"/>
       <c r="E590" s="13"/>
       <c r="F590" s="10"/>
@@ -21969,7 +21972,7 @@
     <row x14ac:dyDescent="0.25" r="591" customHeight="1" ht="12.75">
       <c r="A591" s="13"/>
       <c r="B591" s="6"/>
-      <c r="C591" s="6"/>
+      <c r="C591" s="13"/>
       <c r="D591" s="6"/>
       <c r="E591" s="13"/>
       <c r="F591" s="10"/>
@@ -22000,7 +22003,7 @@
     <row x14ac:dyDescent="0.25" r="592" customHeight="1" ht="12.75">
       <c r="A592" s="13"/>
       <c r="B592" s="6"/>
-      <c r="C592" s="6"/>
+      <c r="C592" s="13"/>
       <c r="D592" s="6"/>
       <c r="E592" s="13"/>
       <c r="F592" s="10"/>
@@ -22031,7 +22034,7 @@
     <row x14ac:dyDescent="0.25" r="593" customHeight="1" ht="12.75">
       <c r="A593" s="13"/>
       <c r="B593" s="6"/>
-      <c r="C593" s="6"/>
+      <c r="C593" s="13"/>
       <c r="D593" s="6"/>
       <c r="E593" s="13"/>
       <c r="F593" s="10"/>
@@ -22062,7 +22065,7 @@
     <row x14ac:dyDescent="0.25" r="594" customHeight="1" ht="12.75">
       <c r="A594" s="13"/>
       <c r="B594" s="6"/>
-      <c r="C594" s="6"/>
+      <c r="C594" s="13"/>
       <c r="D594" s="6"/>
       <c r="E594" s="13"/>
       <c r="F594" s="10"/>
@@ -22093,7 +22096,7 @@
     <row x14ac:dyDescent="0.25" r="595" customHeight="1" ht="12.75">
       <c r="A595" s="13"/>
       <c r="B595" s="6"/>
-      <c r="C595" s="6"/>
+      <c r="C595" s="13"/>
       <c r="D595" s="6"/>
       <c r="E595" s="13"/>
       <c r="F595" s="10"/>
@@ -22124,7 +22127,7 @@
     <row x14ac:dyDescent="0.25" r="596" customHeight="1" ht="12.75">
       <c r="A596" s="13"/>
       <c r="B596" s="6"/>
-      <c r="C596" s="6"/>
+      <c r="C596" s="13"/>
       <c r="D596" s="6"/>
       <c r="E596" s="13"/>
       <c r="F596" s="10"/>
@@ -22155,7 +22158,7 @@
     <row x14ac:dyDescent="0.25" r="597" customHeight="1" ht="12.75">
       <c r="A597" s="13"/>
       <c r="B597" s="6"/>
-      <c r="C597" s="6"/>
+      <c r="C597" s="13"/>
       <c r="D597" s="6"/>
       <c r="E597" s="13"/>
       <c r="F597" s="10"/>
@@ -22186,7 +22189,7 @@
     <row x14ac:dyDescent="0.25" r="598" customHeight="1" ht="12.75">
       <c r="A598" s="13"/>
       <c r="B598" s="6"/>
-      <c r="C598" s="6"/>
+      <c r="C598" s="13"/>
       <c r="D598" s="6"/>
       <c r="E598" s="13"/>
       <c r="F598" s="10"/>
@@ -22217,7 +22220,7 @@
     <row x14ac:dyDescent="0.25" r="599" customHeight="1" ht="12.75">
       <c r="A599" s="13"/>
       <c r="B599" s="6"/>
-      <c r="C599" s="6"/>
+      <c r="C599" s="13"/>
       <c r="D599" s="6"/>
       <c r="E599" s="13"/>
       <c r="F599" s="10"/>
@@ -22248,7 +22251,7 @@
     <row x14ac:dyDescent="0.25" r="600" customHeight="1" ht="12.75">
       <c r="A600" s="13"/>
       <c r="B600" s="6"/>
-      <c r="C600" s="6"/>
+      <c r="C600" s="13"/>
       <c r="D600" s="6"/>
       <c r="E600" s="13"/>
       <c r="F600" s="10"/>
@@ -22279,7 +22282,7 @@
     <row x14ac:dyDescent="0.25" r="601" customHeight="1" ht="12.75">
       <c r="A601" s="13"/>
       <c r="B601" s="6"/>
-      <c r="C601" s="6"/>
+      <c r="C601" s="13"/>
       <c r="D601" s="6"/>
       <c r="E601" s="13"/>
       <c r="F601" s="10"/>
@@ -22310,7 +22313,7 @@
     <row x14ac:dyDescent="0.25" r="602" customHeight="1" ht="12.75">
       <c r="A602" s="13"/>
       <c r="B602" s="6"/>
-      <c r="C602" s="6"/>
+      <c r="C602" s="13"/>
       <c r="D602" s="6"/>
       <c r="E602" s="13"/>
       <c r="F602" s="10"/>
@@ -22341,7 +22344,7 @@
     <row x14ac:dyDescent="0.25" r="603" customHeight="1" ht="12.75">
       <c r="A603" s="13"/>
       <c r="B603" s="6"/>
-      <c r="C603" s="6"/>
+      <c r="C603" s="13"/>
       <c r="D603" s="6"/>
       <c r="E603" s="13"/>
       <c r="F603" s="10"/>
@@ -22372,7 +22375,7 @@
     <row x14ac:dyDescent="0.25" r="604" customHeight="1" ht="12.75">
       <c r="A604" s="13"/>
       <c r="B604" s="6"/>
-      <c r="C604" s="6"/>
+      <c r="C604" s="13"/>
       <c r="D604" s="6"/>
       <c r="E604" s="13"/>
       <c r="F604" s="10"/>
@@ -22403,7 +22406,7 @@
     <row x14ac:dyDescent="0.25" r="605" customHeight="1" ht="12.75">
       <c r="A605" s="13"/>
       <c r="B605" s="6"/>
-      <c r="C605" s="6"/>
+      <c r="C605" s="13"/>
       <c r="D605" s="6"/>
       <c r="E605" s="13"/>
       <c r="F605" s="10"/>
@@ -22434,7 +22437,7 @@
     <row x14ac:dyDescent="0.25" r="606" customHeight="1" ht="12.75">
       <c r="A606" s="13"/>
       <c r="B606" s="6"/>
-      <c r="C606" s="6"/>
+      <c r="C606" s="13"/>
       <c r="D606" s="6"/>
       <c r="E606" s="13"/>
       <c r="F606" s="10"/>
@@ -22465,7 +22468,7 @@
     <row x14ac:dyDescent="0.25" r="607" customHeight="1" ht="12.75">
       <c r="A607" s="13"/>
       <c r="B607" s="6"/>
-      <c r="C607" s="6"/>
+      <c r="C607" s="13"/>
       <c r="D607" s="6"/>
       <c r="E607" s="13"/>
       <c r="F607" s="10"/>
@@ -22496,7 +22499,7 @@
     <row x14ac:dyDescent="0.25" r="608" customHeight="1" ht="12.75">
       <c r="A608" s="13"/>
       <c r="B608" s="6"/>
-      <c r="C608" s="6"/>
+      <c r="C608" s="13"/>
       <c r="D608" s="6"/>
       <c r="E608" s="13"/>
       <c r="F608" s="10"/>
@@ -22527,7 +22530,7 @@
     <row x14ac:dyDescent="0.25" r="609" customHeight="1" ht="12.75">
       <c r="A609" s="13"/>
       <c r="B609" s="6"/>
-      <c r="C609" s="6"/>
+      <c r="C609" s="13"/>
       <c r="D609" s="6"/>
       <c r="E609" s="13"/>
       <c r="F609" s="10"/>
@@ -22558,7 +22561,7 @@
     <row x14ac:dyDescent="0.25" r="610" customHeight="1" ht="12.75">
       <c r="A610" s="13"/>
       <c r="B610" s="6"/>
-      <c r="C610" s="6"/>
+      <c r="C610" s="13"/>
       <c r="D610" s="6"/>
       <c r="E610" s="13"/>
       <c r="F610" s="10"/>
@@ -22589,7 +22592,7 @@
     <row x14ac:dyDescent="0.25" r="611" customHeight="1" ht="12.75">
       <c r="A611" s="13"/>
       <c r="B611" s="6"/>
-      <c r="C611" s="6"/>
+      <c r="C611" s="13"/>
       <c r="D611" s="6"/>
       <c r="E611" s="13"/>
       <c r="F611" s="10"/>
@@ -22620,7 +22623,7 @@
     <row x14ac:dyDescent="0.25" r="612" customHeight="1" ht="12.75">
       <c r="A612" s="13"/>
       <c r="B612" s="6"/>
-      <c r="C612" s="6"/>
+      <c r="C612" s="13"/>
       <c r="D612" s="6"/>
       <c r="E612" s="13"/>
       <c r="F612" s="10"/>
@@ -22651,7 +22654,7 @@
     <row x14ac:dyDescent="0.25" r="613" customHeight="1" ht="12.75">
       <c r="A613" s="13"/>
       <c r="B613" s="6"/>
-      <c r="C613" s="6"/>
+      <c r="C613" s="13"/>
       <c r="D613" s="6"/>
       <c r="E613" s="13"/>
       <c r="F613" s="10"/>
@@ -22682,7 +22685,7 @@
     <row x14ac:dyDescent="0.25" r="614" customHeight="1" ht="12.75">
       <c r="A614" s="13"/>
       <c r="B614" s="6"/>
-      <c r="C614" s="6"/>
+      <c r="C614" s="13"/>
       <c r="D614" s="6"/>
       <c r="E614" s="13"/>
       <c r="F614" s="10"/>
@@ -22713,7 +22716,7 @@
     <row x14ac:dyDescent="0.25" r="615" customHeight="1" ht="12.75">
       <c r="A615" s="13"/>
       <c r="B615" s="6"/>
-      <c r="C615" s="6"/>
+      <c r="C615" s="13"/>
       <c r="D615" s="6"/>
       <c r="E615" s="13"/>
       <c r="F615" s="10"/>
@@ -22744,7 +22747,7 @@
     <row x14ac:dyDescent="0.25" r="616" customHeight="1" ht="12.75">
       <c r="A616" s="13"/>
       <c r="B616" s="6"/>
-      <c r="C616" s="6"/>
+      <c r="C616" s="13"/>
       <c r="D616" s="6"/>
       <c r="E616" s="13"/>
       <c r="F616" s="10"/>
@@ -22775,7 +22778,7 @@
     <row x14ac:dyDescent="0.25" r="617" customHeight="1" ht="12.75">
       <c r="A617" s="13"/>
       <c r="B617" s="6"/>
-      <c r="C617" s="6"/>
+      <c r="C617" s="13"/>
       <c r="D617" s="6"/>
       <c r="E617" s="13"/>
       <c r="F617" s="10"/>
@@ -22806,7 +22809,7 @@
     <row x14ac:dyDescent="0.25" r="618" customHeight="1" ht="12.75">
       <c r="A618" s="13"/>
       <c r="B618" s="6"/>
-      <c r="C618" s="6"/>
+      <c r="C618" s="13"/>
       <c r="D618" s="6"/>
       <c r="E618" s="13"/>
       <c r="F618" s="10"/>
@@ -22837,7 +22840,7 @@
     <row x14ac:dyDescent="0.25" r="619" customHeight="1" ht="12.75">
       <c r="A619" s="13"/>
       <c r="B619" s="6"/>
-      <c r="C619" s="6"/>
+      <c r="C619" s="13"/>
       <c r="D619" s="6"/>
       <c r="E619" s="13"/>
       <c r="F619" s="10"/>
@@ -22868,7 +22871,7 @@
     <row x14ac:dyDescent="0.25" r="620" customHeight="1" ht="12.75">
       <c r="A620" s="13"/>
       <c r="B620" s="6"/>
-      <c r="C620" s="6"/>
+      <c r="C620" s="13"/>
       <c r="D620" s="6"/>
       <c r="E620" s="13"/>
       <c r="F620" s="10"/>
@@ -22899,7 +22902,7 @@
     <row x14ac:dyDescent="0.25" r="621" customHeight="1" ht="12.75">
       <c r="A621" s="13"/>
       <c r="B621" s="6"/>
-      <c r="C621" s="6"/>
+      <c r="C621" s="13"/>
       <c r="D621" s="6"/>
       <c r="E621" s="13"/>
       <c r="F621" s="10"/>
@@ -22930,7 +22933,7 @@
     <row x14ac:dyDescent="0.25" r="622" customHeight="1" ht="12.75">
       <c r="A622" s="13"/>
       <c r="B622" s="6"/>
-      <c r="C622" s="6"/>
+      <c r="C622" s="13"/>
       <c r="D622" s="6"/>
       <c r="E622" s="13"/>
       <c r="F622" s="10"/>
@@ -22961,7 +22964,7 @@
     <row x14ac:dyDescent="0.25" r="623" customHeight="1" ht="12.75">
       <c r="A623" s="13"/>
       <c r="B623" s="6"/>
-      <c r="C623" s="6"/>
+      <c r="C623" s="13"/>
       <c r="D623" s="6"/>
       <c r="E623" s="13"/>
       <c r="F623" s="10"/>
@@ -22992,7 +22995,7 @@
     <row x14ac:dyDescent="0.25" r="624" customHeight="1" ht="12.75">
       <c r="A624" s="13"/>
       <c r="B624" s="6"/>
-      <c r="C624" s="6"/>
+      <c r="C624" s="13"/>
       <c r="D624" s="6"/>
       <c r="E624" s="13"/>
       <c r="F624" s="10"/>
@@ -23023,7 +23026,7 @@
     <row x14ac:dyDescent="0.25" r="625" customHeight="1" ht="12.75">
       <c r="A625" s="13"/>
       <c r="B625" s="6"/>
-      <c r="C625" s="6"/>
+      <c r="C625" s="13"/>
       <c r="D625" s="6"/>
       <c r="E625" s="13"/>
       <c r="F625" s="10"/>
@@ -23054,7 +23057,7 @@
     <row x14ac:dyDescent="0.25" r="626" customHeight="1" ht="12.75">
       <c r="A626" s="13"/>
       <c r="B626" s="6"/>
-      <c r="C626" s="6"/>
+      <c r="C626" s="13"/>
       <c r="D626" s="6"/>
       <c r="E626" s="13"/>
       <c r="F626" s="10"/>
@@ -23085,7 +23088,7 @@
     <row x14ac:dyDescent="0.25" r="627" customHeight="1" ht="12.75">
       <c r="A627" s="13"/>
       <c r="B627" s="6"/>
-      <c r="C627" s="6"/>
+      <c r="C627" s="13"/>
       <c r="D627" s="6"/>
       <c r="E627" s="13"/>
       <c r="F627" s="10"/>
@@ -23116,7 +23119,7 @@
     <row x14ac:dyDescent="0.25" r="628" customHeight="1" ht="12.75">
       <c r="A628" s="13"/>
       <c r="B628" s="6"/>
-      <c r="C628" s="6"/>
+      <c r="C628" s="13"/>
       <c r="D628" s="6"/>
       <c r="E628" s="13"/>
       <c r="F628" s="10"/>
@@ -23147,7 +23150,7 @@
     <row x14ac:dyDescent="0.25" r="629" customHeight="1" ht="12.75">
       <c r="A629" s="13"/>
       <c r="B629" s="6"/>
-      <c r="C629" s="6"/>
+      <c r="C629" s="13"/>
       <c r="D629" s="6"/>
       <c r="E629" s="13"/>
       <c r="F629" s="10"/>
@@ -23178,7 +23181,7 @@
     <row x14ac:dyDescent="0.25" r="630" customHeight="1" ht="12.75">
       <c r="A630" s="13"/>
       <c r="B630" s="6"/>
-      <c r="C630" s="6"/>
+      <c r="C630" s="13"/>
       <c r="D630" s="6"/>
       <c r="E630" s="13"/>
       <c r="F630" s="10"/>
@@ -23209,7 +23212,7 @@
     <row x14ac:dyDescent="0.25" r="631" customHeight="1" ht="12.75">
       <c r="A631" s="13"/>
       <c r="B631" s="6"/>
-      <c r="C631" s="6"/>
+      <c r="C631" s="13"/>
       <c r="D631" s="6"/>
       <c r="E631" s="13"/>
       <c r="F631" s="10"/>
@@ -23240,7 +23243,7 @@
     <row x14ac:dyDescent="0.25" r="632" customHeight="1" ht="12.75">
       <c r="A632" s="13"/>
       <c r="B632" s="6"/>
-      <c r="C632" s="6"/>
+      <c r="C632" s="13"/>
       <c r="D632" s="6"/>
       <c r="E632" s="13"/>
       <c r="F632" s="10"/>
@@ -23271,7 +23274,7 @@
     <row x14ac:dyDescent="0.25" r="633" customHeight="1" ht="12.75">
       <c r="A633" s="13"/>
       <c r="B633" s="6"/>
-      <c r="C633" s="6"/>
+      <c r="C633" s="13"/>
       <c r="D633" s="6"/>
       <c r="E633" s="13"/>
       <c r="F633" s="10"/>
@@ -23302,7 +23305,7 @@
     <row x14ac:dyDescent="0.25" r="634" customHeight="1" ht="12.75">
       <c r="A634" s="13"/>
       <c r="B634" s="6"/>
-      <c r="C634" s="6"/>
+      <c r="C634" s="13"/>
       <c r="D634" s="6"/>
       <c r="E634" s="13"/>
       <c r="F634" s="10"/>
@@ -23333,7 +23336,7 @@
     <row x14ac:dyDescent="0.25" r="635" customHeight="1" ht="12.75">
       <c r="A635" s="13"/>
       <c r="B635" s="6"/>
-      <c r="C635" s="6"/>
+      <c r="C635" s="13"/>
       <c r="D635" s="6"/>
       <c r="E635" s="13"/>
       <c r="F635" s="10"/>
@@ -23364,7 +23367,7 @@
     <row x14ac:dyDescent="0.25" r="636" customHeight="1" ht="12.75">
       <c r="A636" s="13"/>
       <c r="B636" s="6"/>
-      <c r="C636" s="6"/>
+      <c r="C636" s="13"/>
       <c r="D636" s="6"/>
       <c r="E636" s="13"/>
       <c r="F636" s="10"/>
@@ -23395,7 +23398,7 @@
     <row x14ac:dyDescent="0.25" r="637" customHeight="1" ht="12.75">
       <c r="A637" s="13"/>
       <c r="B637" s="6"/>
-      <c r="C637" s="6"/>
+      <c r="C637" s="13"/>
       <c r="D637" s="6"/>
       <c r="E637" s="13"/>
       <c r="F637" s="10"/>
@@ -23426,7 +23429,7 @@
     <row x14ac:dyDescent="0.25" r="638" customHeight="1" ht="12.75">
       <c r="A638" s="13"/>
       <c r="B638" s="6"/>
-      <c r="C638" s="6"/>
+      <c r="C638" s="13"/>
       <c r="D638" s="6"/>
       <c r="E638" s="13"/>
       <c r="F638" s="10"/>
@@ -23457,7 +23460,7 @@
     <row x14ac:dyDescent="0.25" r="639" customHeight="1" ht="12.75">
       <c r="A639" s="13"/>
       <c r="B639" s="6"/>
-      <c r="C639" s="6"/>
+      <c r="C639" s="13"/>
       <c r="D639" s="6"/>
       <c r="E639" s="13"/>
       <c r="F639" s="10"/>
@@ -23488,7 +23491,7 @@
     <row x14ac:dyDescent="0.25" r="640" customHeight="1" ht="12.75">
       <c r="A640" s="13"/>
       <c r="B640" s="6"/>
-      <c r="C640" s="6"/>
+      <c r="C640" s="13"/>
       <c r="D640" s="6"/>
       <c r="E640" s="13"/>
       <c r="F640" s="10"/>
@@ -23519,7 +23522,7 @@
     <row x14ac:dyDescent="0.25" r="641" customHeight="1" ht="12.75">
       <c r="A641" s="13"/>
       <c r="B641" s="6"/>
-      <c r="C641" s="6"/>
+      <c r="C641" s="13"/>
       <c r="D641" s="6"/>
       <c r="E641" s="13"/>
       <c r="F641" s="10"/>
@@ -23550,7 +23553,7 @@
     <row x14ac:dyDescent="0.25" r="642" customHeight="1" ht="12.75">
       <c r="A642" s="13"/>
       <c r="B642" s="6"/>
-      <c r="C642" s="6"/>
+      <c r="C642" s="13"/>
       <c r="D642" s="6"/>
       <c r="E642" s="13"/>
       <c r="F642" s="10"/>
@@ -23581,7 +23584,7 @@
     <row x14ac:dyDescent="0.25" r="643" customHeight="1" ht="12.75">
       <c r="A643" s="13"/>
       <c r="B643" s="6"/>
-      <c r="C643" s="6"/>
+      <c r="C643" s="13"/>
       <c r="D643" s="6"/>
       <c r="E643" s="13"/>
       <c r="F643" s="10"/>
@@ -23612,7 +23615,7 @@
     <row x14ac:dyDescent="0.25" r="644" customHeight="1" ht="12.75">
       <c r="A644" s="13"/>
       <c r="B644" s="6"/>
-      <c r="C644" s="6"/>
+      <c r="C644" s="13"/>
       <c r="D644" s="6"/>
       <c r="E644" s="13"/>
       <c r="F644" s="10"/>
@@ -23643,7 +23646,7 @@
     <row x14ac:dyDescent="0.25" r="645" customHeight="1" ht="12.75">
       <c r="A645" s="13"/>
       <c r="B645" s="6"/>
-      <c r="C645" s="6"/>
+      <c r="C645" s="13"/>
       <c r="D645" s="6"/>
       <c r="E645" s="13"/>
       <c r="F645" s="10"/>
@@ -23674,7 +23677,7 @@
     <row x14ac:dyDescent="0.25" r="646" customHeight="1" ht="12.75">
       <c r="A646" s="13"/>
       <c r="B646" s="6"/>
-      <c r="C646" s="6"/>
+      <c r="C646" s="13"/>
       <c r="D646" s="6"/>
       <c r="E646" s="13"/>
       <c r="F646" s="10"/>
@@ -23705,7 +23708,7 @@
     <row x14ac:dyDescent="0.25" r="647" customHeight="1" ht="12.75">
       <c r="A647" s="13"/>
       <c r="B647" s="6"/>
-      <c r="C647" s="6"/>
+      <c r="C647" s="13"/>
       <c r="D647" s="6"/>
       <c r="E647" s="13"/>
       <c r="F647" s="10"/>
@@ -23736,7 +23739,7 @@
     <row x14ac:dyDescent="0.25" r="648" customHeight="1" ht="12.75">
       <c r="A648" s="13"/>
       <c r="B648" s="6"/>
-      <c r="C648" s="6"/>
+      <c r="C648" s="13"/>
       <c r="D648" s="6"/>
       <c r="E648" s="13"/>
       <c r="F648" s="10"/>
@@ -23767,7 +23770,7 @@
     <row x14ac:dyDescent="0.25" r="649" customHeight="1" ht="12.75">
       <c r="A649" s="13"/>
       <c r="B649" s="6"/>
-      <c r="C649" s="6"/>
+      <c r="C649" s="13"/>
       <c r="D649" s="6"/>
       <c r="E649" s="13"/>
       <c r="F649" s="10"/>
@@ -23798,7 +23801,7 @@
     <row x14ac:dyDescent="0.25" r="650" customHeight="1" ht="12.75">
       <c r="A650" s="13"/>
       <c r="B650" s="6"/>
-      <c r="C650" s="6"/>
+      <c r="C650" s="13"/>
       <c r="D650" s="6"/>
       <c r="E650" s="13"/>
       <c r="F650" s="10"/>
@@ -23829,7 +23832,7 @@
     <row x14ac:dyDescent="0.25" r="651" customHeight="1" ht="12.75">
       <c r="A651" s="13"/>
       <c r="B651" s="6"/>
-      <c r="C651" s="6"/>
+      <c r="C651" s="13"/>
       <c r="D651" s="6"/>
       <c r="E651" s="13"/>
       <c r="F651" s="10"/>
@@ -23860,7 +23863,7 @@
     <row x14ac:dyDescent="0.25" r="652" customHeight="1" ht="12.75">
       <c r="A652" s="13"/>
       <c r="B652" s="6"/>
-      <c r="C652" s="6"/>
+      <c r="C652" s="13"/>
       <c r="D652" s="6"/>
       <c r="E652" s="13"/>
       <c r="F652" s="10"/>
@@ -23891,7 +23894,7 @@
     <row x14ac:dyDescent="0.25" r="653" customHeight="1" ht="12.75">
       <c r="A653" s="13"/>
       <c r="B653" s="6"/>
-      <c r="C653" s="6"/>
+      <c r="C653" s="13"/>
       <c r="D653" s="6"/>
       <c r="E653" s="13"/>
       <c r="F653" s="10"/>
@@ -23922,7 +23925,7 @@
     <row x14ac:dyDescent="0.25" r="654" customHeight="1" ht="12.75">
       <c r="A654" s="13"/>
       <c r="B654" s="6"/>
-      <c r="C654" s="6"/>
+      <c r="C654" s="13"/>
       <c r="D654" s="6"/>
       <c r="E654" s="13"/>
       <c r="F654" s="10"/>
@@ -23953,7 +23956,7 @@
     <row x14ac:dyDescent="0.25" r="655" customHeight="1" ht="12.75">
       <c r="A655" s="13"/>
       <c r="B655" s="6"/>
-      <c r="C655" s="6"/>
+      <c r="C655" s="13"/>
       <c r="D655" s="6"/>
       <c r="E655" s="13"/>
       <c r="F655" s="10"/>
@@ -23984,7 +23987,7 @@
     <row x14ac:dyDescent="0.25" r="656" customHeight="1" ht="12.75">
       <c r="A656" s="13"/>
       <c r="B656" s="6"/>
-      <c r="C656" s="6"/>
+      <c r="C656" s="13"/>
       <c r="D656" s="6"/>
       <c r="E656" s="13"/>
       <c r="F656" s="10"/>
@@ -24015,7 +24018,7 @@
     <row x14ac:dyDescent="0.25" r="657" customHeight="1" ht="12.75">
       <c r="A657" s="13"/>
       <c r="B657" s="6"/>
-      <c r="C657" s="6"/>
+      <c r="C657" s="13"/>
       <c r="D657" s="6"/>
       <c r="E657" s="13"/>
       <c r="F657" s="10"/>
@@ -24046,7 +24049,7 @@
     <row x14ac:dyDescent="0.25" r="658" customHeight="1" ht="12.75">
       <c r="A658" s="13"/>
       <c r="B658" s="6"/>
-      <c r="C658" s="6"/>
+      <c r="C658" s="13"/>
       <c r="D658" s="6"/>
       <c r="E658" s="13"/>
       <c r="F658" s="10"/>
@@ -24077,7 +24080,7 @@
     <row x14ac:dyDescent="0.25" r="659" customHeight="1" ht="12.75">
       <c r="A659" s="13"/>
       <c r="B659" s="6"/>
-      <c r="C659" s="6"/>
+      <c r="C659" s="13"/>
       <c r="D659" s="6"/>
       <c r="E659" s="13"/>
       <c r="F659" s="10"/>
@@ -24108,7 +24111,7 @@
     <row x14ac:dyDescent="0.25" r="660" customHeight="1" ht="12.75">
       <c r="A660" s="13"/>
       <c r="B660" s="6"/>
-      <c r="C660" s="6"/>
+      <c r="C660" s="13"/>
       <c r="D660" s="6"/>
       <c r="E660" s="13"/>
       <c r="F660" s="10"/>
@@ -24139,7 +24142,7 @@
     <row x14ac:dyDescent="0.25" r="661" customHeight="1" ht="12.75">
       <c r="A661" s="13"/>
       <c r="B661" s="6"/>
-      <c r="C661" s="6"/>
+      <c r="C661" s="13"/>
       <c r="D661" s="6"/>
       <c r="E661" s="13"/>
       <c r="F661" s="10"/>
@@ -24170,7 +24173,7 @@
     <row x14ac:dyDescent="0.25" r="662" customHeight="1" ht="12.75">
       <c r="A662" s="13"/>
       <c r="B662" s="6"/>
-      <c r="C662" s="6"/>
+      <c r="C662" s="13"/>
       <c r="D662" s="6"/>
       <c r="E662" s="13"/>
       <c r="F662" s="10"/>
@@ -24201,7 +24204,7 @@
     <row x14ac:dyDescent="0.25" r="663" customHeight="1" ht="12.75">
       <c r="A663" s="13"/>
       <c r="B663" s="6"/>
-      <c r="C663" s="6"/>
+      <c r="C663" s="13"/>
       <c r="D663" s="6"/>
       <c r="E663" s="13"/>
       <c r="F663" s="10"/>
@@ -24232,7 +24235,7 @@
     <row x14ac:dyDescent="0.25" r="664" customHeight="1" ht="12.75">
       <c r="A664" s="13"/>
       <c r="B664" s="6"/>
-      <c r="C664" s="6"/>
+      <c r="C664" s="13"/>
       <c r="D664" s="6"/>
       <c r="E664" s="13"/>
       <c r="F664" s="10"/>
@@ -24263,7 +24266,7 @@
     <row x14ac:dyDescent="0.25" r="665" customHeight="1" ht="12.75">
       <c r="A665" s="13"/>
       <c r="B665" s="6"/>
-      <c r="C665" s="6"/>
+      <c r="C665" s="13"/>
       <c r="D665" s="6"/>
       <c r="E665" s="13"/>
       <c r="F665" s="10"/>
@@ -24294,7 +24297,7 @@
     <row x14ac:dyDescent="0.25" r="666" customHeight="1" ht="12.75">
       <c r="A666" s="13"/>
       <c r="B666" s="6"/>
-      <c r="C666" s="6"/>
+      <c r="C666" s="13"/>
       <c r="D666" s="6"/>
       <c r="E666" s="13"/>
       <c r="F666" s="10"/>
@@ -24325,7 +24328,7 @@
     <row x14ac:dyDescent="0.25" r="667" customHeight="1" ht="12.75">
       <c r="A667" s="13"/>
       <c r="B667" s="6"/>
-      <c r="C667" s="6"/>
+      <c r="C667" s="13"/>
       <c r="D667" s="6"/>
       <c r="E667" s="13"/>
       <c r="F667" s="10"/>
@@ -24356,7 +24359,7 @@
     <row x14ac:dyDescent="0.25" r="668" customHeight="1" ht="12.75">
       <c r="A668" s="13"/>
       <c r="B668" s="6"/>
-      <c r="C668" s="6"/>
+      <c r="C668" s="13"/>
       <c r="D668" s="6"/>
       <c r="E668" s="13"/>
       <c r="F668" s="10"/>
@@ -24387,7 +24390,7 @@
     <row x14ac:dyDescent="0.25" r="669" customHeight="1" ht="12.75">
       <c r="A669" s="13"/>
       <c r="B669" s="6"/>
-      <c r="C669" s="6"/>
+      <c r="C669" s="13"/>
       <c r="D669" s="6"/>
       <c r="E669" s="13"/>
       <c r="F669" s="10"/>
@@ -24418,7 +24421,7 @@
     <row x14ac:dyDescent="0.25" r="670" customHeight="1" ht="12.75">
       <c r="A670" s="13"/>
       <c r="B670" s="6"/>
-      <c r="C670" s="6"/>
+      <c r="C670" s="13"/>
       <c r="D670" s="6"/>
       <c r="E670" s="13"/>
       <c r="F670" s="10"/>
@@ -24449,7 +24452,7 @@
     <row x14ac:dyDescent="0.25" r="671" customHeight="1" ht="12.75">
       <c r="A671" s="13"/>
       <c r="B671" s="6"/>
-      <c r="C671" s="6"/>
+      <c r="C671" s="13"/>
       <c r="D671" s="6"/>
       <c r="E671" s="13"/>
       <c r="F671" s="10"/>
@@ -24480,7 +24483,7 @@
     <row x14ac:dyDescent="0.25" r="672" customHeight="1" ht="12.75">
       <c r="A672" s="13"/>
       <c r="B672" s="6"/>
-      <c r="C672" s="6"/>
+      <c r="C672" s="13"/>
       <c r="D672" s="6"/>
       <c r="E672" s="13"/>
       <c r="F672" s="10"/>
@@ -24511,7 +24514,7 @@
     <row x14ac:dyDescent="0.25" r="673" customHeight="1" ht="12.75">
       <c r="A673" s="13"/>
       <c r="B673" s="6"/>
-      <c r="C673" s="6"/>
+      <c r="C673" s="13"/>
       <c r="D673" s="6"/>
       <c r="E673" s="13"/>
       <c r="F673" s="10"/>
@@ -24542,7 +24545,7 @@
     <row x14ac:dyDescent="0.25" r="674" customHeight="1" ht="12.75">
       <c r="A674" s="13"/>
       <c r="B674" s="6"/>
-      <c r="C674" s="6"/>
+      <c r="C674" s="13"/>
       <c r="D674" s="6"/>
       <c r="E674" s="13"/>
       <c r="F674" s="10"/>
@@ -24573,7 +24576,7 @@
     <row x14ac:dyDescent="0.25" r="675" customHeight="1" ht="12.75">
       <c r="A675" s="13"/>
       <c r="B675" s="6"/>
-      <c r="C675" s="6"/>
+      <c r="C675" s="13"/>
       <c r="D675" s="6"/>
       <c r="E675" s="13"/>
       <c r="F675" s="10"/>
@@ -24604,7 +24607,7 @@
     <row x14ac:dyDescent="0.25" r="676" customHeight="1" ht="12.75">
       <c r="A676" s="13"/>
       <c r="B676" s="6"/>
-      <c r="C676" s="6"/>
+      <c r="C676" s="13"/>
       <c r="D676" s="6"/>
       <c r="E676" s="13"/>
       <c r="F676" s="10"/>
@@ -24635,7 +24638,7 @@
     <row x14ac:dyDescent="0.25" r="677" customHeight="1" ht="12.75">
       <c r="A677" s="13"/>
       <c r="B677" s="6"/>
-      <c r="C677" s="6"/>
+      <c r="C677" s="13"/>
       <c r="D677" s="6"/>
       <c r="E677" s="13"/>
       <c r="F677" s="10"/>
@@ -24666,7 +24669,7 @@
     <row x14ac:dyDescent="0.25" r="678" customHeight="1" ht="12.75">
       <c r="A678" s="13"/>
       <c r="B678" s="6"/>
-      <c r="C678" s="6"/>
+      <c r="C678" s="13"/>
       <c r="D678" s="6"/>
       <c r="E678" s="13"/>
       <c r="F678" s="10"/>
@@ -24697,7 +24700,7 @@
     <row x14ac:dyDescent="0.25" r="679" customHeight="1" ht="12.75">
       <c r="A679" s="13"/>
       <c r="B679" s="6"/>
-      <c r="C679" s="6"/>
+      <c r="C679" s="13"/>
       <c r="D679" s="6"/>
       <c r="E679" s="13"/>
       <c r="F679" s="10"/>
@@ -24728,7 +24731,7 @@
     <row x14ac:dyDescent="0.25" r="680" customHeight="1" ht="12.75">
       <c r="A680" s="13"/>
       <c r="B680" s="6"/>
-      <c r="C680" s="6"/>
+      <c r="C680" s="13"/>
       <c r="D680" s="6"/>
       <c r="E680" s="13"/>
       <c r="F680" s="10"/>
@@ -24759,7 +24762,7 @@
     <row x14ac:dyDescent="0.25" r="681" customHeight="1" ht="12.75">
       <c r="A681" s="13"/>
       <c r="B681" s="6"/>
-      <c r="C681" s="6"/>
+      <c r="C681" s="13"/>
       <c r="D681" s="6"/>
       <c r="E681" s="13"/>
       <c r="F681" s="10"/>
@@ -24790,7 +24793,7 @@
     <row x14ac:dyDescent="0.25" r="682" customHeight="1" ht="12.75">
       <c r="A682" s="13"/>
       <c r="B682" s="6"/>
-      <c r="C682" s="6"/>
+      <c r="C682" s="13"/>
       <c r="D682" s="6"/>
       <c r="E682" s="13"/>
       <c r="F682" s="10"/>
@@ -24821,7 +24824,7 @@
     <row x14ac:dyDescent="0.25" r="683" customHeight="1" ht="12.75">
       <c r="A683" s="13"/>
       <c r="B683" s="6"/>
-      <c r="C683" s="6"/>
+      <c r="C683" s="13"/>
       <c r="D683" s="6"/>
       <c r="E683" s="13"/>
       <c r="F683" s="10"/>
@@ -24852,7 +24855,7 @@
     <row x14ac:dyDescent="0.25" r="684" customHeight="1" ht="12.75">
       <c r="A684" s="13"/>
       <c r="B684" s="6"/>
-      <c r="C684" s="6"/>
+      <c r="C684" s="13"/>
       <c r="D684" s="6"/>
       <c r="E684" s="13"/>
       <c r="F684" s="10"/>
@@ -24883,7 +24886,7 @@
     <row x14ac:dyDescent="0.25" r="685" customHeight="1" ht="12.75">
       <c r="A685" s="13"/>
       <c r="B685" s="6"/>
-      <c r="C685" s="6"/>
+      <c r="C685" s="13"/>
       <c r="D685" s="6"/>
       <c r="E685" s="13"/>
       <c r="F685" s="10"/>
@@ -24914,7 +24917,7 @@
     <row x14ac:dyDescent="0.25" r="686" customHeight="1" ht="12.75">
       <c r="A686" s="13"/>
       <c r="B686" s="6"/>
-      <c r="C686" s="6"/>
+      <c r="C686" s="13"/>
       <c r="D686" s="6"/>
       <c r="E686" s="13"/>
       <c r="F686" s="10"/>
@@ -24945,7 +24948,7 @@
     <row x14ac:dyDescent="0.25" r="687" customHeight="1" ht="12.75">
       <c r="A687" s="13"/>
       <c r="B687" s="6"/>
-      <c r="C687" s="6"/>
+      <c r="C687" s="13"/>
       <c r="D687" s="6"/>
       <c r="E687" s="13"/>
       <c r="F687" s="10"/>
@@ -24976,7 +24979,7 @@
     <row x14ac:dyDescent="0.25" r="688" customHeight="1" ht="12.75">
       <c r="A688" s="13"/>
       <c r="B688" s="6"/>
-      <c r="C688" s="6"/>
+      <c r="C688" s="13"/>
       <c r="D688" s="6"/>
       <c r="E688" s="13"/>
       <c r="F688" s="10"/>
@@ -25007,7 +25010,7 @@
     <row x14ac:dyDescent="0.25" r="689" customHeight="1" ht="12.75">
       <c r="A689" s="13"/>
       <c r="B689" s="6"/>
-      <c r="C689" s="6"/>
+      <c r="C689" s="13"/>
       <c r="D689" s="6"/>
       <c r="E689" s="13"/>
       <c r="F689" s="10"/>
@@ -25038,7 +25041,7 @@
     <row x14ac:dyDescent="0.25" r="690" customHeight="1" ht="12.75">
       <c r="A690" s="13"/>
       <c r="B690" s="6"/>
-      <c r="C690" s="6"/>
+      <c r="C690" s="13"/>
       <c r="D690" s="6"/>
       <c r="E690" s="13"/>
       <c r="F690" s="10"/>
@@ -25069,7 +25072,7 @@
     <row x14ac:dyDescent="0.25" r="691" customHeight="1" ht="12.75">
       <c r="A691" s="13"/>
       <c r="B691" s="6"/>
-      <c r="C691" s="6"/>
+      <c r="C691" s="13"/>
       <c r="D691" s="6"/>
       <c r="E691" s="13"/>
       <c r="F691" s="10"/>
@@ -25100,7 +25103,7 @@
     <row x14ac:dyDescent="0.25" r="692" customHeight="1" ht="12.75">
       <c r="A692" s="13"/>
       <c r="B692" s="6"/>
-      <c r="C692" s="6"/>
+      <c r="C692" s="13"/>
       <c r="D692" s="6"/>
       <c r="E692" s="13"/>
       <c r="F692" s="10"/>
@@ -25131,7 +25134,7 @@
     <row x14ac:dyDescent="0.25" r="693" customHeight="1" ht="12.75">
       <c r="A693" s="13"/>
       <c r="B693" s="6"/>
-      <c r="C693" s="6"/>
+      <c r="C693" s="13"/>
       <c r="D693" s="6"/>
       <c r="E693" s="13"/>
       <c r="F693" s="10"/>
@@ -25162,7 +25165,7 @@
     <row x14ac:dyDescent="0.25" r="694" customHeight="1" ht="12.75">
       <c r="A694" s="13"/>
       <c r="B694" s="6"/>
-      <c r="C694" s="6"/>
+      <c r="C694" s="13"/>
       <c r="D694" s="6"/>
       <c r="E694" s="13"/>
       <c r="F694" s="10"/>
@@ -25193,7 +25196,7 @@
     <row x14ac:dyDescent="0.25" r="695" customHeight="1" ht="12.75">
       <c r="A695" s="13"/>
       <c r="B695" s="6"/>
-      <c r="C695" s="6"/>
+      <c r="C695" s="13"/>
       <c r="D695" s="6"/>
       <c r="E695" s="13"/>
       <c r="F695" s="10"/>
@@ -25224,7 +25227,7 @@
     <row x14ac:dyDescent="0.25" r="696" customHeight="1" ht="12.75">
       <c r="A696" s="13"/>
       <c r="B696" s="6"/>
-      <c r="C696" s="6"/>
+      <c r="C696" s="13"/>
       <c r="D696" s="6"/>
       <c r="E696" s="13"/>
       <c r="F696" s="10"/>
@@ -25255,7 +25258,7 @@
     <row x14ac:dyDescent="0.25" r="697" customHeight="1" ht="12.75">
       <c r="A697" s="13"/>
       <c r="B697" s="6"/>
-      <c r="C697" s="6"/>
+      <c r="C697" s="13"/>
       <c r="D697" s="6"/>
       <c r="E697" s="13"/>
       <c r="F697" s="10"/>
@@ -25286,7 +25289,7 @@
     <row x14ac:dyDescent="0.25" r="698" customHeight="1" ht="12.75">
       <c r="A698" s="13"/>
       <c r="B698" s="6"/>
-      <c r="C698" s="6"/>
+      <c r="C698" s="13"/>
       <c r="D698" s="6"/>
       <c r="E698" s="13"/>
       <c r="F698" s="10"/>
@@ -25317,7 +25320,7 @@
     <row x14ac:dyDescent="0.25" r="699" customHeight="1" ht="12.75">
       <c r="A699" s="13"/>
       <c r="B699" s="6"/>
-      <c r="C699" s="6"/>
+      <c r="C699" s="13"/>
       <c r="D699" s="6"/>
       <c r="E699" s="13"/>
       <c r="F699" s="10"/>
@@ -25348,7 +25351,7 @@
     <row x14ac:dyDescent="0.25" r="700" customHeight="1" ht="12.75">
       <c r="A700" s="13"/>
       <c r="B700" s="6"/>
-      <c r="C700" s="6"/>
+      <c r="C700" s="13"/>
       <c r="D700" s="6"/>
       <c r="E700" s="13"/>
       <c r="F700" s="10"/>
@@ -25379,7 +25382,7 @@
     <row x14ac:dyDescent="0.25" r="701" customHeight="1" ht="12.75">
       <c r="A701" s="13"/>
       <c r="B701" s="6"/>
-      <c r="C701" s="6"/>
+      <c r="C701" s="13"/>
       <c r="D701" s="6"/>
       <c r="E701" s="13"/>
       <c r="F701" s="10"/>
@@ -25410,7 +25413,7 @@
     <row x14ac:dyDescent="0.25" r="702" customHeight="1" ht="12.75">
       <c r="A702" s="13"/>
       <c r="B702" s="6"/>
-      <c r="C702" s="6"/>
+      <c r="C702" s="13"/>
       <c r="D702" s="6"/>
       <c r="E702" s="13"/>
       <c r="F702" s="10"/>
@@ -25441,7 +25444,7 @@
     <row x14ac:dyDescent="0.25" r="703" customHeight="1" ht="12.75">
       <c r="A703" s="13"/>
       <c r="B703" s="6"/>
-      <c r="C703" s="6"/>
+      <c r="C703" s="13"/>
       <c r="D703" s="6"/>
       <c r="E703" s="13"/>
       <c r="F703" s="10"/>
@@ -25472,7 +25475,7 @@
     <row x14ac:dyDescent="0.25" r="704" customHeight="1" ht="12.75">
       <c r="A704" s="13"/>
       <c r="B704" s="6"/>
-      <c r="C704" s="6"/>
+      <c r="C704" s="13"/>
       <c r="D704" s="6"/>
       <c r="E704" s="13"/>
       <c r="F704" s="10"/>
@@ -25503,7 +25506,7 @@
     <row x14ac:dyDescent="0.25" r="705" customHeight="1" ht="12.75">
       <c r="A705" s="13"/>
       <c r="B705" s="6"/>
-      <c r="C705" s="6"/>
+      <c r="C705" s="13"/>
       <c r="D705" s="6"/>
       <c r="E705" s="13"/>
       <c r="F705" s="10"/>
@@ -25534,7 +25537,7 @@
     <row x14ac:dyDescent="0.25" r="706" customHeight="1" ht="12.75">
       <c r="A706" s="13"/>
       <c r="B706" s="6"/>
-      <c r="C706" s="6"/>
+      <c r="C706" s="13"/>
       <c r="D706" s="6"/>
       <c r="E706" s="13"/>
       <c r="F706" s="10"/>
@@ -25565,7 +25568,7 @@
     <row x14ac:dyDescent="0.25" r="707" customHeight="1" ht="12.75">
       <c r="A707" s="13"/>
       <c r="B707" s="6"/>
-      <c r="C707" s="6"/>
+      <c r="C707" s="13"/>
       <c r="D707" s="6"/>
       <c r="E707" s="13"/>
       <c r="F707" s="10"/>
@@ -25596,7 +25599,7 @@
     <row x14ac:dyDescent="0.25" r="708" customHeight="1" ht="12.75">
       <c r="A708" s="13"/>
       <c r="B708" s="6"/>
-      <c r="C708" s="6"/>
+      <c r="C708" s="13"/>
       <c r="D708" s="6"/>
       <c r="E708" s="13"/>
       <c r="F708" s="10"/>
@@ -25627,7 +25630,7 @@
     <row x14ac:dyDescent="0.25" r="709" customHeight="1" ht="12.75">
       <c r="A709" s="13"/>
       <c r="B709" s="6"/>
-      <c r="C709" s="6"/>
+      <c r="C709" s="13"/>
       <c r="D709" s="6"/>
       <c r="E709" s="13"/>
       <c r="F709" s="10"/>
@@ -25658,7 +25661,7 @@
     <row x14ac:dyDescent="0.25" r="710" customHeight="1" ht="12.75">
       <c r="A710" s="13"/>
       <c r="B710" s="6"/>
-      <c r="C710" s="6"/>
+      <c r="C710" s="13"/>
       <c r="D710" s="6"/>
       <c r="E710" s="13"/>
       <c r="F710" s="10"/>
@@ -25689,7 +25692,7 @@
     <row x14ac:dyDescent="0.25" r="711" customHeight="1" ht="12.75">
       <c r="A711" s="13"/>
       <c r="B711" s="6"/>
-      <c r="C711" s="6"/>
+      <c r="C711" s="13"/>
       <c r="D711" s="6"/>
       <c r="E711" s="13"/>
       <c r="F711" s="10"/>
@@ -25720,7 +25723,7 @@
     <row x14ac:dyDescent="0.25" r="712" customHeight="1" ht="12.75">
       <c r="A712" s="13"/>
       <c r="B712" s="6"/>
-      <c r="C712" s="6"/>
+      <c r="C712" s="13"/>
       <c r="D712" s="6"/>
       <c r="E712" s="13"/>
       <c r="F712" s="10"/>
@@ -25751,7 +25754,7 @@
     <row x14ac:dyDescent="0.25" r="713" customHeight="1" ht="12.75">
       <c r="A713" s="13"/>
       <c r="B713" s="6"/>
-      <c r="C713" s="6"/>
+      <c r="C713" s="13"/>
       <c r="D713" s="6"/>
       <c r="E713" s="13"/>
       <c r="F713" s="10"/>
@@ -25782,7 +25785,7 @@
     <row x14ac:dyDescent="0.25" r="714" customHeight="1" ht="12.75">
       <c r="A714" s="13"/>
       <c r="B714" s="6"/>
-      <c r="C714" s="6"/>
+      <c r="C714" s="13"/>
       <c r="D714" s="6"/>
       <c r="E714" s="13"/>
       <c r="F714" s="10"/>
@@ -25813,7 +25816,7 @@
     <row x14ac:dyDescent="0.25" r="715" customHeight="1" ht="12.75">
       <c r="A715" s="13"/>
       <c r="B715" s="6"/>
-      <c r="C715" s="6"/>
+      <c r="C715" s="13"/>
       <c r="D715" s="6"/>
       <c r="E715" s="13"/>
       <c r="F715" s="10"/>
@@ -25844,7 +25847,7 @@
     <row x14ac:dyDescent="0.25" r="716" customHeight="1" ht="12.75">
       <c r="A716" s="13"/>
       <c r="B716" s="6"/>
-      <c r="C716" s="6"/>
+      <c r="C716" s="13"/>
       <c r="D716" s="6"/>
       <c r="E716" s="13"/>
       <c r="F716" s="10"/>
@@ -25875,7 +25878,7 @@
     <row x14ac:dyDescent="0.25" r="717" customHeight="1" ht="12.75">
       <c r="A717" s="13"/>
       <c r="B717" s="6"/>
-      <c r="C717" s="6"/>
+      <c r="C717" s="13"/>
       <c r="D717" s="6"/>
       <c r="E717" s="13"/>
       <c r="F717" s="10"/>
@@ -25906,7 +25909,7 @@
     <row x14ac:dyDescent="0.25" r="718" customHeight="1" ht="12.75">
       <c r="A718" s="13"/>
       <c r="B718" s="6"/>
-      <c r="C718" s="6"/>
+      <c r="C718" s="13"/>
       <c r="D718" s="6"/>
       <c r="E718" s="13"/>
       <c r="F718" s="10"/>
@@ -25937,7 +25940,7 @@
     <row x14ac:dyDescent="0.25" r="719" customHeight="1" ht="12.75">
       <c r="A719" s="13"/>
       <c r="B719" s="6"/>
-      <c r="C719" s="6"/>
+      <c r="C719" s="13"/>
       <c r="D719" s="6"/>
       <c r="E719" s="13"/>
       <c r="F719" s="10"/>
@@ -25968,7 +25971,7 @@
     <row x14ac:dyDescent="0.25" r="720" customHeight="1" ht="12.75">
       <c r="A720" s="13"/>
       <c r="B720" s="6"/>
-      <c r="C720" s="6"/>
+      <c r="C720" s="13"/>
       <c r="D720" s="6"/>
       <c r="E720" s="13"/>
       <c r="F720" s="10"/>
@@ -25999,7 +26002,7 @@
     <row x14ac:dyDescent="0.25" r="721" customHeight="1" ht="12.75">
       <c r="A721" s="13"/>
       <c r="B721" s="6"/>
-      <c r="C721" s="6"/>
+      <c r="C721" s="13"/>
       <c r="D721" s="6"/>
       <c r="E721" s="13"/>
       <c r="F721" s="10"/>
@@ -26030,7 +26033,7 @@
     <row x14ac:dyDescent="0.25" r="722" customHeight="1" ht="12.75">
       <c r="A722" s="13"/>
       <c r="B722" s="6"/>
-      <c r="C722" s="6"/>
+      <c r="C722" s="13"/>
       <c r="D722" s="6"/>
       <c r="E722" s="13"/>
       <c r="F722" s="10"/>
@@ -26061,7 +26064,7 @@
     <row x14ac:dyDescent="0.25" r="723" customHeight="1" ht="12.75">
       <c r="A723" s="13"/>
       <c r="B723" s="6"/>
-      <c r="C723" s="6"/>
+      <c r="C723" s="13"/>
       <c r="D723" s="6"/>
       <c r="E723" s="13"/>
       <c r="F723" s="10"/>
@@ -26092,7 +26095,7 @@
     <row x14ac:dyDescent="0.25" r="724" customHeight="1" ht="12.75">
       <c r="A724" s="13"/>
       <c r="B724" s="6"/>
-      <c r="C724" s="6"/>
+      <c r="C724" s="13"/>
       <c r="D724" s="6"/>
       <c r="E724" s="13"/>
       <c r="F724" s="10"/>
@@ -26123,7 +26126,7 @@
     <row x14ac:dyDescent="0.25" r="725" customHeight="1" ht="12.75">
       <c r="A725" s="13"/>
       <c r="B725" s="6"/>
-      <c r="C725" s="6"/>
+      <c r="C725" s="13"/>
       <c r="D725" s="6"/>
       <c r="E725" s="13"/>
       <c r="F725" s="10"/>
@@ -26154,7 +26157,7 @@
     <row x14ac:dyDescent="0.25" r="726" customHeight="1" ht="12.75">
       <c r="A726" s="13"/>
       <c r="B726" s="6"/>
-      <c r="C726" s="6"/>
+      <c r="C726" s="13"/>
       <c r="D726" s="6"/>
       <c r="E726" s="13"/>
       <c r="F726" s="10"/>
@@ -26185,7 +26188,7 @@
     <row x14ac:dyDescent="0.25" r="727" customHeight="1" ht="12.75">
       <c r="A727" s="13"/>
       <c r="B727" s="6"/>
-      <c r="C727" s="6"/>
+      <c r="C727" s="13"/>
       <c r="D727" s="6"/>
       <c r="E727" s="13"/>
       <c r="F727" s="10"/>
@@ -26216,7 +26219,7 @@
     <row x14ac:dyDescent="0.25" r="728" customHeight="1" ht="12.75">
       <c r="A728" s="13"/>
       <c r="B728" s="6"/>
-      <c r="C728" s="6"/>
+      <c r="C728" s="13"/>
       <c r="D728" s="6"/>
       <c r="E728" s="13"/>
       <c r="F728" s="10"/>
@@ -26247,7 +26250,7 @@
     <row x14ac:dyDescent="0.25" r="729" customHeight="1" ht="12.75">
       <c r="A729" s="13"/>
       <c r="B729" s="6"/>
-      <c r="C729" s="6"/>
+      <c r="C729" s="13"/>
       <c r="D729" s="6"/>
       <c r="E729" s="13"/>
       <c r="F729" s="10"/>
@@ -26278,7 +26281,7 @@
     <row x14ac:dyDescent="0.25" r="730" customHeight="1" ht="12.75">
       <c r="A730" s="13"/>
       <c r="B730" s="6"/>
-      <c r="C730" s="6"/>
+      <c r="C730" s="13"/>
       <c r="D730" s="6"/>
       <c r="E730" s="13"/>
       <c r="F730" s="10"/>
@@ -26309,7 +26312,7 @@
     <row x14ac:dyDescent="0.25" r="731" customHeight="1" ht="12.75">
       <c r="A731" s="13"/>
       <c r="B731" s="6"/>
-      <c r="C731" s="6"/>
+      <c r="C731" s="13"/>
       <c r="D731" s="6"/>
       <c r="E731" s="13"/>
       <c r="F731" s="10"/>
@@ -26340,7 +26343,7 @@
     <row x14ac:dyDescent="0.25" r="732" customHeight="1" ht="12.75">
       <c r="A732" s="13"/>
       <c r="B732" s="6"/>
-      <c r="C732" s="6"/>
+      <c r="C732" s="13"/>
       <c r="D732" s="6"/>
       <c r="E732" s="13"/>
       <c r="F732" s="10"/>
@@ -26371,7 +26374,7 @@
     <row x14ac:dyDescent="0.25" r="733" customHeight="1" ht="12.75">
       <c r="A733" s="13"/>
       <c r="B733" s="6"/>
-      <c r="C733" s="6"/>
+      <c r="C733" s="13"/>
       <c r="D733" s="6"/>
       <c r="E733" s="13"/>
       <c r="F733" s="10"/>
@@ -26402,7 +26405,7 @@
     <row x14ac:dyDescent="0.25" r="734" customHeight="1" ht="12.75">
       <c r="A734" s="13"/>
       <c r="B734" s="6"/>
-      <c r="C734" s="6"/>
+      <c r="C734" s="13"/>
       <c r="D734" s="6"/>
       <c r="E734" s="13"/>
       <c r="F734" s="10"/>
@@ -26433,7 +26436,7 @@
     <row x14ac:dyDescent="0.25" r="735" customHeight="1" ht="12.75">
       <c r="A735" s="13"/>
       <c r="B735" s="6"/>
-      <c r="C735" s="6"/>
+      <c r="C735" s="13"/>
       <c r="D735" s="6"/>
       <c r="E735" s="13"/>
       <c r="F735" s="10"/>
@@ -26464,7 +26467,7 @@
     <row x14ac:dyDescent="0.25" r="736" customHeight="1" ht="12.75">
       <c r="A736" s="13"/>
       <c r="B736" s="6"/>
-      <c r="C736" s="6"/>
+      <c r="C736" s="13"/>
       <c r="D736" s="6"/>
       <c r="E736" s="13"/>
       <c r="F736" s="10"/>
@@ -26495,7 +26498,7 @@
     <row x14ac:dyDescent="0.25" r="737" customHeight="1" ht="12.75">
       <c r="A737" s="13"/>
       <c r="B737" s="6"/>
-      <c r="C737" s="6"/>
+      <c r="C737" s="13"/>
       <c r="D737" s="6"/>
       <c r="E737" s="13"/>
       <c r="F737" s="10"/>
@@ -26526,7 +26529,7 @@
     <row x14ac:dyDescent="0.25" r="738" customHeight="1" ht="12.75">
       <c r="A738" s="13"/>
       <c r="B738" s="6"/>
-      <c r="C738" s="6"/>
+      <c r="C738" s="13"/>
       <c r="D738" s="6"/>
       <c r="E738" s="13"/>
       <c r="F738" s="10"/>
@@ -26557,7 +26560,7 @@
     <row x14ac:dyDescent="0.25" r="739" customHeight="1" ht="12.75">
       <c r="A739" s="13"/>
       <c r="B739" s="6"/>
-      <c r="C739" s="6"/>
+      <c r="C739" s="13"/>
       <c r="D739" s="6"/>
       <c r="E739" s="13"/>
       <c r="F739" s="10"/>
@@ -26588,7 +26591,7 @@
     <row x14ac:dyDescent="0.25" r="740" customHeight="1" ht="12.75">
       <c r="A740" s="13"/>
       <c r="B740" s="6"/>
-      <c r="C740" s="6"/>
+      <c r="C740" s="13"/>
       <c r="D740" s="6"/>
       <c r="E740" s="13"/>
       <c r="F740" s="10"/>
@@ -26619,7 +26622,7 @@
     <row x14ac:dyDescent="0.25" r="741" customHeight="1" ht="12.75">
       <c r="A741" s="13"/>
       <c r="B741" s="6"/>
-      <c r="C741" s="6"/>
+      <c r="C741" s="13"/>
       <c r="D741" s="6"/>
       <c r="E741" s="13"/>
       <c r="F741" s="10"/>
@@ -26650,7 +26653,7 @@
     <row x14ac:dyDescent="0.25" r="742" customHeight="1" ht="12.75">
       <c r="A742" s="13"/>
       <c r="B742" s="6"/>
-      <c r="C742" s="6"/>
+      <c r="C742" s="13"/>
       <c r="D742" s="6"/>
       <c r="E742" s="13"/>
       <c r="F742" s="10"/>
@@ -26681,7 +26684,7 @@
     <row x14ac:dyDescent="0.25" r="743" customHeight="1" ht="12.75">
       <c r="A743" s="13"/>
       <c r="B743" s="6"/>
-      <c r="C743" s="6"/>
+      <c r="C743" s="13"/>
       <c r="D743" s="6"/>
       <c r="E743" s="13"/>
       <c r="F743" s="10"/>
@@ -26712,7 +26715,7 @@
     <row x14ac:dyDescent="0.25" r="744" customHeight="1" ht="12.75">
       <c r="A744" s="13"/>
       <c r="B744" s="6"/>
-      <c r="C744" s="6"/>
+      <c r="C744" s="13"/>
       <c r="D744" s="6"/>
       <c r="E744" s="13"/>
       <c r="F744" s="10"/>
@@ -26743,7 +26746,7 @@
     <row x14ac:dyDescent="0.25" r="745" customHeight="1" ht="12.75">
       <c r="A745" s="13"/>
       <c r="B745" s="6"/>
-      <c r="C745" s="6"/>
+      <c r="C745" s="13"/>
       <c r="D745" s="6"/>
       <c r="E745" s="13"/>
       <c r="F745" s="10"/>
@@ -26774,7 +26777,7 @@
     <row x14ac:dyDescent="0.25" r="746" customHeight="1" ht="12.75">
       <c r="A746" s="13"/>
       <c r="B746" s="6"/>
-      <c r="C746" s="6"/>
+      <c r="C746" s="13"/>
       <c r="D746" s="6"/>
       <c r="E746" s="13"/>
       <c r="F746" s="10"/>
@@ -26805,7 +26808,7 @@
     <row x14ac:dyDescent="0.25" r="747" customHeight="1" ht="12.75">
       <c r="A747" s="13"/>
       <c r="B747" s="6"/>
-      <c r="C747" s="6"/>
+      <c r="C747" s="13"/>
       <c r="D747" s="6"/>
       <c r="E747" s="13"/>
       <c r="F747" s="10"/>
@@ -26836,7 +26839,7 @@
     <row x14ac:dyDescent="0.25" r="748" customHeight="1" ht="12.75">
       <c r="A748" s="13"/>
       <c r="B748" s="6"/>
-      <c r="C748" s="6"/>
+      <c r="C748" s="13"/>
       <c r="D748" s="6"/>
       <c r="E748" s="13"/>
       <c r="F748" s="10"/>
@@ -26867,7 +26870,7 @@
     <row x14ac:dyDescent="0.25" r="749" customHeight="1" ht="12.75">
       <c r="A749" s="13"/>
       <c r="B749" s="6"/>
-      <c r="C749" s="6"/>
+      <c r="C749" s="13"/>
       <c r="D749" s="6"/>
       <c r="E749" s="13"/>
       <c r="F749" s="10"/>
@@ -26898,7 +26901,7 @@
     <row x14ac:dyDescent="0.25" r="750" customHeight="1" ht="12.75">
       <c r="A750" s="13"/>
       <c r="B750" s="6"/>
-      <c r="C750" s="6"/>
+      <c r="C750" s="13"/>
       <c r="D750" s="6"/>
       <c r="E750" s="13"/>
       <c r="F750" s="10"/>
@@ -26929,7 +26932,7 @@
     <row x14ac:dyDescent="0.25" r="751" customHeight="1" ht="12.75">
       <c r="A751" s="13"/>
       <c r="B751" s="6"/>
-      <c r="C751" s="6"/>
+      <c r="C751" s="13"/>
       <c r="D751" s="6"/>
       <c r="E751" s="13"/>
       <c r="F751" s="10"/>
@@ -26960,7 +26963,7 @@
     <row x14ac:dyDescent="0.25" r="752" customHeight="1" ht="12.75">
       <c r="A752" s="13"/>
       <c r="B752" s="6"/>
-      <c r="C752" s="6"/>
+      <c r="C752" s="13"/>
       <c r="D752" s="6"/>
       <c r="E752" s="13"/>
       <c r="F752" s="10"/>
@@ -26991,7 +26994,7 @@
     <row x14ac:dyDescent="0.25" r="753" customHeight="1" ht="12.75">
       <c r="A753" s="13"/>
       <c r="B753" s="6"/>
-      <c r="C753" s="6"/>
+      <c r="C753" s="13"/>
       <c r="D753" s="6"/>
       <c r="E753" s="13"/>
       <c r="F753" s="10"/>
@@ -27022,7 +27025,7 @@
     <row x14ac:dyDescent="0.25" r="754" customHeight="1" ht="12.75">
       <c r="A754" s="13"/>
       <c r="B754" s="6"/>
-      <c r="C754" s="6"/>
+      <c r="C754" s="13"/>
       <c r="D754" s="6"/>
       <c r="E754" s="13"/>
       <c r="F754" s="10"/>
@@ -27053,7 +27056,7 @@
     <row x14ac:dyDescent="0.25" r="755" customHeight="1" ht="12.75">
       <c r="A755" s="13"/>
       <c r="B755" s="6"/>
-      <c r="C755" s="6"/>
+      <c r="C755" s="13"/>
       <c r="D755" s="6"/>
       <c r="E755" s="13"/>
       <c r="F755" s="10"/>
@@ -27084,7 +27087,7 @@
     <row x14ac:dyDescent="0.25" r="756" customHeight="1" ht="12.75">
       <c r="A756" s="13"/>
       <c r="B756" s="6"/>
-      <c r="C756" s="6"/>
+      <c r="C756" s="13"/>
       <c r="D756" s="6"/>
       <c r="E756" s="13"/>
       <c r="F756" s="10"/>
@@ -27115,7 +27118,7 @@
     <row x14ac:dyDescent="0.25" r="757" customHeight="1" ht="12.75">
       <c r="A757" s="13"/>
       <c r="B757" s="6"/>
-      <c r="C757" s="6"/>
+      <c r="C757" s="13"/>
       <c r="D757" s="6"/>
       <c r="E757" s="13"/>
       <c r="F757" s="10"/>
@@ -27146,7 +27149,7 @@
     <row x14ac:dyDescent="0.25" r="758" customHeight="1" ht="12.75">
       <c r="A758" s="13"/>
       <c r="B758" s="6"/>
-      <c r="C758" s="6"/>
+      <c r="C758" s="13"/>
       <c r="D758" s="6"/>
       <c r="E758" s="13"/>
       <c r="F758" s="10"/>
@@ -27177,7 +27180,7 @@
     <row x14ac:dyDescent="0.25" r="759" customHeight="1" ht="12.75">
       <c r="A759" s="13"/>
       <c r="B759" s="6"/>
-      <c r="C759" s="6"/>
+      <c r="C759" s="13"/>
       <c r="D759" s="6"/>
       <c r="E759" s="13"/>
       <c r="F759" s="10"/>
@@ -27208,7 +27211,7 @@
     <row x14ac:dyDescent="0.25" r="760" customHeight="1" ht="12.75">
       <c r="A760" s="13"/>
       <c r="B760" s="6"/>
-      <c r="C760" s="6"/>
+      <c r="C760" s="13"/>
       <c r="D760" s="6"/>
       <c r="E760" s="13"/>
       <c r="F760" s="10"/>
@@ -27239,7 +27242,7 @@
     <row x14ac:dyDescent="0.25" r="761" customHeight="1" ht="12.75">
       <c r="A761" s="13"/>
       <c r="B761" s="6"/>
-      <c r="C761" s="6"/>
+      <c r="C761" s="13"/>
       <c r="D761" s="6"/>
       <c r="E761" s="13"/>
       <c r="F761" s="10"/>
@@ -27270,7 +27273,7 @@
     <row x14ac:dyDescent="0.25" r="762" customHeight="1" ht="12.75">
       <c r="A762" s="13"/>
       <c r="B762" s="6"/>
-      <c r="C762" s="6"/>
+      <c r="C762" s="13"/>
       <c r="D762" s="6"/>
       <c r="E762" s="13"/>
       <c r="F762" s="10"/>
@@ -27301,7 +27304,7 @@
     <row x14ac:dyDescent="0.25" r="763" customHeight="1" ht="12.75">
       <c r="A763" s="13"/>
       <c r="B763" s="6"/>
-      <c r="C763" s="6"/>
+      <c r="C763" s="13"/>
       <c r="D763" s="6"/>
       <c r="E763" s="13"/>
       <c r="F763" s="10"/>
@@ -27332,7 +27335,7 @@
     <row x14ac:dyDescent="0.25" r="764" customHeight="1" ht="12.75">
       <c r="A764" s="13"/>
       <c r="B764" s="6"/>
-      <c r="C764" s="6"/>
+      <c r="C764" s="13"/>
       <c r="D764" s="6"/>
       <c r="E764" s="13"/>
       <c r="F764" s="10"/>
@@ -27363,7 +27366,7 @@
     <row x14ac:dyDescent="0.25" r="765" customHeight="1" ht="12.75">
       <c r="A765" s="13"/>
       <c r="B765" s="6"/>
-      <c r="C765" s="6"/>
+      <c r="C765" s="13"/>
       <c r="D765" s="6"/>
       <c r="E765" s="13"/>
       <c r="F765" s="10"/>
@@ -27394,7 +27397,7 @@
     <row x14ac:dyDescent="0.25" r="766" customHeight="1" ht="12.75">
       <c r="A766" s="13"/>
       <c r="B766" s="6"/>
-      <c r="C766" s="6"/>
+      <c r="C766" s="13"/>
       <c r="D766" s="6"/>
       <c r="E766" s="13"/>
       <c r="F766" s="10"/>
@@ -27425,7 +27428,7 @@
     <row x14ac:dyDescent="0.25" r="767" customHeight="1" ht="12.75">
       <c r="A767" s="13"/>
       <c r="B767" s="6"/>
-      <c r="C767" s="6"/>
+      <c r="C767" s="13"/>
       <c r="D767" s="6"/>
       <c r="E767" s="13"/>
       <c r="F767" s="10"/>
@@ -27456,7 +27459,7 @@
     <row x14ac:dyDescent="0.25" r="768" customHeight="1" ht="12.75">
       <c r="A768" s="13"/>
       <c r="B768" s="6"/>
-      <c r="C768" s="6"/>
+      <c r="C768" s="13"/>
       <c r="D768" s="6"/>
       <c r="E768" s="13"/>
       <c r="F768" s="10"/>
@@ -27487,7 +27490,7 @@
     <row x14ac:dyDescent="0.25" r="769" customHeight="1" ht="12.75">
       <c r="A769" s="13"/>
       <c r="B769" s="6"/>
-      <c r="C769" s="6"/>
+      <c r="C769" s="13"/>
       <c r="D769" s="6"/>
       <c r="E769" s="13"/>
       <c r="F769" s="10"/>
@@ -27518,7 +27521,7 @@
     <row x14ac:dyDescent="0.25" r="770" customHeight="1" ht="12.75">
       <c r="A770" s="13"/>
       <c r="B770" s="6"/>
-      <c r="C770" s="6"/>
+      <c r="C770" s="13"/>
       <c r="D770" s="6"/>
       <c r="E770" s="13"/>
       <c r="F770" s="10"/>
@@ -27549,7 +27552,7 @@
     <row x14ac:dyDescent="0.25" r="771" customHeight="1" ht="12.75">
       <c r="A771" s="13"/>
       <c r="B771" s="6"/>
-      <c r="C771" s="6"/>
+      <c r="C771" s="13"/>
       <c r="D771" s="6"/>
       <c r="E771" s="13"/>
       <c r="F771" s="10"/>
@@ -27580,7 +27583,7 @@
     <row x14ac:dyDescent="0.25" r="772" customHeight="1" ht="12.75">
       <c r="A772" s="13"/>
       <c r="B772" s="6"/>
-      <c r="C772" s="6"/>
+      <c r="C772" s="13"/>
       <c r="D772" s="6"/>
       <c r="E772" s="13"/>
       <c r="F772" s="10"/>
@@ -27611,7 +27614,7 @@
     <row x14ac:dyDescent="0.25" r="773" customHeight="1" ht="12.75">
       <c r="A773" s="13"/>
       <c r="B773" s="6"/>
-      <c r="C773" s="6"/>
+      <c r="C773" s="13"/>
       <c r="D773" s="6"/>
       <c r="E773" s="13"/>
       <c r="F773" s="10"/>
@@ -27642,7 +27645,7 @@
     <row x14ac:dyDescent="0.25" r="774" customHeight="1" ht="12.75">
       <c r="A774" s="13"/>
       <c r="B774" s="6"/>
-      <c r="C774" s="6"/>
+      <c r="C774" s="13"/>
       <c r="D774" s="6"/>
       <c r="E774" s="13"/>
       <c r="F774" s="10"/>
@@ -27673,7 +27676,7 @@
     <row x14ac:dyDescent="0.25" r="775" customHeight="1" ht="12.75">
       <c r="A775" s="13"/>
       <c r="B775" s="6"/>
-      <c r="C775" s="6"/>
+      <c r="C775" s="13"/>
       <c r="D775" s="6"/>
       <c r="E775" s="13"/>
       <c r="F775" s="10"/>
@@ -27704,7 +27707,7 @@
     <row x14ac:dyDescent="0.25" r="776" customHeight="1" ht="12.75">
       <c r="A776" s="13"/>
       <c r="B776" s="6"/>
-      <c r="C776" s="6"/>
+      <c r="C776" s="13"/>
       <c r="D776" s="6"/>
       <c r="E776" s="13"/>
       <c r="F776" s="10"/>
@@ -27735,7 +27738,7 @@
     <row x14ac:dyDescent="0.25" r="777" customHeight="1" ht="12.75">
       <c r="A777" s="13"/>
       <c r="B777" s="6"/>
-      <c r="C777" s="6"/>
+      <c r="C777" s="13"/>
       <c r="D777" s="6"/>
       <c r="E777" s="13"/>
       <c r="F777" s="10"/>
@@ -27766,7 +27769,7 @@
     <row x14ac:dyDescent="0.25" r="778" customHeight="1" ht="12.75">
       <c r="A778" s="13"/>
       <c r="B778" s="6"/>
-      <c r="C778" s="6"/>
+      <c r="C778" s="13"/>
       <c r="D778" s="6"/>
       <c r="E778" s="13"/>
       <c r="F778" s="10"/>
@@ -27797,7 +27800,7 @@
     <row x14ac:dyDescent="0.25" r="779" customHeight="1" ht="12.75">
       <c r="A779" s="13"/>
       <c r="B779" s="6"/>
-      <c r="C779" s="6"/>
+      <c r="C779" s="13"/>
       <c r="D779" s="6"/>
       <c r="E779" s="13"/>
       <c r="F779" s="10"/>
@@ -27828,7 +27831,7 @@
     <row x14ac:dyDescent="0.25" r="780" customHeight="1" ht="12.75">
       <c r="A780" s="13"/>
       <c r="B780" s="6"/>
-      <c r="C780" s="6"/>
+      <c r="C780" s="13"/>
       <c r="D780" s="6"/>
       <c r="E780" s="13"/>
       <c r="F780" s="10"/>
@@ -27859,7 +27862,7 @@
     <row x14ac:dyDescent="0.25" r="781" customHeight="1" ht="12.75">
       <c r="A781" s="13"/>
       <c r="B781" s="6"/>
-      <c r="C781" s="6"/>
+      <c r="C781" s="13"/>
       <c r="D781" s="6"/>
       <c r="E781" s="13"/>
       <c r="F781" s="10"/>
@@ -27890,7 +27893,7 @@
     <row x14ac:dyDescent="0.25" r="782" customHeight="1" ht="12.75">
       <c r="A782" s="13"/>
       <c r="B782" s="6"/>
-      <c r="C782" s="6"/>
+      <c r="C782" s="13"/>
       <c r="D782" s="6"/>
       <c r="E782" s="13"/>
       <c r="F782" s="10"/>
@@ -27921,7 +27924,7 @@
     <row x14ac:dyDescent="0.25" r="783" customHeight="1" ht="12.75">
       <c r="A783" s="13"/>
       <c r="B783" s="6"/>
-      <c r="C783" s="6"/>
+      <c r="C783" s="13"/>
       <c r="D783" s="6"/>
       <c r="E783" s="13"/>
       <c r="F783" s="10"/>
@@ -27952,7 +27955,7 @@
     <row x14ac:dyDescent="0.25" r="784" customHeight="1" ht="12.75">
       <c r="A784" s="13"/>
       <c r="B784" s="6"/>
-      <c r="C784" s="6"/>
+      <c r="C784" s="13"/>
       <c r="D784" s="6"/>
       <c r="E784" s="13"/>
       <c r="F784" s="10"/>
@@ -27983,7 +27986,7 @@
     <row x14ac:dyDescent="0.25" r="785" customHeight="1" ht="12.75">
       <c r="A785" s="13"/>
       <c r="B785" s="6"/>
-      <c r="C785" s="6"/>
+      <c r="C785" s="13"/>
       <c r="D785" s="6"/>
       <c r="E785" s="13"/>
       <c r="F785" s="10"/>
@@ -28014,7 +28017,7 @@
     <row x14ac:dyDescent="0.25" r="786" customHeight="1" ht="12.75">
       <c r="A786" s="13"/>
       <c r="B786" s="6"/>
-      <c r="C786" s="6"/>
+      <c r="C786" s="13"/>
       <c r="D786" s="6"/>
       <c r="E786" s="13"/>
       <c r="F786" s="10"/>
@@ -28045,7 +28048,7 @@
     <row x14ac:dyDescent="0.25" r="787" customHeight="1" ht="12.75">
       <c r="A787" s="13"/>
       <c r="B787" s="6"/>
-      <c r="C787" s="6"/>
+      <c r="C787" s="13"/>
       <c r="D787" s="6"/>
       <c r="E787" s="13"/>
       <c r="F787" s="10"/>
@@ -28076,7 +28079,7 @@
     <row x14ac:dyDescent="0.25" r="788" customHeight="1" ht="12.75">
       <c r="A788" s="13"/>
       <c r="B788" s="6"/>
-      <c r="C788" s="6"/>
+      <c r="C788" s="13"/>
       <c r="D788" s="6"/>
       <c r="E788" s="13"/>
       <c r="F788" s="10"/>
@@ -28107,7 +28110,7 @@
     <row x14ac:dyDescent="0.25" r="789" customHeight="1" ht="12.75">
       <c r="A789" s="13"/>
       <c r="B789" s="6"/>
-      <c r="C789" s="6"/>
+      <c r="C789" s="13"/>
       <c r="D789" s="6"/>
       <c r="E789" s="13"/>
       <c r="F789" s="10"/>
@@ -28138,7 +28141,7 @@
     <row x14ac:dyDescent="0.25" r="790" customHeight="1" ht="12.75">
       <c r="A790" s="13"/>
       <c r="B790" s="6"/>
-      <c r="C790" s="6"/>
+      <c r="C790" s="13"/>
       <c r="D790" s="6"/>
       <c r="E790" s="13"/>
       <c r="F790" s="10"/>
@@ -28169,7 +28172,7 @@
     <row x14ac:dyDescent="0.25" r="791" customHeight="1" ht="12.75">
       <c r="A791" s="13"/>
       <c r="B791" s="6"/>
-      <c r="C791" s="6"/>
+      <c r="C791" s="13"/>
       <c r="D791" s="6"/>
       <c r="E791" s="13"/>
       <c r="F791" s="10"/>
@@ -28200,7 +28203,7 @@
     <row x14ac:dyDescent="0.25" r="792" customHeight="1" ht="12.75">
       <c r="A792" s="13"/>
       <c r="B792" s="6"/>
-      <c r="C792" s="6"/>
+      <c r="C792" s="13"/>
       <c r="D792" s="6"/>
       <c r="E792" s="13"/>
       <c r="F792" s="10"/>
@@ -28231,7 +28234,7 @@
     <row x14ac:dyDescent="0.25" r="793" customHeight="1" ht="12.75">
       <c r="A793" s="13"/>
       <c r="B793" s="6"/>
-      <c r="C793" s="6"/>
+      <c r="C793" s="13"/>
       <c r="D793" s="6"/>
       <c r="E793" s="13"/>
       <c r="F793" s="10"/>
@@ -28262,7 +28265,7 @@
     <row x14ac:dyDescent="0.25" r="794" customHeight="1" ht="12.75">
       <c r="A794" s="13"/>
       <c r="B794" s="6"/>
-      <c r="C794" s="6"/>
+      <c r="C794" s="13"/>
       <c r="D794" s="6"/>
       <c r="E794" s="13"/>
       <c r="F794" s="10"/>
@@ -28293,7 +28296,7 @@
     <row x14ac:dyDescent="0.25" r="795" customHeight="1" ht="12.75">
       <c r="A795" s="13"/>
       <c r="B795" s="6"/>
-      <c r="C795" s="6"/>
+      <c r="C795" s="13"/>
       <c r="D795" s="6"/>
       <c r="E795" s="13"/>
       <c r="F795" s="10"/>
@@ -28324,7 +28327,7 @@
     <row x14ac:dyDescent="0.25" r="796" customHeight="1" ht="12.75">
       <c r="A796" s="13"/>
       <c r="B796" s="6"/>
-      <c r="C796" s="6"/>
+      <c r="C796" s="13"/>
       <c r="D796" s="6"/>
       <c r="E796" s="13"/>
       <c r="F796" s="10"/>
@@ -28355,7 +28358,7 @@
     <row x14ac:dyDescent="0.25" r="797" customHeight="1" ht="12.75">
       <c r="A797" s="13"/>
       <c r="B797" s="6"/>
-      <c r="C797" s="6"/>
+      <c r="C797" s="13"/>
       <c r="D797" s="6"/>
       <c r="E797" s="13"/>
       <c r="F797" s="10"/>
@@ -28386,7 +28389,7 @@
     <row x14ac:dyDescent="0.25" r="798" customHeight="1" ht="12.75">
       <c r="A798" s="13"/>
       <c r="B798" s="6"/>
-      <c r="C798" s="6"/>
+      <c r="C798" s="13"/>
       <c r="D798" s="6"/>
       <c r="E798" s="13"/>
       <c r="F798" s="10"/>
@@ -28417,7 +28420,7 @@
     <row x14ac:dyDescent="0.25" r="799" customHeight="1" ht="12.75">
       <c r="A799" s="13"/>
       <c r="B799" s="6"/>
-      <c r="C799" s="6"/>
+      <c r="C799" s="13"/>
       <c r="D799" s="6"/>
       <c r="E799" s="13"/>
       <c r="F799" s="10"/>
@@ -28448,7 +28451,7 @@
     <row x14ac:dyDescent="0.25" r="800" customHeight="1" ht="12.75">
       <c r="A800" s="13"/>
       <c r="B800" s="6"/>
-      <c r="C800" s="6"/>
+      <c r="C800" s="13"/>
       <c r="D800" s="6"/>
       <c r="E800" s="13"/>
       <c r="F800" s="10"/>
@@ -28479,7 +28482,7 @@
     <row x14ac:dyDescent="0.25" r="801" customHeight="1" ht="12.75">
       <c r="A801" s="13"/>
       <c r="B801" s="6"/>
-      <c r="C801" s="6"/>
+      <c r="C801" s="13"/>
       <c r="D801" s="6"/>
       <c r="E801" s="13"/>
       <c r="F801" s="10"/>
@@ -28510,7 +28513,7 @@
     <row x14ac:dyDescent="0.25" r="802" customHeight="1" ht="12.75">
       <c r="A802" s="13"/>
       <c r="B802" s="6"/>
-      <c r="C802" s="6"/>
+      <c r="C802" s="13"/>
       <c r="D802" s="6"/>
       <c r="E802" s="13"/>
       <c r="F802" s="10"/>
@@ -28541,7 +28544,7 @@
     <row x14ac:dyDescent="0.25" r="803" customHeight="1" ht="12.75">
       <c r="A803" s="13"/>
       <c r="B803" s="6"/>
-      <c r="C803" s="6"/>
+      <c r="C803" s="13"/>
       <c r="D803" s="6"/>
       <c r="E803" s="13"/>
       <c r="F803" s="10"/>
@@ -28572,7 +28575,7 @@
     <row x14ac:dyDescent="0.25" r="804" customHeight="1" ht="12.75">
       <c r="A804" s="13"/>
       <c r="B804" s="6"/>
-      <c r="C804" s="6"/>
+      <c r="C804" s="13"/>
       <c r="D804" s="6"/>
       <c r="E804" s="13"/>
       <c r="F804" s="10"/>
@@ -28603,7 +28606,7 @@
     <row x14ac:dyDescent="0.25" r="805" customHeight="1" ht="12.75">
       <c r="A805" s="13"/>
       <c r="B805" s="6"/>
-      <c r="C805" s="6"/>
+      <c r="C805" s="13"/>
       <c r="D805" s="6"/>
       <c r="E805" s="13"/>
       <c r="F805" s="10"/>
@@ -28634,7 +28637,7 @@
     <row x14ac:dyDescent="0.25" r="806" customHeight="1" ht="12.75">
       <c r="A806" s="13"/>
       <c r="B806" s="6"/>
-      <c r="C806" s="6"/>
+      <c r="C806" s="13"/>
       <c r="D806" s="6"/>
       <c r="E806" s="13"/>
       <c r="F806" s="10"/>
@@ -28665,7 +28668,7 @@
     <row x14ac:dyDescent="0.25" r="807" customHeight="1" ht="12.75">
       <c r="A807" s="13"/>
       <c r="B807" s="6"/>
-      <c r="C807" s="6"/>
+      <c r="C807" s="13"/>
       <c r="D807" s="6"/>
       <c r="E807" s="13"/>
       <c r="F807" s="10"/>
@@ -28696,7 +28699,7 @@
     <row x14ac:dyDescent="0.25" r="808" customHeight="1" ht="12.75">
       <c r="A808" s="13"/>
       <c r="B808" s="6"/>
-      <c r="C808" s="6"/>
+      <c r="C808" s="13"/>
       <c r="D808" s="6"/>
       <c r="E808" s="13"/>
       <c r="F808" s="10"/>
@@ -28727,7 +28730,7 @@
     <row x14ac:dyDescent="0.25" r="809" customHeight="1" ht="12.75">
       <c r="A809" s="13"/>
       <c r="B809" s="6"/>
-      <c r="C809" s="6"/>
+      <c r="C809" s="13"/>
       <c r="D809" s="6"/>
       <c r="E809" s="13"/>
       <c r="F809" s="10"/>
@@ -28758,7 +28761,7 @@
     <row x14ac:dyDescent="0.25" r="810" customHeight="1" ht="12.75">
       <c r="A810" s="13"/>
       <c r="B810" s="6"/>
-      <c r="C810" s="6"/>
+      <c r="C810" s="13"/>
       <c r="D810" s="6"/>
       <c r="E810" s="13"/>
       <c r="F810" s="10"/>
@@ -28789,7 +28792,7 @@
     <row x14ac:dyDescent="0.25" r="811" customHeight="1" ht="12.75">
       <c r="A811" s="13"/>
       <c r="B811" s="6"/>
-      <c r="C811" s="6"/>
+      <c r="C811" s="13"/>
       <c r="D811" s="6"/>
       <c r="E811" s="13"/>
       <c r="F811" s="10"/>
@@ -28820,7 +28823,7 @@
     <row x14ac:dyDescent="0.25" r="812" customHeight="1" ht="12.75">
       <c r="A812" s="13"/>
       <c r="B812" s="6"/>
-      <c r="C812" s="6"/>
+      <c r="C812" s="13"/>
       <c r="D812" s="6"/>
       <c r="E812" s="13"/>
       <c r="F812" s="10"/>
@@ -28851,7 +28854,7 @@
     <row x14ac:dyDescent="0.25" r="813" customHeight="1" ht="12.75">
       <c r="A813" s="13"/>
       <c r="B813" s="6"/>
-      <c r="C813" s="6"/>
+      <c r="C813" s="13"/>
       <c r="D813" s="6"/>
       <c r="E813" s="13"/>
       <c r="F813" s="10"/>
@@ -28882,7 +28885,7 @@
     <row x14ac:dyDescent="0.25" r="814" customHeight="1" ht="12.75">
       <c r="A814" s="13"/>
       <c r="B814" s="6"/>
-      <c r="C814" s="6"/>
+      <c r="C814" s="13"/>
       <c r="D814" s="6"/>
       <c r="E814" s="13"/>
       <c r="F814" s="10"/>
@@ -28913,7 +28916,7 @@
     <row x14ac:dyDescent="0.25" r="815" customHeight="1" ht="12.75">
       <c r="A815" s="13"/>
       <c r="B815" s="6"/>
-      <c r="C815" s="6"/>
+      <c r="C815" s="13"/>
       <c r="D815" s="6"/>
       <c r="E815" s="13"/>
       <c r="F815" s="10"/>
@@ -28944,7 +28947,7 @@
     <row x14ac:dyDescent="0.25" r="816" customHeight="1" ht="12.75">
       <c r="A816" s="13"/>
       <c r="B816" s="6"/>
-      <c r="C816" s="6"/>
+      <c r="C816" s="13"/>
       <c r="D816" s="6"/>
       <c r="E816" s="13"/>
       <c r="F816" s="10"/>
@@ -28975,7 +28978,7 @@
     <row x14ac:dyDescent="0.25" r="817" customHeight="1" ht="12.75">
       <c r="A817" s="13"/>
       <c r="B817" s="6"/>
-      <c r="C817" s="6"/>
+      <c r="C817" s="13"/>
       <c r="D817" s="6"/>
       <c r="E817" s="13"/>
       <c r="F817" s="10"/>
@@ -29006,7 +29009,7 @@
     <row x14ac:dyDescent="0.25" r="818" customHeight="1" ht="12.75">
       <c r="A818" s="13"/>
       <c r="B818" s="6"/>
-      <c r="C818" s="6"/>
+      <c r="C818" s="13"/>
       <c r="D818" s="6"/>
       <c r="E818" s="13"/>
       <c r="F818" s="10"/>
@@ -29037,7 +29040,7 @@
     <row x14ac:dyDescent="0.25" r="819" customHeight="1" ht="12.75">
       <c r="A819" s="13"/>
       <c r="B819" s="6"/>
-      <c r="C819" s="6"/>
+      <c r="C819" s="13"/>
       <c r="D819" s="6"/>
       <c r="E819" s="13"/>
       <c r="F819" s="10"/>
@@ -29068,7 +29071,7 @@
     <row x14ac:dyDescent="0.25" r="820" customHeight="1" ht="12.75">
       <c r="A820" s="13"/>
       <c r="B820" s="6"/>
-      <c r="C820" s="6"/>
+      <c r="C820" s="13"/>
       <c r="D820" s="6"/>
       <c r="E820" s="13"/>
       <c r="F820" s="10"/>
@@ -29099,7 +29102,7 @@
     <row x14ac:dyDescent="0.25" r="821" customHeight="1" ht="12.75">
       <c r="A821" s="13"/>
       <c r="B821" s="6"/>
-      <c r="C821" s="6"/>
+      <c r="C821" s="13"/>
       <c r="D821" s="6"/>
       <c r="E821" s="13"/>
       <c r="F821" s="10"/>
@@ -29130,7 +29133,7 @@
     <row x14ac:dyDescent="0.25" r="822" customHeight="1" ht="12.75">
       <c r="A822" s="13"/>
       <c r="B822" s="6"/>
-      <c r="C822" s="6"/>
+      <c r="C822" s="13"/>
       <c r="D822" s="6"/>
       <c r="E822" s="13"/>
       <c r="F822" s="10"/>
@@ -29161,7 +29164,7 @@
     <row x14ac:dyDescent="0.25" r="823" customHeight="1" ht="12.75">
       <c r="A823" s="13"/>
       <c r="B823" s="6"/>
-      <c r="C823" s="6"/>
+      <c r="C823" s="13"/>
       <c r="D823" s="6"/>
       <c r="E823" s="13"/>
       <c r="F823" s="10"/>
@@ -29192,7 +29195,7 @@
     <row x14ac:dyDescent="0.25" r="824" customHeight="1" ht="12.75">
       <c r="A824" s="13"/>
       <c r="B824" s="6"/>
-      <c r="C824" s="6"/>
+      <c r="C824" s="13"/>
       <c r="D824" s="6"/>
       <c r="E824" s="13"/>
       <c r="F824" s="10"/>
@@ -29223,7 +29226,7 @@
     <row x14ac:dyDescent="0.25" r="825" customHeight="1" ht="12.75">
       <c r="A825" s="13"/>
       <c r="B825" s="6"/>
-      <c r="C825" s="6"/>
+      <c r="C825" s="13"/>
       <c r="D825" s="6"/>
       <c r="E825" s="13"/>
       <c r="F825" s="10"/>
@@ -29254,7 +29257,7 @@
     <row x14ac:dyDescent="0.25" r="826" customHeight="1" ht="12.75">
       <c r="A826" s="13"/>
       <c r="B826" s="6"/>
-      <c r="C826" s="6"/>
+      <c r="C826" s="13"/>
       <c r="D826" s="6"/>
       <c r="E826" s="13"/>
       <c r="F826" s="10"/>
@@ -29285,7 +29288,7 @@
     <row x14ac:dyDescent="0.25" r="827" customHeight="1" ht="12.75">
       <c r="A827" s="13"/>
       <c r="B827" s="6"/>
-      <c r="C827" s="6"/>
+      <c r="C827" s="13"/>
       <c r="D827" s="6"/>
       <c r="E827" s="13"/>
       <c r="F827" s="10"/>
@@ -29316,7 +29319,7 @@
     <row x14ac:dyDescent="0.25" r="828" customHeight="1" ht="12.75">
       <c r="A828" s="13"/>
       <c r="B828" s="6"/>
-      <c r="C828" s="6"/>
+      <c r="C828" s="13"/>
       <c r="D828" s="6"/>
       <c r="E828" s="13"/>
       <c r="F828" s="10"/>
@@ -29347,7 +29350,7 @@
     <row x14ac:dyDescent="0.25" r="829" customHeight="1" ht="12.75">
       <c r="A829" s="13"/>
       <c r="B829" s="6"/>
-      <c r="C829" s="6"/>
+      <c r="C829" s="13"/>
       <c r="D829" s="6"/>
       <c r="E829" s="13"/>
       <c r="F829" s="10"/>
@@ -29378,7 +29381,7 @@
     <row x14ac:dyDescent="0.25" r="830" customHeight="1" ht="12.75">
       <c r="A830" s="13"/>
       <c r="B830" s="6"/>
-      <c r="C830" s="6"/>
+      <c r="C830" s="13"/>
       <c r="D830" s="6"/>
       <c r="E830" s="13"/>
       <c r="F830" s="10"/>
@@ -29409,7 +29412,7 @@
     <row x14ac:dyDescent="0.25" r="831" customHeight="1" ht="12.75">
       <c r="A831" s="13"/>
       <c r="B831" s="6"/>
-      <c r="C831" s="6"/>
+      <c r="C831" s="13"/>
       <c r="D831" s="6"/>
       <c r="E831" s="13"/>
       <c r="F831" s="10"/>
@@ -29440,7 +29443,7 @@
     <row x14ac:dyDescent="0.25" r="832" customHeight="1" ht="12.75">
       <c r="A832" s="13"/>
       <c r="B832" s="6"/>
-      <c r="C832" s="6"/>
+      <c r="C832" s="13"/>
       <c r="D832" s="6"/>
       <c r="E832" s="13"/>
       <c r="F832" s="10"/>
@@ -29471,7 +29474,7 @@
     <row x14ac:dyDescent="0.25" r="833" customHeight="1" ht="12.75">
       <c r="A833" s="13"/>
       <c r="B833" s="6"/>
-      <c r="C833" s="6"/>
+      <c r="C833" s="13"/>
       <c r="D833" s="6"/>
       <c r="E833" s="13"/>
       <c r="F833" s="10"/>
@@ -29502,7 +29505,7 @@
     <row x14ac:dyDescent="0.25" r="834" customHeight="1" ht="12.75">
       <c r="A834" s="13"/>
       <c r="B834" s="6"/>
-      <c r="C834" s="6"/>
+      <c r="C834" s="13"/>
       <c r="D834" s="6"/>
       <c r="E834" s="13"/>
       <c r="F834" s="10"/>
@@ -29533,7 +29536,7 @@
     <row x14ac:dyDescent="0.25" r="835" customHeight="1" ht="12.75">
       <c r="A835" s="13"/>
       <c r="B835" s="6"/>
-      <c r="C835" s="6"/>
+      <c r="C835" s="13"/>
       <c r="D835" s="6"/>
       <c r="E835" s="13"/>
       <c r="F835" s="10"/>
@@ -29564,7 +29567,7 @@
     <row x14ac:dyDescent="0.25" r="836" customHeight="1" ht="12.75">
       <c r="A836" s="13"/>
       <c r="B836" s="6"/>
-      <c r="C836" s="6"/>
+      <c r="C836" s="13"/>
       <c r="D836" s="6"/>
       <c r="E836" s="13"/>
       <c r="F836" s="10"/>
@@ -29595,7 +29598,7 @@
     <row x14ac:dyDescent="0.25" r="837" customHeight="1" ht="12.75">
       <c r="A837" s="13"/>
       <c r="B837" s="6"/>
-      <c r="C837" s="6"/>
+      <c r="C837" s="13"/>
       <c r="D837" s="6"/>
       <c r="E837" s="13"/>
       <c r="F837" s="10"/>
@@ -29626,7 +29629,7 @@
     <row x14ac:dyDescent="0.25" r="838" customHeight="1" ht="12.75">
       <c r="A838" s="13"/>
       <c r="B838" s="6"/>
-      <c r="C838" s="6"/>
+      <c r="C838" s="13"/>
       <c r="D838" s="6"/>
       <c r="E838" s="13"/>
       <c r="F838" s="10"/>
@@ -29657,7 +29660,7 @@
     <row x14ac:dyDescent="0.25" r="839" customHeight="1" ht="12.75">
       <c r="A839" s="13"/>
       <c r="B839" s="6"/>
-      <c r="C839" s="6"/>
+      <c r="C839" s="13"/>
       <c r="D839" s="6"/>
       <c r="E839" s="13"/>
       <c r="F839" s="10"/>
@@ -29688,7 +29691,7 @@
     <row x14ac:dyDescent="0.25" r="840" customHeight="1" ht="12.75">
       <c r="A840" s="13"/>
       <c r="B840" s="6"/>
-      <c r="C840" s="6"/>
+      <c r="C840" s="13"/>
       <c r="D840" s="6"/>
       <c r="E840" s="13"/>
       <c r="F840" s="10"/>
@@ -29719,7 +29722,7 @@
     <row x14ac:dyDescent="0.25" r="841" customHeight="1" ht="12.75">
       <c r="A841" s="13"/>
       <c r="B841" s="6"/>
-      <c r="C841" s="6"/>
+      <c r="C841" s="13"/>
       <c r="D841" s="6"/>
       <c r="E841" s="13"/>
       <c r="F841" s="10"/>
@@ -29750,7 +29753,7 @@
     <row x14ac:dyDescent="0.25" r="842" customHeight="1" ht="12.75">
       <c r="A842" s="13"/>
       <c r="B842" s="6"/>
-      <c r="C842" s="6"/>
+      <c r="C842" s="13"/>
       <c r="D842" s="6"/>
       <c r="E842" s="13"/>
       <c r="F842" s="10"/>
@@ -29781,7 +29784,7 @@
     <row x14ac:dyDescent="0.25" r="843" customHeight="1" ht="12.75">
       <c r="A843" s="13"/>
       <c r="B843" s="6"/>
-      <c r="C843" s="6"/>
+      <c r="C843" s="13"/>
       <c r="D843" s="6"/>
       <c r="E843" s="13"/>
       <c r="F843" s="10"/>
@@ -29812,7 +29815,7 @@
     <row x14ac:dyDescent="0.25" r="844" customHeight="1" ht="12.75">
       <c r="A844" s="13"/>
       <c r="B844" s="6"/>
-      <c r="C844" s="6"/>
+      <c r="C844" s="13"/>
       <c r="D844" s="6"/>
       <c r="E844" s="13"/>
       <c r="F844" s="10"/>
@@ -29843,7 +29846,7 @@
     <row x14ac:dyDescent="0.25" r="845" customHeight="1" ht="12.75">
       <c r="A845" s="13"/>
       <c r="B845" s="6"/>
-      <c r="C845" s="6"/>
+      <c r="C845" s="13"/>
       <c r="D845" s="6"/>
       <c r="E845" s="13"/>
       <c r="F845" s="10"/>
@@ -29874,7 +29877,7 @@
     <row x14ac:dyDescent="0.25" r="846" customHeight="1" ht="12.75">
       <c r="A846" s="13"/>
       <c r="B846" s="6"/>
-      <c r="C846" s="6"/>
+      <c r="C846" s="13"/>
       <c r="D846" s="6"/>
       <c r="E846" s="13"/>
       <c r="F846" s="10"/>
@@ -29905,7 +29908,7 @@
     <row x14ac:dyDescent="0.25" r="847" customHeight="1" ht="12.75">
       <c r="A847" s="13"/>
       <c r="B847" s="6"/>
-      <c r="C847" s="6"/>
+      <c r="C847" s="13"/>
       <c r="D847" s="6"/>
       <c r="E847" s="13"/>
       <c r="F847" s="10"/>
@@ -29936,7 +29939,7 @@
     <row x14ac:dyDescent="0.25" r="848" customHeight="1" ht="12.75">
       <c r="A848" s="13"/>
       <c r="B848" s="6"/>
-      <c r="C848" s="6"/>
+      <c r="C848" s="13"/>
       <c r="D848" s="6"/>
       <c r="E848" s="13"/>
       <c r="F848" s="10"/>
@@ -29967,7 +29970,7 @@
     <row x14ac:dyDescent="0.25" r="849" customHeight="1" ht="12.75">
       <c r="A849" s="13"/>
       <c r="B849" s="6"/>
-      <c r="C849" s="6"/>
+      <c r="C849" s="13"/>
       <c r="D849" s="6"/>
       <c r="E849" s="13"/>
       <c r="F849" s="10"/>
@@ -29998,7 +30001,7 @@
     <row x14ac:dyDescent="0.25" r="850" customHeight="1" ht="12.75">
       <c r="A850" s="13"/>
       <c r="B850" s="6"/>
-      <c r="C850" s="6"/>
+      <c r="C850" s="13"/>
       <c r="D850" s="6"/>
       <c r="E850" s="13"/>
       <c r="F850" s="10"/>
@@ -30029,7 +30032,7 @@
     <row x14ac:dyDescent="0.25" r="851" customHeight="1" ht="12.75">
       <c r="A851" s="13"/>
       <c r="B851" s="6"/>
-      <c r="C851" s="6"/>
+      <c r="C851" s="13"/>
       <c r="D851" s="6"/>
       <c r="E851" s="13"/>
       <c r="F851" s="10"/>
@@ -30060,7 +30063,7 @@
     <row x14ac:dyDescent="0.25" r="852" customHeight="1" ht="12.75">
       <c r="A852" s="13"/>
       <c r="B852" s="6"/>
-      <c r="C852" s="6"/>
+      <c r="C852" s="13"/>
       <c r="D852" s="6"/>
       <c r="E852" s="13"/>
       <c r="F852" s="10"/>
@@ -30091,7 +30094,7 @@
     <row x14ac:dyDescent="0.25" r="853" customHeight="1" ht="12.75">
       <c r="A853" s="13"/>
       <c r="B853" s="6"/>
-      <c r="C853" s="6"/>
+      <c r="C853" s="13"/>
       <c r="D853" s="6"/>
       <c r="E853" s="13"/>
       <c r="F853" s="10"/>
@@ -30122,7 +30125,7 @@
     <row x14ac:dyDescent="0.25" r="854" customHeight="1" ht="12.75">
       <c r="A854" s="13"/>
       <c r="B854" s="6"/>
-      <c r="C854" s="6"/>
+      <c r="C854" s="13"/>
       <c r="D854" s="6"/>
       <c r="E854" s="13"/>
       <c r="F854" s="10"/>
@@ -30153,7 +30156,7 @@
     <row x14ac:dyDescent="0.25" r="855" customHeight="1" ht="12.75">
       <c r="A855" s="13"/>
       <c r="B855" s="6"/>
-      <c r="C855" s="6"/>
+      <c r="C855" s="13"/>
       <c r="D855" s="6"/>
       <c r="E855" s="13"/>
       <c r="F855" s="10"/>
@@ -30184,7 +30187,7 @@
     <row x14ac:dyDescent="0.25" r="856" customHeight="1" ht="12.75">
       <c r="A856" s="13"/>
       <c r="B856" s="6"/>
-      <c r="C856" s="6"/>
+      <c r="C856" s="13"/>
       <c r="D856" s="6"/>
       <c r="E856" s="13"/>
       <c r="F856" s="10"/>
@@ -30215,7 +30218,7 @@
     <row x14ac:dyDescent="0.25" r="857" customHeight="1" ht="12.75">
       <c r="A857" s="13"/>
       <c r="B857" s="6"/>
-      <c r="C857" s="6"/>
+      <c r="C857" s="13"/>
       <c r="D857" s="6"/>
       <c r="E857" s="13"/>
       <c r="F857" s="10"/>
@@ -30246,7 +30249,7 @@
     <row x14ac:dyDescent="0.25" r="858" customHeight="1" ht="12.75">
       <c r="A858" s="13"/>
       <c r="B858" s="6"/>
-      <c r="C858" s="6"/>
+      <c r="C858" s="13"/>
       <c r="D858" s="6"/>
       <c r="E858" s="13"/>
       <c r="F858" s="10"/>
@@ -30277,7 +30280,7 @@
     <row x14ac:dyDescent="0.25" r="859" customHeight="1" ht="12.75">
       <c r="A859" s="13"/>
       <c r="B859" s="6"/>
-      <c r="C859" s="6"/>
+      <c r="C859" s="13"/>
       <c r="D859" s="6"/>
       <c r="E859" s="13"/>
       <c r="F859" s="10"/>
@@ -30308,7 +30311,7 @@
     <row x14ac:dyDescent="0.25" r="860" customHeight="1" ht="12.75">
       <c r="A860" s="13"/>
       <c r="B860" s="6"/>
-      <c r="C860" s="6"/>
+      <c r="C860" s="13"/>
       <c r="D860" s="6"/>
       <c r="E860" s="13"/>
       <c r="F860" s="10"/>
@@ -30339,7 +30342,7 @@
     <row x14ac:dyDescent="0.25" r="861" customHeight="1" ht="12.75">
       <c r="A861" s="13"/>
       <c r="B861" s="6"/>
-      <c r="C861" s="6"/>
+      <c r="C861" s="13"/>
       <c r="D861" s="6"/>
       <c r="E861" s="13"/>
       <c r="F861" s="10"/>
@@ -30370,7 +30373,7 @@
     <row x14ac:dyDescent="0.25" r="862" customHeight="1" ht="12.75">
       <c r="A862" s="13"/>
       <c r="B862" s="6"/>
-      <c r="C862" s="6"/>
+      <c r="C862" s="13"/>
       <c r="D862" s="6"/>
       <c r="E862" s="13"/>
       <c r="F862" s="10"/>
@@ -30401,7 +30404,7 @@
     <row x14ac:dyDescent="0.25" r="863" customHeight="1" ht="12.75">
       <c r="A863" s="13"/>
       <c r="B863" s="6"/>
-      <c r="C863" s="6"/>
+      <c r="C863" s="13"/>
       <c r="D863" s="6"/>
       <c r="E863" s="13"/>
       <c r="F863" s="10"/>
@@ -30432,7 +30435,7 @@
     <row x14ac:dyDescent="0.25" r="864" customHeight="1" ht="12.75">
       <c r="A864" s="13"/>
       <c r="B864" s="6"/>
-      <c r="C864" s="6"/>
+      <c r="C864" s="13"/>
       <c r="D864" s="6"/>
       <c r="E864" s="13"/>
       <c r="F864" s="10"/>
@@ -30463,7 +30466,7 @@
     <row x14ac:dyDescent="0.25" r="865" customHeight="1" ht="12.75">
       <c r="A865" s="13"/>
       <c r="B865" s="6"/>
-      <c r="C865" s="6"/>
+      <c r="C865" s="13"/>
       <c r="D865" s="6"/>
       <c r="E865" s="13"/>
       <c r="F865" s="10"/>
@@ -30494,7 +30497,7 @@
     <row x14ac:dyDescent="0.25" r="866" customHeight="1" ht="12.75">
       <c r="A866" s="13"/>
       <c r="B866" s="6"/>
-      <c r="C866" s="6"/>
+      <c r="C866" s="13"/>
       <c r="D866" s="6"/>
       <c r="E866" s="13"/>
       <c r="F866" s="10"/>
@@ -30525,7 +30528,7 @@
     <row x14ac:dyDescent="0.25" r="867" customHeight="1" ht="12.75">
       <c r="A867" s="13"/>
       <c r="B867" s="6"/>
-      <c r="C867" s="6"/>
+      <c r="C867" s="13"/>
       <c r="D867" s="6"/>
       <c r="E867" s="13"/>
       <c r="F867" s="10"/>
@@ -30556,7 +30559,7 @@
     <row x14ac:dyDescent="0.25" r="868" customHeight="1" ht="12.75">
       <c r="A868" s="13"/>
       <c r="B868" s="6"/>
-      <c r="C868" s="6"/>
+      <c r="C868" s="13"/>
       <c r="D868" s="6"/>
       <c r="E868" s="13"/>
       <c r="F868" s="10"/>
@@ -30587,7 +30590,7 @@
     <row x14ac:dyDescent="0.25" r="869" customHeight="1" ht="12.75">
       <c r="A869" s="13"/>
       <c r="B869" s="6"/>
-      <c r="C869" s="6"/>
+      <c r="C869" s="13"/>
       <c r="D869" s="6"/>
       <c r="E869" s="13"/>
       <c r="F869" s="10"/>
@@ -30618,7 +30621,7 @@
     <row x14ac:dyDescent="0.25" r="870" customHeight="1" ht="12.75">
       <c r="A870" s="13"/>
       <c r="B870" s="6"/>
-      <c r="C870" s="6"/>
+      <c r="C870" s="13"/>
       <c r="D870" s="6"/>
       <c r="E870" s="13"/>
       <c r="F870" s="10"/>
@@ -30649,7 +30652,7 @@
     <row x14ac:dyDescent="0.25" r="871" customHeight="1" ht="12.75">
       <c r="A871" s="13"/>
       <c r="B871" s="6"/>
-      <c r="C871" s="6"/>
+      <c r="C871" s="13"/>
       <c r="D871" s="6"/>
       <c r="E871" s="13"/>
       <c r="F871" s="10"/>
@@ -30680,7 +30683,7 @@
     <row x14ac:dyDescent="0.25" r="872" customHeight="1" ht="12.75">
       <c r="A872" s="13"/>
       <c r="B872" s="6"/>
-      <c r="C872" s="6"/>
+      <c r="C872" s="13"/>
       <c r="D872" s="6"/>
       <c r="E872" s="13"/>
       <c r="F872" s="10"/>
@@ -30711,7 +30714,7 @@
     <row x14ac:dyDescent="0.25" r="873" customHeight="1" ht="12.75">
       <c r="A873" s="13"/>
       <c r="B873" s="6"/>
-      <c r="C873" s="6"/>
+      <c r="C873" s="13"/>
       <c r="D873" s="6"/>
       <c r="E873" s="13"/>
       <c r="F873" s="10"/>
@@ -30742,7 +30745,7 @@
     <row x14ac:dyDescent="0.25" r="874" customHeight="1" ht="12.75">
       <c r="A874" s="13"/>
       <c r="B874" s="6"/>
-      <c r="C874" s="6"/>
+      <c r="C874" s="13"/>
       <c r="D874" s="6"/>
       <c r="E874" s="13"/>
       <c r="F874" s="10"/>
@@ -30773,7 +30776,7 @@
     <row x14ac:dyDescent="0.25" r="875" customHeight="1" ht="12.75">
       <c r="A875" s="13"/>
       <c r="B875" s="6"/>
-      <c r="C875" s="6"/>
+      <c r="C875" s="13"/>
       <c r="D875" s="6"/>
       <c r="E875" s="13"/>
       <c r="F875" s="10"/>
@@ -30804,7 +30807,7 @@
     <row x14ac:dyDescent="0.25" r="876" customHeight="1" ht="12.75">
       <c r="A876" s="13"/>
       <c r="B876" s="6"/>
-      <c r="C876" s="6"/>
+      <c r="C876" s="13"/>
       <c r="D876" s="6"/>
       <c r="E876" s="13"/>
       <c r="F876" s="10"/>
@@ -30835,7 +30838,7 @@
     <row x14ac:dyDescent="0.25" r="877" customHeight="1" ht="12.75">
       <c r="A877" s="13"/>
       <c r="B877" s="6"/>
-      <c r="C877" s="6"/>
+      <c r="C877" s="13"/>
       <c r="D877" s="6"/>
       <c r="E877" s="13"/>
       <c r="F877" s="10"/>
@@ -30866,7 +30869,7 @@
     <row x14ac:dyDescent="0.25" r="878" customHeight="1" ht="12.75">
       <c r="A878" s="13"/>
       <c r="B878" s="6"/>
-      <c r="C878" s="6"/>
+      <c r="C878" s="13"/>
       <c r="D878" s="6"/>
       <c r="E878" s="13"/>
       <c r="F878" s="10"/>
@@ -30897,7 +30900,7 @@
     <row x14ac:dyDescent="0.25" r="879" customHeight="1" ht="12.75">
       <c r="A879" s="13"/>
       <c r="B879" s="6"/>
-      <c r="C879" s="6"/>
+      <c r="C879" s="13"/>
       <c r="D879" s="6"/>
       <c r="E879" s="13"/>
       <c r="F879" s="10"/>
@@ -30928,7 +30931,7 @@
     <row x14ac:dyDescent="0.25" r="880" customHeight="1" ht="12.75">
       <c r="A880" s="13"/>
       <c r="B880" s="6"/>
-      <c r="C880" s="6"/>
+      <c r="C880" s="13"/>
       <c r="D880" s="6"/>
       <c r="E880" s="13"/>
       <c r="F880" s="10"/>
@@ -30959,7 +30962,7 @@
     <row x14ac:dyDescent="0.25" r="881" customHeight="1" ht="12.75">
       <c r="A881" s="13"/>
       <c r="B881" s="6"/>
-      <c r="C881" s="6"/>
+      <c r="C881" s="13"/>
       <c r="D881" s="6"/>
       <c r="E881" s="13"/>
       <c r="F881" s="10"/>
@@ -30990,7 +30993,7 @@
     <row x14ac:dyDescent="0.25" r="882" customHeight="1" ht="12.75">
       <c r="A882" s="13"/>
       <c r="B882" s="6"/>
-      <c r="C882" s="6"/>
+      <c r="C882" s="13"/>
       <c r="D882" s="6"/>
       <c r="E882" s="13"/>
       <c r="F882" s="10"/>
@@ -31021,7 +31024,7 @@
     <row x14ac:dyDescent="0.25" r="883" customHeight="1" ht="12.75">
       <c r="A883" s="13"/>
       <c r="B883" s="6"/>
-      <c r="C883" s="6"/>
+      <c r="C883" s="13"/>
       <c r="D883" s="6"/>
       <c r="E883" s="13"/>
       <c r="F883" s="10"/>
@@ -31052,7 +31055,7 @@
     <row x14ac:dyDescent="0.25" r="884" customHeight="1" ht="12.75">
       <c r="A884" s="13"/>
       <c r="B884" s="6"/>
-      <c r="C884" s="6"/>
+      <c r="C884" s="13"/>
       <c r="D884" s="6"/>
       <c r="E884" s="13"/>
       <c r="F884" s="10"/>
@@ -31083,7 +31086,7 @@
     <row x14ac:dyDescent="0.25" r="885" customHeight="1" ht="12.75">
       <c r="A885" s="13"/>
       <c r="B885" s="6"/>
-      <c r="C885" s="6"/>
+      <c r="C885" s="13"/>
       <c r="D885" s="6"/>
       <c r="E885" s="13"/>
       <c r="F885" s="10"/>
@@ -31114,7 +31117,7 @@
     <row x14ac:dyDescent="0.25" r="886" customHeight="1" ht="12.75">
       <c r="A886" s="13"/>
       <c r="B886" s="6"/>
-      <c r="C886" s="6"/>
+      <c r="C886" s="13"/>
       <c r="D886" s="6"/>
       <c r="E886" s="13"/>
       <c r="F886" s="10"/>
@@ -31145,7 +31148,7 @@
     <row x14ac:dyDescent="0.25" r="887" customHeight="1" ht="12.75">
       <c r="A887" s="13"/>
       <c r="B887" s="6"/>
-      <c r="C887" s="6"/>
+      <c r="C887" s="13"/>
       <c r="D887" s="6"/>
       <c r="E887" s="13"/>
       <c r="F887" s="10"/>
@@ -31176,7 +31179,7 @@
     <row x14ac:dyDescent="0.25" r="888" customHeight="1" ht="12.75">
       <c r="A888" s="13"/>
       <c r="B888" s="6"/>
-      <c r="C888" s="6"/>
+      <c r="C888" s="13"/>
       <c r="D888" s="6"/>
       <c r="E888" s="13"/>
       <c r="F888" s="10"/>
@@ -31207,7 +31210,7 @@
     <row x14ac:dyDescent="0.25" r="889" customHeight="1" ht="12.75">
       <c r="A889" s="13"/>
       <c r="B889" s="6"/>
-      <c r="C889" s="6"/>
+      <c r="C889" s="13"/>
       <c r="D889" s="6"/>
       <c r="E889" s="13"/>
       <c r="F889" s="10"/>
@@ -31238,7 +31241,7 @@
     <row x14ac:dyDescent="0.25" r="890" customHeight="1" ht="12.75">
       <c r="A890" s="13"/>
       <c r="B890" s="6"/>
-      <c r="C890" s="6"/>
+      <c r="C890" s="13"/>
       <c r="D890" s="6"/>
       <c r="E890" s="13"/>
       <c r="F890" s="10"/>
@@ -31269,7 +31272,7 @@
     <row x14ac:dyDescent="0.25" r="891" customHeight="1" ht="12.75">
       <c r="A891" s="13"/>
       <c r="B891" s="6"/>
-      <c r="C891" s="6"/>
+      <c r="C891" s="13"/>
       <c r="D891" s="6"/>
       <c r="E891" s="13"/>
       <c r="F891" s="10"/>
@@ -31300,7 +31303,7 @@
     <row x14ac:dyDescent="0.25" r="892" customHeight="1" ht="12.75">
       <c r="A892" s="13"/>
       <c r="B892" s="6"/>
-      <c r="C892" s="6"/>
+      <c r="C892" s="13"/>
       <c r="D892" s="6"/>
       <c r="E892" s="13"/>
       <c r="F892" s="10"/>
@@ -31331,7 +31334,7 @@
     <row x14ac:dyDescent="0.25" r="893" customHeight="1" ht="12.75">
       <c r="A893" s="13"/>
       <c r="B893" s="6"/>
-      <c r="C893" s="6"/>
+      <c r="C893" s="13"/>
       <c r="D893" s="6"/>
       <c r="E893" s="13"/>
       <c r="F893" s="10"/>
@@ -31362,7 +31365,7 @@
     <row x14ac:dyDescent="0.25" r="894" customHeight="1" ht="12.75">
       <c r="A894" s="13"/>
       <c r="B894" s="6"/>
-      <c r="C894" s="6"/>
+      <c r="C894" s="13"/>
       <c r="D894" s="6"/>
       <c r="E894" s="13"/>
       <c r="F894" s="10"/>
@@ -31393,7 +31396,7 @@
     <row x14ac:dyDescent="0.25" r="895" customHeight="1" ht="12.75">
       <c r="A895" s="13"/>
       <c r="B895" s="6"/>
-      <c r="C895" s="6"/>
+      <c r="C895" s="13"/>
       <c r="D895" s="6"/>
       <c r="E895" s="13"/>
       <c r="F895" s="10"/>
@@ -31424,7 +31427,7 @@
     <row x14ac:dyDescent="0.25" r="896" customHeight="1" ht="12.75">
       <c r="A896" s="13"/>
       <c r="B896" s="6"/>
-      <c r="C896" s="6"/>
+      <c r="C896" s="13"/>
       <c r="D896" s="6"/>
       <c r="E896" s="13"/>
       <c r="F896" s="10"/>
@@ -31455,7 +31458,7 @@
     <row x14ac:dyDescent="0.25" r="897" customHeight="1" ht="12.75">
       <c r="A897" s="13"/>
       <c r="B897" s="6"/>
-      <c r="C897" s="6"/>
+      <c r="C897" s="13"/>
       <c r="D897" s="6"/>
       <c r="E897" s="13"/>
       <c r="F897" s="10"/>
@@ -31486,7 +31489,7 @@
     <row x14ac:dyDescent="0.25" r="898" customHeight="1" ht="12.75">
       <c r="A898" s="13"/>
       <c r="B898" s="6"/>
-      <c r="C898" s="6"/>
+      <c r="C898" s="13"/>
       <c r="D898" s="6"/>
       <c r="E898" s="13"/>
       <c r="F898" s="10"/>
@@ -31517,7 +31520,7 @@
     <row x14ac:dyDescent="0.25" r="899" customHeight="1" ht="12.75">
       <c r="A899" s="13"/>
       <c r="B899" s="6"/>
-      <c r="C899" s="6"/>
+      <c r="C899" s="13"/>
       <c r="D899" s="6"/>
       <c r="E899" s="13"/>
       <c r="F899" s="10"/>
@@ -31548,7 +31551,7 @@
     <row x14ac:dyDescent="0.25" r="900" customHeight="1" ht="12.75">
       <c r="A900" s="13"/>
       <c r="B900" s="6"/>
-      <c r="C900" s="6"/>
+      <c r="C900" s="13"/>
       <c r="D900" s="6"/>
       <c r="E900" s="13"/>
       <c r="F900" s="10"/>
@@ -31579,7 +31582,7 @@
     <row x14ac:dyDescent="0.25" r="901" customHeight="1" ht="12.75">
       <c r="A901" s="13"/>
       <c r="B901" s="6"/>
-      <c r="C901" s="6"/>
+      <c r="C901" s="13"/>
       <c r="D901" s="6"/>
       <c r="E901" s="13"/>
       <c r="F901" s="10"/>
@@ -31610,7 +31613,7 @@
     <row x14ac:dyDescent="0.25" r="902" customHeight="1" ht="12.75">
       <c r="A902" s="13"/>
       <c r="B902" s="6"/>
-      <c r="C902" s="6"/>
+      <c r="C902" s="13"/>
       <c r="D902" s="6"/>
       <c r="E902" s="13"/>
       <c r="F902" s="10"/>
@@ -31641,7 +31644,7 @@
     <row x14ac:dyDescent="0.25" r="903" customHeight="1" ht="12.75">
       <c r="A903" s="13"/>
       <c r="B903" s="6"/>
-      <c r="C903" s="6"/>
+      <c r="C903" s="13"/>
       <c r="D903" s="6"/>
       <c r="E903" s="13"/>
       <c r="F903" s="10"/>
@@ -31672,7 +31675,7 @@
     <row x14ac:dyDescent="0.25" r="904" customHeight="1" ht="12.75">
       <c r="A904" s="13"/>
       <c r="B904" s="6"/>
-      <c r="C904" s="6"/>
+      <c r="C904" s="13"/>
       <c r="D904" s="6"/>
       <c r="E904" s="13"/>
       <c r="F904" s="10"/>
@@ -31703,7 +31706,7 @@
     <row x14ac:dyDescent="0.25" r="905" customHeight="1" ht="12.75">
       <c r="A905" s="13"/>
       <c r="B905" s="6"/>
-      <c r="C905" s="6"/>
+      <c r="C905" s="13"/>
       <c r="D905" s="6"/>
       <c r="E905" s="13"/>
       <c r="F905" s="10"/>
@@ -31734,7 +31737,7 @@
     <row x14ac:dyDescent="0.25" r="906" customHeight="1" ht="12.75">
       <c r="A906" s="13"/>
       <c r="B906" s="6"/>
-      <c r="C906" s="6"/>
+      <c r="C906" s="13"/>
       <c r="D906" s="6"/>
       <c r="E906" s="13"/>
       <c r="F906" s="10"/>
@@ -31765,7 +31768,7 @@
     <row x14ac:dyDescent="0.25" r="907" customHeight="1" ht="12.75">
       <c r="A907" s="13"/>
       <c r="B907" s="6"/>
-      <c r="C907" s="6"/>
+      <c r="C907" s="13"/>
       <c r="D907" s="6"/>
       <c r="E907" s="13"/>
       <c r="F907" s="10"/>
@@ -31796,7 +31799,7 @@
     <row x14ac:dyDescent="0.25" r="908" customHeight="1" ht="12.75">
       <c r="A908" s="13"/>
       <c r="B908" s="6"/>
-      <c r="C908" s="6"/>
+      <c r="C908" s="13"/>
       <c r="D908" s="6"/>
       <c r="E908" s="13"/>
       <c r="F908" s="10"/>
@@ -31827,7 +31830,7 @@
     <row x14ac:dyDescent="0.25" r="909" customHeight="1" ht="12.75">
       <c r="A909" s="13"/>
       <c r="B909" s="6"/>
-      <c r="C909" s="6"/>
+      <c r="C909" s="13"/>
       <c r="D909" s="6"/>
       <c r="E909" s="13"/>
       <c r="F909" s="10"/>
@@ -31858,7 +31861,7 @@
     <row x14ac:dyDescent="0.25" r="910" customHeight="1" ht="12.75">
       <c r="A910" s="13"/>
       <c r="B910" s="6"/>
-      <c r="C910" s="6"/>
+      <c r="C910" s="13"/>
       <c r="D910" s="6"/>
       <c r="E910" s="13"/>
       <c r="F910" s="10"/>
@@ -31889,7 +31892,7 @@
     <row x14ac:dyDescent="0.25" r="911" customHeight="1" ht="12.75">
       <c r="A911" s="13"/>
       <c r="B911" s="6"/>
-      <c r="C911" s="6"/>
+      <c r="C911" s="13"/>
       <c r="D911" s="6"/>
       <c r="E911" s="13"/>
       <c r="F911" s="10"/>
@@ -31920,7 +31923,7 @@
     <row x14ac:dyDescent="0.25" r="912" customHeight="1" ht="12.75">
       <c r="A912" s="13"/>
       <c r="B912" s="6"/>
-      <c r="C912" s="6"/>
+      <c r="C912" s="13"/>
       <c r="D912" s="6"/>
       <c r="E912" s="13"/>
       <c r="F912" s="10"/>
@@ -31951,7 +31954,7 @@
     <row x14ac:dyDescent="0.25" r="913" customHeight="1" ht="12.75">
       <c r="A913" s="13"/>
       <c r="B913" s="6"/>
-      <c r="C913" s="6"/>
+      <c r="C913" s="13"/>
       <c r="D913" s="6"/>
       <c r="E913" s="13"/>
       <c r="F913" s="10"/>
@@ -31982,7 +31985,7 @@
     <row x14ac:dyDescent="0.25" r="914" customHeight="1" ht="12.75">
       <c r="A914" s="13"/>
       <c r="B914" s="6"/>
-      <c r="C914" s="6"/>
+      <c r="C914" s="13"/>
       <c r="D914" s="6"/>
       <c r="E914" s="13"/>
       <c r="F914" s="10"/>
@@ -32013,7 +32016,7 @@
     <row x14ac:dyDescent="0.25" r="915" customHeight="1" ht="12.75">
       <c r="A915" s="13"/>
       <c r="B915" s="6"/>
-      <c r="C915" s="6"/>
+      <c r="C915" s="13"/>
       <c r="D915" s="6"/>
       <c r="E915" s="13"/>
       <c r="F915" s="10"/>
@@ -32044,7 +32047,7 @@
     <row x14ac:dyDescent="0.25" r="916" customHeight="1" ht="12.75">
       <c r="A916" s="13"/>
       <c r="B916" s="6"/>
-      <c r="C916" s="6"/>
+      <c r="C916" s="13"/>
       <c r="D916" s="6"/>
       <c r="E916" s="13"/>
       <c r="F916" s="10"/>
@@ -32075,7 +32078,7 @@
     <row x14ac:dyDescent="0.25" r="917" customHeight="1" ht="12.75">
       <c r="A917" s="13"/>
       <c r="B917" s="6"/>
-      <c r="C917" s="6"/>
+      <c r="C917" s="13"/>
       <c r="D917" s="6"/>
       <c r="E917" s="13"/>
       <c r="F917" s="10"/>
@@ -32106,7 +32109,7 @@
     <row x14ac:dyDescent="0.25" r="918" customHeight="1" ht="12.75">
       <c r="A918" s="13"/>
       <c r="B918" s="6"/>
-      <c r="C918" s="6"/>
+      <c r="C918" s="13"/>
       <c r="D918" s="6"/>
       <c r="E918" s="13"/>
       <c r="F918" s="10"/>
@@ -32137,7 +32140,7 @@
     <row x14ac:dyDescent="0.25" r="919" customHeight="1" ht="12.75">
       <c r="A919" s="13"/>
       <c r="B919" s="6"/>
-      <c r="C919" s="6"/>
+      <c r="C919" s="13"/>
       <c r="D919" s="6"/>
       <c r="E919" s="13"/>
       <c r="F919" s="10"/>
@@ -32168,7 +32171,7 @@
     <row x14ac:dyDescent="0.25" r="920" customHeight="1" ht="12.75">
       <c r="A920" s="13"/>
       <c r="B920" s="6"/>
-      <c r="C920" s="6"/>
+      <c r="C920" s="13"/>
       <c r="D920" s="6"/>
       <c r="E920" s="13"/>
       <c r="F920" s="10"/>
@@ -32199,7 +32202,7 @@
     <row x14ac:dyDescent="0.25" r="921" customHeight="1" ht="12.75">
       <c r="A921" s="13"/>
       <c r="B921" s="6"/>
-      <c r="C921" s="6"/>
+      <c r="C921" s="13"/>
       <c r="D921" s="6"/>
       <c r="E921" s="13"/>
       <c r="F921" s="10"/>
@@ -32230,7 +32233,7 @@
     <row x14ac:dyDescent="0.25" r="922" customHeight="1" ht="12.75">
       <c r="A922" s="13"/>
       <c r="B922" s="6"/>
-      <c r="C922" s="6"/>
+      <c r="C922" s="13"/>
       <c r="D922" s="6"/>
       <c r="E922" s="13"/>
       <c r="F922" s="10"/>
@@ -32261,7 +32264,7 @@
     <row x14ac:dyDescent="0.25" r="923" customHeight="1" ht="12.75">
       <c r="A923" s="13"/>
       <c r="B923" s="6"/>
-      <c r="C923" s="6"/>
+      <c r="C923" s="13"/>
       <c r="D923" s="6"/>
       <c r="E923" s="13"/>
       <c r="F923" s="10"/>
@@ -32292,7 +32295,7 @@
     <row x14ac:dyDescent="0.25" r="924" customHeight="1" ht="12.75">
       <c r="A924" s="13"/>
       <c r="B924" s="6"/>
-      <c r="C924" s="6"/>
+      <c r="C924" s="13"/>
       <c r="D924" s="6"/>
       <c r="E924" s="13"/>
       <c r="F924" s="10"/>
@@ -32323,7 +32326,7 @@
     <row x14ac:dyDescent="0.25" r="925" customHeight="1" ht="12.75">
       <c r="A925" s="13"/>
       <c r="B925" s="6"/>
-      <c r="C925" s="6"/>
+      <c r="C925" s="13"/>
       <c r="D925" s="6"/>
       <c r="E925" s="13"/>
       <c r="F925" s="10"/>
@@ -32354,7 +32357,7 @@
     <row x14ac:dyDescent="0.25" r="926" customHeight="1" ht="12.75">
       <c r="A926" s="13"/>
       <c r="B926" s="6"/>
-      <c r="C926" s="6"/>
+      <c r="C926" s="13"/>
       <c r="D926" s="6"/>
       <c r="E926" s="13"/>
       <c r="F926" s="10"/>
@@ -32385,7 +32388,7 @@
     <row x14ac:dyDescent="0.25" r="927" customHeight="1" ht="12.75">
       <c r="A927" s="13"/>
       <c r="B927" s="6"/>
-      <c r="C927" s="6"/>
+      <c r="C927" s="13"/>
       <c r="D927" s="6"/>
       <c r="E927" s="13"/>
       <c r="F927" s="10"/>
@@ -32416,7 +32419,7 @@
     <row x14ac:dyDescent="0.25" r="928" customHeight="1" ht="12.75">
       <c r="A928" s="13"/>
       <c r="B928" s="6"/>
-      <c r="C928" s="6"/>
+      <c r="C928" s="13"/>
       <c r="D928" s="6"/>
       <c r="E928" s="13"/>
       <c r="F928" s="10"/>
@@ -32447,7 +32450,7 @@
     <row x14ac:dyDescent="0.25" r="929" customHeight="1" ht="12.75">
       <c r="A929" s="13"/>
       <c r="B929" s="6"/>
-      <c r="C929" s="6"/>
+      <c r="C929" s="13"/>
       <c r="D929" s="6"/>
       <c r="E929" s="13"/>
       <c r="F929" s="10"/>
@@ -32478,7 +32481,7 @@
     <row x14ac:dyDescent="0.25" r="930" customHeight="1" ht="12.75">
       <c r="A930" s="13"/>
       <c r="B930" s="6"/>
-      <c r="C930" s="6"/>
+      <c r="C930" s="13"/>
       <c r="D930" s="6"/>
       <c r="E930" s="13"/>
       <c r="F930" s="10"/>
@@ -32509,7 +32512,7 @@
     <row x14ac:dyDescent="0.25" r="931" customHeight="1" ht="12.75">
       <c r="A931" s="13"/>
       <c r="B931" s="6"/>
-      <c r="C931" s="6"/>
+      <c r="C931" s="13"/>
       <c r="D931" s="6"/>
       <c r="E931" s="13"/>
       <c r="F931" s="10"/>
@@ -32540,7 +32543,7 @@
     <row x14ac:dyDescent="0.25" r="932" customHeight="1" ht="12.75">
       <c r="A932" s="13"/>
       <c r="B932" s="6"/>
-      <c r="C932" s="6"/>
+      <c r="C932" s="13"/>
       <c r="D932" s="6"/>
       <c r="E932" s="13"/>
       <c r="F932" s="10"/>
@@ -32571,7 +32574,7 @@
     <row x14ac:dyDescent="0.25" r="933" customHeight="1" ht="12.75">
       <c r="A933" s="13"/>
       <c r="B933" s="6"/>
-      <c r="C933" s="6"/>
+      <c r="C933" s="13"/>
       <c r="D933" s="6"/>
       <c r="E933" s="13"/>
       <c r="F933" s="10"/>
@@ -32602,7 +32605,7 @@
     <row x14ac:dyDescent="0.25" r="934" customHeight="1" ht="12.75">
       <c r="A934" s="13"/>
       <c r="B934" s="6"/>
-      <c r="C934" s="6"/>
+      <c r="C934" s="13"/>
       <c r="D934" s="6"/>
       <c r="E934" s="13"/>
       <c r="F934" s="10"/>
@@ -32633,7 +32636,7 @@
     <row x14ac:dyDescent="0.25" r="935" customHeight="1" ht="12.75">
       <c r="A935" s="13"/>
       <c r="B935" s="6"/>
-      <c r="C935" s="6"/>
+      <c r="C935" s="13"/>
       <c r="D935" s="6"/>
       <c r="E935" s="13"/>
       <c r="F935" s="10"/>
@@ -32664,7 +32667,7 @@
     <row x14ac:dyDescent="0.25" r="936" customHeight="1" ht="12.75">
       <c r="A936" s="13"/>
       <c r="B936" s="6"/>
-      <c r="C936" s="6"/>
+      <c r="C936" s="13"/>
       <c r="D936" s="6"/>
       <c r="E936" s="13"/>
       <c r="F936" s="10"/>
@@ -32695,7 +32698,7 @@
     <row x14ac:dyDescent="0.25" r="937" customHeight="1" ht="12.75">
       <c r="A937" s="13"/>
       <c r="B937" s="6"/>
-      <c r="C937" s="6"/>
+      <c r="C937" s="13"/>
       <c r="D937" s="6"/>
       <c r="E937" s="13"/>
       <c r="F937" s="10"/>
@@ -32726,7 +32729,7 @@
     <row x14ac:dyDescent="0.25" r="938" customHeight="1" ht="12.75">
       <c r="A938" s="13"/>
       <c r="B938" s="6"/>
-      <c r="C938" s="6"/>
+      <c r="C938" s="13"/>
       <c r="D938" s="6"/>
       <c r="E938" s="13"/>
       <c r="F938" s="10"/>
@@ -32757,7 +32760,7 @@
     <row x14ac:dyDescent="0.25" r="939" customHeight="1" ht="12.75">
       <c r="A939" s="13"/>
       <c r="B939" s="6"/>
-      <c r="C939" s="6"/>
+      <c r="C939" s="13"/>
       <c r="D939" s="6"/>
       <c r="E939" s="13"/>
       <c r="F939" s="10"/>
@@ -32788,7 +32791,7 @@
     <row x14ac:dyDescent="0.25" r="940" customHeight="1" ht="12.75">
       <c r="A940" s="13"/>
       <c r="B940" s="6"/>
-      <c r="C940" s="6"/>
+      <c r="C940" s="13"/>
       <c r="D940" s="6"/>
       <c r="E940" s="13"/>
       <c r="F940" s="10"/>
@@ -32819,7 +32822,7 @@
     <row x14ac:dyDescent="0.25" r="941" customHeight="1" ht="12.75">
       <c r="A941" s="13"/>
       <c r="B941" s="6"/>
-      <c r="C941" s="6"/>
+      <c r="C941" s="13"/>
       <c r="D941" s="6"/>
       <c r="E941" s="13"/>
       <c r="F941" s="10"/>
@@ -32850,7 +32853,7 @@
     <row x14ac:dyDescent="0.25" r="942" customHeight="1" ht="12.75">
       <c r="A942" s="13"/>
       <c r="B942" s="6"/>
-      <c r="C942" s="6"/>
+      <c r="C942" s="13"/>
       <c r="D942" s="6"/>
       <c r="E942" s="13"/>
       <c r="F942" s="10"/>
@@ -32881,7 +32884,7 @@
     <row x14ac:dyDescent="0.25" r="943" customHeight="1" ht="12.75">
       <c r="A943" s="13"/>
       <c r="B943" s="6"/>
-      <c r="C943" s="6"/>
+      <c r="C943" s="13"/>
       <c r="D943" s="6"/>
       <c r="E943" s="13"/>
       <c r="F943" s="10"/>
@@ -32912,7 +32915,7 @@
     <row x14ac:dyDescent="0.25" r="944" customHeight="1" ht="12.75">
       <c r="A944" s="13"/>
       <c r="B944" s="6"/>
-      <c r="C944" s="6"/>
+      <c r="C944" s="13"/>
       <c r="D944" s="6"/>
       <c r="E944" s="13"/>
       <c r="F944" s="10"/>
@@ -32943,7 +32946,7 @@
     <row x14ac:dyDescent="0.25" r="945" customHeight="1" ht="12.75">
       <c r="A945" s="13"/>
       <c r="B945" s="6"/>
-      <c r="C945" s="6"/>
+      <c r="C945" s="13"/>
       <c r="D945" s="6"/>
       <c r="E945" s="13"/>
       <c r="F945" s="10"/>
@@ -32974,7 +32977,7 @@
     <row x14ac:dyDescent="0.25" r="946" customHeight="1" ht="12.75">
       <c r="A946" s="13"/>
       <c r="B946" s="6"/>
-      <c r="C946" s="6"/>
+      <c r="C946" s="13"/>
       <c r="D946" s="6"/>
       <c r="E946" s="13"/>
       <c r="F946" s="10"/>
@@ -33005,7 +33008,7 @@
     <row x14ac:dyDescent="0.25" r="947" customHeight="1" ht="12.75">
       <c r="A947" s="13"/>
       <c r="B947" s="6"/>
-      <c r="C947" s="6"/>
+      <c r="C947" s="13"/>
       <c r="D947" s="6"/>
       <c r="E947" s="13"/>
       <c r="F947" s="10"/>
@@ -33036,7 +33039,7 @@
     <row x14ac:dyDescent="0.25" r="948" customHeight="1" ht="12.75">
       <c r="A948" s="13"/>
       <c r="B948" s="6"/>
-      <c r="C948" s="6"/>
+      <c r="C948" s="13"/>
       <c r="D948" s="6"/>
       <c r="E948" s="13"/>
       <c r="F948" s="10"/>
@@ -33067,7 +33070,7 @@
     <row x14ac:dyDescent="0.25" r="949" customHeight="1" ht="12.75">
       <c r="A949" s="13"/>
       <c r="B949" s="6"/>
-      <c r="C949" s="6"/>
+      <c r="C949" s="13"/>
       <c r="D949" s="6"/>
       <c r="E949" s="13"/>
       <c r="F949" s="10"/>
@@ -33098,7 +33101,7 @@
     <row x14ac:dyDescent="0.25" r="950" customHeight="1" ht="12.75">
       <c r="A950" s="13"/>
       <c r="B950" s="6"/>
-      <c r="C950" s="6"/>
+      <c r="C950" s="13"/>
       <c r="D950" s="6"/>
       <c r="E950" s="13"/>
       <c r="F950" s="10"/>
@@ -33129,7 +33132,7 @@
     <row x14ac:dyDescent="0.25" r="951" customHeight="1" ht="12.75">
       <c r="A951" s="13"/>
       <c r="B951" s="6"/>
-      <c r="C951" s="6"/>
+      <c r="C951" s="13"/>
       <c r="D951" s="6"/>
       <c r="E951" s="13"/>
       <c r="F951" s="10"/>
@@ -33160,7 +33163,7 @@
     <row x14ac:dyDescent="0.25" r="952" customHeight="1" ht="12.75">
       <c r="A952" s="13"/>
       <c r="B952" s="6"/>
-      <c r="C952" s="6"/>
+      <c r="C952" s="13"/>
       <c r="D952" s="6"/>
       <c r="E952" s="13"/>
       <c r="F952" s="10"/>
@@ -33191,7 +33194,7 @@
     <row x14ac:dyDescent="0.25" r="953" customHeight="1" ht="12.75">
       <c r="A953" s="13"/>
       <c r="B953" s="6"/>
-      <c r="C953" s="6"/>
+      <c r="C953" s="13"/>
       <c r="D953" s="6"/>
       <c r="E953" s="13"/>
       <c r="F953" s="10"/>
@@ -33222,7 +33225,7 @@
     <row x14ac:dyDescent="0.25" r="954" customHeight="1" ht="12.75">
       <c r="A954" s="13"/>
       <c r="B954" s="6"/>
-      <c r="C954" s="6"/>
+      <c r="C954" s="13"/>
       <c r="D954" s="6"/>
       <c r="E954" s="13"/>
       <c r="F954" s="10"/>
@@ -33253,7 +33256,7 @@
     <row x14ac:dyDescent="0.25" r="955" customHeight="1" ht="12.75">
       <c r="A955" s="13"/>
       <c r="B955" s="6"/>
-      <c r="C955" s="6"/>
+      <c r="C955" s="13"/>
       <c r="D955" s="6"/>
       <c r="E955" s="13"/>
       <c r="F955" s="10"/>
@@ -33284,7 +33287,7 @@
     <row x14ac:dyDescent="0.25" r="956" customHeight="1" ht="12.75">
       <c r="A956" s="13"/>
       <c r="B956" s="6"/>
-      <c r="C956" s="6"/>
+      <c r="C956" s="13"/>
       <c r="D956" s="6"/>
       <c r="E956" s="13"/>
       <c r="F956" s="10"/>
@@ -33315,7 +33318,7 @@
     <row x14ac:dyDescent="0.25" r="957" customHeight="1" ht="12.75">
       <c r="A957" s="13"/>
       <c r="B957" s="6"/>
-      <c r="C957" s="6"/>
+      <c r="C957" s="13"/>
       <c r="D957" s="6"/>
       <c r="E957" s="13"/>
       <c r="F957" s="10"/>
@@ -33346,7 +33349,7 @@
     <row x14ac:dyDescent="0.25" r="958" customHeight="1" ht="12.75">
       <c r="A958" s="13"/>
       <c r="B958" s="6"/>
-      <c r="C958" s="6"/>
+      <c r="C958" s="13"/>
       <c r="D958" s="6"/>
       <c r="E958" s="13"/>
       <c r="F958" s="10"/>
@@ -33377,7 +33380,7 @@
     <row x14ac:dyDescent="0.25" r="959" customHeight="1" ht="12.75">
       <c r="A959" s="13"/>
       <c r="B959" s="6"/>
-      <c r="C959" s="6"/>
+      <c r="C959" s="13"/>
       <c r="D959" s="6"/>
       <c r="E959" s="13"/>
       <c r="F959" s="10"/>
@@ -33408,7 +33411,7 @@
     <row x14ac:dyDescent="0.25" r="960" customHeight="1" ht="12.75">
       <c r="A960" s="13"/>
       <c r="B960" s="6"/>
-      <c r="C960" s="6"/>
+      <c r="C960" s="13"/>
       <c r="D960" s="6"/>
       <c r="E960" s="13"/>
       <c r="F960" s="10"/>
@@ -33439,7 +33442,7 @@
     <row x14ac:dyDescent="0.25" r="961" customHeight="1" ht="12.75">
       <c r="A961" s="13"/>
       <c r="B961" s="6"/>
-      <c r="C961" s="6"/>
+      <c r="C961" s="13"/>
       <c r="D961" s="6"/>
       <c r="E961" s="13"/>
       <c r="F961" s="10"/>
@@ -33470,7 +33473,7 @@
     <row x14ac:dyDescent="0.25" r="962" customHeight="1" ht="12.75">
       <c r="A962" s="13"/>
       <c r="B962" s="6"/>
-      <c r="C962" s="6"/>
+      <c r="C962" s="13"/>
       <c r="D962" s="6"/>
       <c r="E962" s="13"/>
       <c r="F962" s="10"/>
@@ -33501,7 +33504,7 @@
     <row x14ac:dyDescent="0.25" r="963" customHeight="1" ht="12.75">
       <c r="A963" s="13"/>
       <c r="B963" s="6"/>
-      <c r="C963" s="6"/>
+      <c r="C963" s="13"/>
       <c r="D963" s="6"/>
       <c r="E963" s="13"/>
       <c r="F963" s="10"/>
@@ -33532,7 +33535,7 @@
     <row x14ac:dyDescent="0.25" r="964" customHeight="1" ht="12.75">
       <c r="A964" s="13"/>
       <c r="B964" s="6"/>
-      <c r="C964" s="6"/>
+      <c r="C964" s="13"/>
       <c r="D964" s="6"/>
       <c r="E964" s="13"/>
       <c r="F964" s="10"/>
@@ -33563,7 +33566,7 @@
     <row x14ac:dyDescent="0.25" r="965" customHeight="1" ht="12.75">
       <c r="A965" s="13"/>
       <c r="B965" s="6"/>
-      <c r="C965" s="6"/>
+      <c r="C965" s="13"/>
       <c r="D965" s="6"/>
       <c r="E965" s="13"/>
       <c r="F965" s="10"/>
@@ -33594,7 +33597,7 @@
     <row x14ac:dyDescent="0.25" r="966" customHeight="1" ht="12.75">
       <c r="A966" s="13"/>
       <c r="B966" s="6"/>
-      <c r="C966" s="6"/>
+      <c r="C966" s="13"/>
       <c r="D966" s="6"/>
       <c r="E966" s="13"/>
       <c r="F966" s="10"/>
@@ -33625,7 +33628,7 @@
     <row x14ac:dyDescent="0.25" r="967" customHeight="1" ht="12.75">
       <c r="A967" s="13"/>
       <c r="B967" s="6"/>
-      <c r="C967" s="6"/>
+      <c r="C967" s="13"/>
       <c r="D967" s="6"/>
       <c r="E967" s="13"/>
       <c r="F967" s="10"/>
@@ -33656,7 +33659,7 @@
     <row x14ac:dyDescent="0.25" r="968" customHeight="1" ht="12.75">
       <c r="A968" s="13"/>
       <c r="B968" s="6"/>
-      <c r="C968" s="6"/>
+      <c r="C968" s="13"/>
       <c r="D968" s="6"/>
       <c r="E968" s="13"/>
       <c r="F968" s="10"/>
@@ -33687,7 +33690,7 @@
     <row x14ac:dyDescent="0.25" r="969" customHeight="1" ht="12.75">
       <c r="A969" s="13"/>
       <c r="B969" s="6"/>
-      <c r="C969" s="6"/>
+      <c r="C969" s="13"/>
       <c r="D969" s="6"/>
       <c r="E969" s="13"/>
       <c r="F969" s="10"/>
@@ -33718,7 +33721,7 @@
     <row x14ac:dyDescent="0.25" r="970" customHeight="1" ht="12.75">
       <c r="A970" s="13"/>
       <c r="B970" s="6"/>
-      <c r="C970" s="6"/>
+      <c r="C970" s="13"/>
       <c r="D970" s="6"/>
       <c r="E970" s="13"/>
       <c r="F970" s="10"/>
@@ -33749,7 +33752,7 @@
     <row x14ac:dyDescent="0.25" r="971" customHeight="1" ht="12.75">
       <c r="A971" s="13"/>
       <c r="B971" s="6"/>
-      <c r="C971" s="6"/>
+      <c r="C971" s="13"/>
       <c r="D971" s="6"/>
       <c r="E971" s="13"/>
       <c r="F971" s="10"/>
@@ -33780,7 +33783,7 @@
     <row x14ac:dyDescent="0.25" r="972" customHeight="1" ht="12.75">
       <c r="A972" s="13"/>
       <c r="B972" s="6"/>
-      <c r="C972" s="6"/>
+      <c r="C972" s="13"/>
       <c r="D972" s="6"/>
       <c r="E972" s="13"/>
       <c r="F972" s="10"/>
@@ -33811,7 +33814,7 @@
     <row x14ac:dyDescent="0.25" r="973" customHeight="1" ht="12.75">
       <c r="A973" s="13"/>
       <c r="B973" s="6"/>
-      <c r="C973" s="6"/>
+      <c r="C973" s="13"/>
       <c r="D973" s="6"/>
       <c r="E973" s="13"/>
       <c r="F973" s="10"/>
@@ -33842,7 +33845,7 @@
     <row x14ac:dyDescent="0.25" r="974" customHeight="1" ht="12.75">
       <c r="A974" s="13"/>
       <c r="B974" s="6"/>
-      <c r="C974" s="6"/>
+      <c r="C974" s="13"/>
       <c r="D974" s="6"/>
       <c r="E974" s="13"/>
       <c r="F974" s="10"/>
@@ -33873,17 +33876,17 @@
     <row x14ac:dyDescent="0.25" r="975" customHeight="1" ht="17.25">
       <c r="A975" s="14"/>
       <c r="B975" s="15"/>
-      <c r="C975" s="15"/>
+      <c r="C975" s="16"/>
       <c r="D975" s="15"/>
       <c r="E975" s="14"/>
-      <c r="F975" s="16"/>
-      <c r="G975" s="16"/>
+      <c r="F975" s="17"/>
+      <c r="G975" s="17"/>
       <c r="H975" s="14"/>
       <c r="I975" s="15"/>
-      <c r="J975" s="16"/>
+      <c r="J975" s="17"/>
       <c r="K975" s="14"/>
       <c r="L975" s="15"/>
-      <c r="M975" s="16"/>
+      <c r="M975" s="17"/>
       <c r="N975" s="14"/>
       <c r="O975" s="15"/>
       <c r="P975" s="15"/>
@@ -33904,17 +33907,17 @@
     <row x14ac:dyDescent="0.25" r="976" customHeight="1" ht="17.25">
       <c r="A976" s="14"/>
       <c r="B976" s="15"/>
-      <c r="C976" s="15"/>
+      <c r="C976" s="16"/>
       <c r="D976" s="15"/>
       <c r="E976" s="14"/>
-      <c r="F976" s="16"/>
-      <c r="G976" s="16"/>
+      <c r="F976" s="17"/>
+      <c r="G976" s="17"/>
       <c r="H976" s="14"/>
       <c r="I976" s="15"/>
-      <c r="J976" s="16"/>
+      <c r="J976" s="17"/>
       <c r="K976" s="14"/>
       <c r="L976" s="15"/>
-      <c r="M976" s="16"/>
+      <c r="M976" s="17"/>
       <c r="N976" s="14"/>
       <c r="O976" s="15"/>
       <c r="P976" s="15"/>
@@ -33935,17 +33938,17 @@
     <row x14ac:dyDescent="0.25" r="977" customHeight="1" ht="17.25">
       <c r="A977" s="14"/>
       <c r="B977" s="15"/>
-      <c r="C977" s="15"/>
+      <c r="C977" s="16"/>
       <c r="D977" s="15"/>
       <c r="E977" s="14"/>
-      <c r="F977" s="16"/>
-      <c r="G977" s="16"/>
+      <c r="F977" s="17"/>
+      <c r="G977" s="17"/>
       <c r="H977" s="14"/>
       <c r="I977" s="15"/>
-      <c r="J977" s="16"/>
+      <c r="J977" s="17"/>
       <c r="K977" s="14"/>
       <c r="L977" s="15"/>
-      <c r="M977" s="16"/>
+      <c r="M977" s="17"/>
       <c r="N977" s="14"/>
       <c r="O977" s="15"/>
       <c r="P977" s="15"/>
@@ -33966,17 +33969,17 @@
     <row x14ac:dyDescent="0.25" r="978" customHeight="1" ht="17.25">
       <c r="A978" s="14"/>
       <c r="B978" s="15"/>
-      <c r="C978" s="15"/>
+      <c r="C978" s="16"/>
       <c r="D978" s="15"/>
       <c r="E978" s="14"/>
-      <c r="F978" s="16"/>
-      <c r="G978" s="16"/>
+      <c r="F978" s="17"/>
+      <c r="G978" s="17"/>
       <c r="H978" s="14"/>
       <c r="I978" s="15"/>
-      <c r="J978" s="16"/>
+      <c r="J978" s="17"/>
       <c r="K978" s="14"/>
       <c r="L978" s="15"/>
-      <c r="M978" s="16"/>
+      <c r="M978" s="17"/>
       <c r="N978" s="14"/>
       <c r="O978" s="15"/>
       <c r="P978" s="15"/>
